--- a/data/District Monitoring.xlsx
+++ b/data/District Monitoring.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_price\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\manniongeo\projects\nwfwmd\2015-01-13_gis_support\github\Hydrologic-Monitoring-Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725DE993-94B5-4737-8496-89F80F32D020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F699AE46-8E94-4803-BC39-1E4B02654E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comprehensive Monitoring" sheetId="3" r:id="rId1"/>
@@ -5023,7 +5023,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -5041,7 +5041,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -5658,10 +5658,10 @@
   <dimension ref="A1:AN459"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C445" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F465" sqref="F465"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5706,7 +5706,6 @@
     <col min="38" max="38" width="14.85546875" customWidth="1"/>
     <col min="39" max="39" width="15.140625" customWidth="1"/>
     <col min="40" max="40" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="13058" max="13058" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -40701,23 +40700,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="d3d772d5-8785-49ba-8d87-9ce83f8f842f" xsi:nil="true"/>
-    <SharedWithUsers xmlns="5bc6a959-17f5-4671-a856-850152dcb308">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <uegw xmlns="d3d772d5-8785-49ba-8d87-9ce83f8f842f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d3d772d5-8785-49ba-8d87-9ce83f8f842f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5bc6a959-17f5-4671-a856-850152dcb308" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40976,21 +40964,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="d3d772d5-8785-49ba-8d87-9ce83f8f842f" xsi:nil="true"/>
+    <SharedWithUsers xmlns="5bc6a959-17f5-4671-a856-850152dcb308">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <uegw xmlns="d3d772d5-8785-49ba-8d87-9ce83f8f842f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d3d772d5-8785-49ba-8d87-9ce83f8f842f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5bc6a959-17f5-4671-a856-850152dcb308" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F5B2541-43D0-49A1-8374-BB26BE387144}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{282EF33A-C6D9-498B-9EDB-B03D7B5BFEE6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d3d772d5-8785-49ba-8d87-9ce83f8f842f"/>
-    <ds:schemaRef ds:uri="5bc6a959-17f5-4671-a856-850152dcb308"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -41015,9 +41011,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{282EF33A-C6D9-498B-9EDB-B03D7B5BFEE6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F5B2541-43D0-49A1-8374-BB26BE387144}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d3d772d5-8785-49ba-8d87-9ce83f8f842f"/>
+    <ds:schemaRef ds:uri="5bc6a959-17f5-4671-a856-850152dcb308"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/District Monitoring.xlsx
+++ b/data/District Monitoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rmd1\users\k_price\Survey123_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95C40854-D34F-47AE-9D6D-65E73F5B10A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE277CE5-55C1-4DAE-A136-C17F5A9AD2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40710" yWindow="1275" windowWidth="24855" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5565" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comprehensive Monitoring" sheetId="3" r:id="rId1"/>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5051" uniqueCount="1040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5051" uniqueCount="1041">
   <si>
     <t>Station ID</t>
   </si>
@@ -3361,6 +3361,9 @@
   </si>
   <si>
     <t>Test site</t>
+  </si>
+  <si>
+    <t>Stage/Rainfall/Discharge/GW Level/Cond/Temp/WQ/Vel.Ind</t>
   </si>
 </sst>
 </file>
@@ -4068,343 +4071,339 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -4455,54 +4454,6 @@
     <cellStyle name="Warning Text 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
   </cellStyles>
   <dxfs count="48">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -5878,6 +5829,54 @@
         </top>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -5915,57 +5914,57 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AS471" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AS471" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46" tableBorderDxfId="45">
   <autoFilter ref="A1:AS471" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AS471">
     <sortCondition ref="A1:A471"/>
   </sortState>
   <tableColumns count="45">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Station ID" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Station Name" dataDxfId="45"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="ASSIGNED TO:" dataDxfId="44"/>
-    <tableColumn id="36" xr3:uid="{D426FC75-0958-4804-B2C3-441DAF656F23}" name="PRIORITIES (visit all unless otherwise indicated)" dataDxfId="43"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Last Visit" dataDxfId="42"/>
-    <tableColumn id="34" xr3:uid="{5A22DF64-33B0-4911-8BB6-B8AD7C88D5C4}" name="By Whom?" dataDxfId="41"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Status" dataDxfId="40"/>
-    <tableColumn id="40" xr3:uid="{79F0718C-F444-40E5-B002-29853F1933A3}" name="Access_permission?" dataDxfId="39"/>
-    <tableColumn id="43" xr3:uid="{FDED7AB3-103A-4C72-AB3F-8C9C24DC8E57}" name="Needs new FLUID tag (Y/N)?" dataDxfId="38"/>
-    <tableColumn id="42" xr3:uid="{E5B3CEF8-67A6-486C-B131-D933E7705992}" name="Site photo (date)" dataDxfId="37"/>
-    <tableColumn id="37" xr3:uid="{DE4C7017-D96D-4CCF-A7C1-FC3DF7C6DAA1}" name="MP photo (date)" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Project Number" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Primary Project Name" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Secondary Project" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Other Projects" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Map Ref (Archive#)" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Monitoring_Type" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Data_Interval" dataDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Visit_Frequency" dataDxfId="28"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="IP Address 10.123.192.##" dataDxfId="27"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Telemetered" dataDxfId="26"/>
-    <tableColumn id="46" xr3:uid="{CC623F32-98FA-49B9-A15B-3C5173A0DB50}" name="Modem Phone #" dataDxfId="25"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Modem Serial #" dataDxfId="24"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Type of Recorder" dataDxfId="23"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Recorder Serial #" dataDxfId="22"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="TempInvFile" dataDxfId="21"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Blue Tag" dataDxfId="20"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="White Tag" dataDxfId="19"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Current ID" dataDxfId="18"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Type of Sensor" dataDxfId="17"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Sensor Serial #" dataDxfId="16"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Sensor Blue ID" dataDxfId="15"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Sensor White ID" dataDxfId="14"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Sensor Current ID" dataDxfId="13"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Type of Tipping Bucket" dataDxfId="12"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="T.B. Serial #" dataDxfId="11"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="T.B. Blue ID" dataDxfId="10"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="TB White ID" dataDxfId="9"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="TB Current ID" dataDxfId="8"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Water Quality Sensor" dataDxfId="7"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="WQ Serial #" dataDxfId="6"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="WQ White ID" dataDxfId="5"/>
-    <tableColumn id="44" xr3:uid="{9288F5C5-D457-4457-B4CF-3F9EE4BA4290}" name="MP Photo processed as of 7/18/23" dataDxfId="4"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Site Photo taken as of 7/18/2023" dataDxfId="3"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="County" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Station ID" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Station Name" dataDxfId="43"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="ASSIGNED TO:" dataDxfId="42"/>
+    <tableColumn id="36" xr3:uid="{D426FC75-0958-4804-B2C3-441DAF656F23}" name="PRIORITIES (visit all unless otherwise indicated)" dataDxfId="41"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Last Visit" dataDxfId="40"/>
+    <tableColumn id="34" xr3:uid="{5A22DF64-33B0-4911-8BB6-B8AD7C88D5C4}" name="By Whom?" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Status" dataDxfId="38"/>
+    <tableColumn id="40" xr3:uid="{79F0718C-F444-40E5-B002-29853F1933A3}" name="Access_permission?" dataDxfId="37"/>
+    <tableColumn id="43" xr3:uid="{FDED7AB3-103A-4C72-AB3F-8C9C24DC8E57}" name="Needs new FLUID tag (Y/N)?" dataDxfId="36"/>
+    <tableColumn id="42" xr3:uid="{E5B3CEF8-67A6-486C-B131-D933E7705992}" name="Site photo (date)" dataDxfId="35"/>
+    <tableColumn id="37" xr3:uid="{DE4C7017-D96D-4CCF-A7C1-FC3DF7C6DAA1}" name="MP photo (date)" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Project Number" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Primary Project Name" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Secondary Project" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Other Projects" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Map Ref (Archive#)" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Monitoring_Type" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Data_Interval" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Visit_Frequency" dataDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="IP Address 10.123.192.##" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Telemetered" dataDxfId="24"/>
+    <tableColumn id="46" xr3:uid="{CC623F32-98FA-49B9-A15B-3C5173A0DB50}" name="Modem Phone #" dataDxfId="23"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Modem Serial #" dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Type of Recorder" dataDxfId="21"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Recorder Serial #" dataDxfId="20"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="TempInvFile" dataDxfId="19"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Blue Tag" dataDxfId="18"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="White Tag" dataDxfId="17"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Current ID" dataDxfId="16"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Type of Sensor" dataDxfId="15"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Sensor Serial #" dataDxfId="14"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Sensor Blue ID" dataDxfId="13"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Sensor White ID" dataDxfId="12"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Sensor Current ID" dataDxfId="11"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Type of Tipping Bucket" dataDxfId="10"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="T.B. Serial #" dataDxfId="9"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="T.B. Blue ID" dataDxfId="8"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="TB White ID" dataDxfId="7"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="TB Current ID" dataDxfId="6"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Water Quality Sensor" dataDxfId="5"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="WQ Serial #" dataDxfId="4"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="WQ White ID" dataDxfId="3"/>
+    <tableColumn id="44" xr3:uid="{9288F5C5-D457-4457-B4CF-3F9EE4BA4290}" name="MP Photo processed as of 7/18/23" dataDxfId="2"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Site Photo taken as of 7/18/2023" dataDxfId="1"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="County" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6266,58 +6265,57 @@
   <dimension ref="A1:AS475"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C446" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K454" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R471" sqref="R471"/>
+      <selection pane="bottomRight" activeCell="Q471" sqref="Q471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" style="26" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="79" customWidth="1"/>
-    <col min="4" max="4" width="125.28515625" style="79" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="129" customWidth="1"/>
-    <col min="7" max="7" width="40.28515625" style="79" customWidth="1"/>
-    <col min="8" max="8" width="62.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="29.42578125" style="26" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="26" customWidth="1"/>
-    <col min="13" max="13" width="30.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" style="26" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="78" customWidth="1"/>
+    <col min="4" max="4" width="125.28515625" style="78" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="128" customWidth="1"/>
+    <col min="7" max="7" width="40.28515625" style="78" customWidth="1"/>
+    <col min="8" max="8" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="29.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" customWidth="1"/>
     <col min="16" max="16" width="23" style="8" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" style="26" customWidth="1"/>
-    <col min="18" max="18" width="12" style="26" customWidth="1"/>
-    <col min="19" max="19" width="17.140625" style="26" customWidth="1"/>
-    <col min="20" max="20" width="23.140625" style="79" customWidth="1"/>
-    <col min="21" max="22" width="18.42578125" style="26" customWidth="1"/>
-    <col min="23" max="23" width="24.85546875" style="79" customWidth="1"/>
-    <col min="24" max="24" width="21.5703125" style="80" customWidth="1"/>
-    <col min="25" max="25" width="13.85546875" style="80" customWidth="1"/>
-    <col min="26" max="26" width="11.85546875" style="80" customWidth="1"/>
-    <col min="27" max="27" width="12.42578125" style="80" customWidth="1"/>
-    <col min="28" max="28" width="15.5703125" style="80" customWidth="1"/>
-    <col min="29" max="29" width="22.7109375" style="80" customWidth="1"/>
-    <col min="30" max="30" width="23.28515625" style="80" customWidth="1"/>
-    <col min="31" max="31" width="16.42578125" style="80" customWidth="1"/>
-    <col min="32" max="32" width="15.85546875" style="80" customWidth="1"/>
-    <col min="33" max="33" width="17.42578125" style="80" customWidth="1"/>
-    <col min="34" max="34" width="18.5703125" style="80" customWidth="1"/>
-    <col min="35" max="35" width="23.42578125" style="80" customWidth="1"/>
-    <col min="36" max="36" width="13.28515625" style="80" customWidth="1"/>
-    <col min="37" max="37" width="13.140625" style="80" customWidth="1"/>
-    <col min="38" max="38" width="13.5703125" style="80" customWidth="1"/>
-    <col min="39" max="39" width="14.7109375" style="80" customWidth="1"/>
-    <col min="40" max="40" width="22" style="80" customWidth="1"/>
-    <col min="41" max="41" width="13.42578125" style="80" customWidth="1"/>
-    <col min="42" max="42" width="14.85546875" style="80" customWidth="1"/>
-    <col min="43" max="43" width="34.85546875" style="79" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="35.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="46" max="48" width="9.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="9.140625" style="26"/>
+    <col min="17" max="17" width="17.7109375" customWidth="1"/>
+    <col min="18" max="18" width="12" customWidth="1"/>
+    <col min="19" max="19" width="17.140625" customWidth="1"/>
+    <col min="20" max="20" width="23.140625" style="78" customWidth="1"/>
+    <col min="21" max="22" width="18.42578125" customWidth="1"/>
+    <col min="23" max="23" width="24.85546875" style="78" customWidth="1"/>
+    <col min="24" max="24" width="21.5703125" style="79" customWidth="1"/>
+    <col min="25" max="25" width="13.85546875" style="79" customWidth="1"/>
+    <col min="26" max="26" width="11.85546875" style="79" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" style="79" customWidth="1"/>
+    <col min="28" max="28" width="15.5703125" style="79" customWidth="1"/>
+    <col min="29" max="29" width="22.7109375" style="79" customWidth="1"/>
+    <col min="30" max="30" width="23.28515625" style="79" customWidth="1"/>
+    <col min="31" max="31" width="16.42578125" style="79" customWidth="1"/>
+    <col min="32" max="32" width="15.85546875" style="79" customWidth="1"/>
+    <col min="33" max="33" width="17.42578125" style="79" customWidth="1"/>
+    <col min="34" max="34" width="18.5703125" style="79" customWidth="1"/>
+    <col min="35" max="35" width="23.42578125" style="79" customWidth="1"/>
+    <col min="36" max="36" width="13.28515625" style="79" customWidth="1"/>
+    <col min="37" max="37" width="13.140625" style="79" customWidth="1"/>
+    <col min="38" max="38" width="13.5703125" style="79" customWidth="1"/>
+    <col min="39" max="39" width="14.7109375" style="79" customWidth="1"/>
+    <col min="40" max="40" width="22" style="79" customWidth="1"/>
+    <col min="41" max="41" width="13.42578125" style="79" customWidth="1"/>
+    <col min="42" max="42" width="14.85546875" style="79" customWidth="1"/>
+    <col min="43" max="43" width="34.85546875" style="78" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="46" max="48" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6718,7 +6716,7 @@
       <c r="C5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="13">
         <v>45357</v>
       </c>
@@ -6790,10 +6788,10 @@
         <v>71</v>
       </c>
       <c r="D6" s="18"/>
-      <c r="E6" s="28">
+      <c r="E6" s="27">
         <v>45357</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="28" t="s">
         <v>85</v>
       </c>
       <c r="G6" s="23" t="s">
@@ -6895,10 +6893,10 @@
         <v>71</v>
       </c>
       <c r="D7" s="18"/>
-      <c r="E7" s="28">
+      <c r="E7" s="27">
         <v>45357</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="28" t="s">
         <v>85</v>
       </c>
       <c r="G7" s="23" t="s">
@@ -6968,10 +6966,10 @@
       <c r="D8" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="29">
         <v>45357</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="28" t="s">
         <v>85</v>
       </c>
       <c r="G8" s="23" t="s">
@@ -6987,7 +6985,7 @@
       <c r="M8" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="N8" s="31"/>
+      <c r="N8" s="30"/>
       <c r="O8" s="21"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="21" t="s">
@@ -7040,7 +7038,7 @@
       <c r="C9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>99</v>
       </c>
       <c r="E9" s="13">
@@ -7121,7 +7119,7 @@
       <c r="C10" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="27"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="13">
         <v>45357</v>
       </c>
@@ -7141,7 +7139,7 @@
       <c r="M10" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="N10" s="31"/>
+      <c r="N10" s="30"/>
       <c r="O10" s="21"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="21" t="s">
@@ -7192,7 +7190,7 @@
       <c r="C11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="13">
         <v>45357</v>
       </c>
@@ -7263,7 +7261,7 @@
       <c r="C12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="13">
         <v>45357</v>
       </c>
@@ -7334,7 +7332,7 @@
       <c r="C13" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="32"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="13">
         <v>45357</v>
       </c>
@@ -7399,15 +7397,15 @@
       <c r="A14" s="9">
         <v>95</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="32" t="s">
         <v>107</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="34">
+      <c r="E14" s="33">
         <v>44280</v>
       </c>
-      <c r="F14" s="35"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="23" t="s">
         <v>81</v>
       </c>
@@ -7415,119 +7413,119 @@
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
-      <c r="L14" s="36">
+      <c r="L14" s="35">
         <v>15013</v>
       </c>
-      <c r="M14" s="36" t="s">
+      <c r="M14" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="N14" s="36" t="s">
+      <c r="N14" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="O14" s="36"/>
+      <c r="O14" s="35"/>
       <c r="P14" s="22"/>
-      <c r="Q14" s="36" t="s">
+      <c r="Q14" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="R14" s="36"/>
+      <c r="R14" s="35"/>
       <c r="S14" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="T14" s="37"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="38"/>
-      <c r="AG14" s="38"/>
-      <c r="AH14" s="38"/>
-      <c r="AI14" s="38"/>
-      <c r="AJ14" s="38"/>
-      <c r="AK14" s="38"/>
-      <c r="AL14" s="38"/>
-      <c r="AM14" s="38"/>
-      <c r="AN14" s="38"/>
-      <c r="AO14" s="38"/>
-      <c r="AP14" s="38"/>
-      <c r="AQ14" s="37"/>
-      <c r="AR14" s="37"/>
-      <c r="AS14" s="39" t="s">
+      <c r="T14" s="36"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="37"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="37"/>
+      <c r="AF14" s="37"/>
+      <c r="AG14" s="37"/>
+      <c r="AH14" s="37"/>
+      <c r="AI14" s="37"/>
+      <c r="AJ14" s="37"/>
+      <c r="AK14" s="37"/>
+      <c r="AL14" s="37"/>
+      <c r="AM14" s="37"/>
+      <c r="AN14" s="37"/>
+      <c r="AO14" s="37"/>
+      <c r="AP14" s="37"/>
+      <c r="AQ14" s="36"/>
+      <c r="AR14" s="36"/>
+      <c r="AS14" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:45" s="48" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" s="47" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>111</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="40" t="s">
+      <c r="C15" s="40"/>
+      <c r="D15" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="41">
         <v>44699</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="40" t="s">
+      <c r="H15" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="45">
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="44">
         <v>15013</v>
       </c>
-      <c r="M15" s="45" t="s">
+      <c r="M15" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45" t="s">
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="46"/>
-      <c r="AA15" s="46"/>
-      <c r="AB15" s="46"/>
-      <c r="AC15" s="46"/>
-      <c r="AD15" s="46"/>
-      <c r="AE15" s="46"/>
-      <c r="AF15" s="46"/>
-      <c r="AG15" s="46"/>
-      <c r="AH15" s="46"/>
-      <c r="AI15" s="46"/>
-      <c r="AJ15" s="46"/>
-      <c r="AK15" s="46"/>
-      <c r="AL15" s="46"/>
-      <c r="AM15" s="46"/>
-      <c r="AN15" s="46"/>
-      <c r="AO15" s="46"/>
-      <c r="AP15" s="46"/>
-      <c r="AQ15" s="44"/>
-      <c r="AR15" s="44"/>
-      <c r="AS15" s="47" t="s">
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="45"/>
+      <c r="AD15" s="45"/>
+      <c r="AE15" s="45"/>
+      <c r="AF15" s="45"/>
+      <c r="AG15" s="45"/>
+      <c r="AH15" s="45"/>
+      <c r="AI15" s="45"/>
+      <c r="AJ15" s="45"/>
+      <c r="AK15" s="45"/>
+      <c r="AL15" s="45"/>
+      <c r="AM15" s="45"/>
+      <c r="AN15" s="45"/>
+      <c r="AO15" s="45"/>
+      <c r="AP15" s="45"/>
+      <c r="AQ15" s="43"/>
+      <c r="AR15" s="43"/>
+      <c r="AS15" s="46" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7544,10 +7542,10 @@
       <c r="D16" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="27">
         <v>45329</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="28" t="s">
         <v>115</v>
       </c>
       <c r="G16" s="23" t="s">
@@ -7778,7 +7776,7 @@
       <c r="C19" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="49"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="19">
         <v>45363</v>
       </c>
@@ -7962,10 +7960,10 @@
       <c r="I21" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="J21" s="50">
+      <c r="J21" s="49">
         <v>45007</v>
       </c>
-      <c r="K21" s="50">
+      <c r="K21" s="49">
         <v>45007</v>
       </c>
       <c r="L21" s="21">
@@ -8177,10 +8175,10 @@
       <c r="I24" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J24" s="50">
+      <c r="J24" s="49">
         <v>45007</v>
       </c>
-      <c r="K24" s="50">
+      <c r="K24" s="49">
         <v>45007</v>
       </c>
       <c r="L24" s="10">
@@ -8254,10 +8252,10 @@
       <c r="I25" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J25" s="50">
+      <c r="J25" s="49">
         <v>45007</v>
       </c>
-      <c r="K25" s="50">
+      <c r="K25" s="49">
         <v>45007</v>
       </c>
       <c r="L25" s="10">
@@ -8998,7 +8996,7 @@
       <c r="C35" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D35" s="51"/>
+      <c r="D35" s="50"/>
       <c r="E35" s="19">
         <v>45183</v>
       </c>
@@ -9107,10 +9105,10 @@
       <c r="I36" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="J36" s="50">
+      <c r="J36" s="49">
         <v>45007</v>
       </c>
-      <c r="K36" s="50">
+      <c r="K36" s="49">
         <v>45007</v>
       </c>
       <c r="L36" s="10">
@@ -9241,7 +9239,7 @@
       <c r="C38" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="49"/>
+      <c r="D38" s="48"/>
       <c r="E38" s="19">
         <v>45359</v>
       </c>
@@ -9251,19 +9249,19 @@
       <c r="G38" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="H38" s="52" t="s">
+      <c r="H38" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
       <c r="L38" s="21">
         <v>16002</v>
       </c>
       <c r="M38" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="N38" s="53"/>
+      <c r="N38" s="52"/>
       <c r="O38" s="21"/>
       <c r="P38" s="22">
         <v>824</v>
@@ -9320,7 +9318,7 @@
       <c r="C39" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="49"/>
+      <c r="D39" s="48"/>
       <c r="E39" s="19">
         <v>45359</v>
       </c>
@@ -9330,19 +9328,19 @@
       <c r="G39" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="H39" s="52" t="s">
+      <c r="H39" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
       <c r="L39" s="21">
         <v>16002</v>
       </c>
       <c r="M39" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="N39" s="53"/>
+      <c r="N39" s="52"/>
       <c r="O39" s="21"/>
       <c r="P39" s="22">
         <v>823</v>
@@ -9399,7 +9397,7 @@
       <c r="C40" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="49"/>
+      <c r="D40" s="48"/>
       <c r="E40" s="19">
         <v>45359</v>
       </c>
@@ -9409,19 +9407,19 @@
       <c r="G40" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="H40" s="52" t="s">
+      <c r="H40" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
       <c r="L40" s="21">
         <v>16002</v>
       </c>
       <c r="M40" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="N40" s="53"/>
+      <c r="N40" s="52"/>
       <c r="O40" s="21"/>
       <c r="P40" s="22">
         <v>822</v>
@@ -9482,7 +9480,7 @@
       <c r="C41" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="49"/>
+      <c r="D41" s="48"/>
       <c r="E41" s="19">
         <v>45359</v>
       </c>
@@ -9492,19 +9490,19 @@
       <c r="G41" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="H41" s="52" t="s">
+      <c r="H41" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
       <c r="L41" s="21">
         <v>16002</v>
       </c>
       <c r="M41" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="N41" s="53"/>
+      <c r="N41" s="52"/>
       <c r="O41" s="21"/>
       <c r="P41" s="22">
         <v>821</v>
@@ -9574,18 +9572,18 @@
       <c r="H42" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="I42" s="52" t="s">
+      <c r="I42" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
       <c r="L42" s="21">
         <v>30011</v>
       </c>
       <c r="M42" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="N42" s="53" t="s">
+      <c r="N42" s="52" t="s">
         <v>53</v>
       </c>
       <c r="O42" s="21"/>
@@ -9655,11 +9653,11 @@
       <c r="H43" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="I43" s="52" t="s">
+      <c r="I43" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="51"/>
       <c r="L43" s="21">
         <v>16002</v>
       </c>
@@ -9715,15 +9713,15 @@
       <c r="A44" s="9">
         <v>1062</v>
       </c>
-      <c r="B44" s="40" t="s">
+      <c r="B44" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="C44" s="54"/>
+      <c r="C44" s="53"/>
       <c r="D44" s="20"/>
-      <c r="E44" s="55">
+      <c r="E44" s="54">
         <v>45376</v>
       </c>
-      <c r="F44" s="56" t="s">
+      <c r="F44" s="55" t="s">
         <v>187</v>
       </c>
       <c r="G44" s="23" t="s">
@@ -9733,10 +9731,10 @@
       <c r="I44" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="J44" s="50">
+      <c r="J44" s="49">
         <v>45008</v>
       </c>
-      <c r="K44" s="50">
+      <c r="K44" s="49">
         <v>45008</v>
       </c>
       <c r="L44" s="10">
@@ -9788,64 +9786,64 @@
       <c r="A45" s="9">
         <v>1074</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="32" t="s">
         <v>201</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="20"/>
-      <c r="E45" s="34">
+      <c r="E45" s="33">
         <v>44285</v>
       </c>
-      <c r="F45" s="35"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="36">
+      <c r="F45" s="34"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="35">
         <v>15004</v>
       </c>
       <c r="M45" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="N45" s="36" t="s">
+      <c r="N45" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="O45" s="36"/>
+      <c r="O45" s="35"/>
       <c r="P45" s="22"/>
-      <c r="Q45" s="36" t="s">
+      <c r="Q45" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="R45" s="36"/>
-      <c r="S45" s="36" t="s">
+      <c r="R45" s="35"/>
+      <c r="S45" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="T45" s="37"/>
-      <c r="U45" s="36"/>
-      <c r="V45" s="36"/>
-      <c r="W45" s="37"/>
-      <c r="X45" s="38"/>
-      <c r="Y45" s="38"/>
-      <c r="Z45" s="38"/>
-      <c r="AA45" s="38"/>
-      <c r="AB45" s="38"/>
-      <c r="AC45" s="38"/>
-      <c r="AD45" s="38"/>
-      <c r="AE45" s="38"/>
-      <c r="AF45" s="38"/>
-      <c r="AG45" s="38"/>
-      <c r="AH45" s="38"/>
-      <c r="AI45" s="38"/>
-      <c r="AJ45" s="38"/>
-      <c r="AK45" s="38"/>
-      <c r="AL45" s="38"/>
-      <c r="AM45" s="38"/>
-      <c r="AN45" s="38"/>
-      <c r="AO45" s="38"/>
-      <c r="AP45" s="38"/>
-      <c r="AQ45" s="37"/>
-      <c r="AR45" s="37"/>
-      <c r="AS45" s="39" t="s">
+      <c r="T45" s="36"/>
+      <c r="U45" s="35"/>
+      <c r="V45" s="35"/>
+      <c r="W45" s="36"/>
+      <c r="X45" s="37"/>
+      <c r="Y45" s="37"/>
+      <c r="Z45" s="37"/>
+      <c r="AA45" s="37"/>
+      <c r="AB45" s="37"/>
+      <c r="AC45" s="37"/>
+      <c r="AD45" s="37"/>
+      <c r="AE45" s="37"/>
+      <c r="AF45" s="37"/>
+      <c r="AG45" s="37"/>
+      <c r="AH45" s="37"/>
+      <c r="AI45" s="37"/>
+      <c r="AJ45" s="37"/>
+      <c r="AK45" s="37"/>
+      <c r="AL45" s="37"/>
+      <c r="AM45" s="37"/>
+      <c r="AN45" s="37"/>
+      <c r="AO45" s="37"/>
+      <c r="AP45" s="37"/>
+      <c r="AQ45" s="36"/>
+      <c r="AR45" s="36"/>
+      <c r="AS45" s="38" t="s">
         <v>200</v>
       </c>
     </row>
@@ -9871,7 +9869,7 @@
       <c r="I46" s="23"/>
       <c r="J46" s="23"/>
       <c r="K46" s="23"/>
-      <c r="L46" s="36">
+      <c r="L46" s="35">
         <v>15004</v>
       </c>
       <c r="M46" s="21" t="s">
@@ -9926,7 +9924,7 @@
       <c r="C47" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D47" s="57"/>
+      <c r="D47" s="56"/>
       <c r="E47" s="19">
         <v>45358</v>
       </c>
@@ -9936,12 +9934,12 @@
       <c r="G47" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="H47" s="52" t="s">
+      <c r="H47" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="I47" s="52"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
       <c r="L47" s="21">
         <v>16002</v>
       </c>
@@ -10027,7 +10025,7 @@
       <c r="I48" s="20"/>
       <c r="J48" s="20"/>
       <c r="K48" s="20"/>
-      <c r="L48" s="36">
+      <c r="L48" s="35">
         <v>15004</v>
       </c>
       <c r="M48" s="21" t="s">
@@ -10152,7 +10150,7 @@
       <c r="B50" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C50" s="54"/>
+      <c r="C50" s="53"/>
       <c r="D50" s="20" t="s">
         <v>212</v>
       </c>
@@ -10169,7 +10167,7 @@
       <c r="I50" s="20"/>
       <c r="J50" s="20"/>
       <c r="K50" s="20"/>
-      <c r="L50" s="36">
+      <c r="L50" s="35">
         <v>15004</v>
       </c>
       <c r="M50" s="21" t="s">
@@ -10238,7 +10236,7 @@
       <c r="I51" s="23"/>
       <c r="J51" s="23"/>
       <c r="K51" s="23"/>
-      <c r="L51" s="36">
+      <c r="L51" s="35">
         <v>15011</v>
       </c>
       <c r="M51" s="10" t="s">
@@ -10298,7 +10296,7 @@
       <c r="D52" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="E52" s="58">
+      <c r="E52" s="57">
         <v>45371</v>
       </c>
       <c r="F52" s="14" t="s">
@@ -10399,7 +10397,7 @@
         <v>71</v>
       </c>
       <c r="D53" s="18"/>
-      <c r="E53" s="59">
+      <c r="E53" s="58">
         <v>45371</v>
       </c>
       <c r="F53" s="14" t="s">
@@ -10470,7 +10468,7 @@
         <v>71</v>
       </c>
       <c r="D54" s="18"/>
-      <c r="E54" s="59">
+      <c r="E54" s="58">
         <v>45371</v>
       </c>
       <c r="F54" s="14" t="s">
@@ -10489,7 +10487,7 @@
       <c r="M54" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="N54" s="31" t="s">
+      <c r="N54" s="30" t="s">
         <v>53</v>
       </c>
       <c r="O54" s="21"/>
@@ -10825,7 +10823,7 @@
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="20"/>
-      <c r="E59" s="60">
+      <c r="E59" s="59">
         <v>45050</v>
       </c>
       <c r="F59" s="11" t="s">
@@ -10956,12 +10954,12 @@
       <c r="A61" s="9">
         <v>1645</v>
       </c>
-      <c r="B61" s="61" t="s">
+      <c r="B61" s="60" t="s">
         <v>234</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="20"/>
-      <c r="E61" s="60"/>
+      <c r="E61" s="59"/>
       <c r="F61" s="11"/>
       <c r="G61" s="23" t="s">
         <v>81</v>
@@ -11041,7 +11039,7 @@
       <c r="I62" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="J62" s="50">
+      <c r="J62" s="49">
         <v>45005</v>
       </c>
       <c r="K62" s="23" t="s">
@@ -11172,7 +11170,7 @@
       </c>
       <c r="C64" s="11"/>
       <c r="D64" s="20"/>
-      <c r="E64" s="60">
+      <c r="E64" s="59">
         <v>45050</v>
       </c>
       <c r="F64" s="11" t="s">
@@ -11504,72 +11502,72 @@
       <c r="A69" s="9">
         <v>1796</v>
       </c>
-      <c r="B69" s="33" t="s">
+      <c r="B69" s="32" t="s">
         <v>244</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="20"/>
-      <c r="E69" s="34">
+      <c r="E69" s="33">
         <v>45377</v>
       </c>
-      <c r="F69" s="35" t="s">
+      <c r="F69" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="G69" s="37" t="s">
+      <c r="G69" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="H69" s="37"/>
-      <c r="I69" s="37" t="s">
+      <c r="H69" s="36"/>
+      <c r="I69" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="J69" s="37" t="s">
+      <c r="J69" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="K69" s="62">
+      <c r="K69" s="61">
         <v>45005</v>
       </c>
       <c r="L69" s="10">
         <v>15004</v>
       </c>
-      <c r="M69" s="36" t="s">
+      <c r="M69" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="N69" s="36"/>
-      <c r="O69" s="36"/>
+      <c r="N69" s="35"/>
+      <c r="O69" s="35"/>
       <c r="P69" s="22"/>
-      <c r="Q69" s="36" t="s">
+      <c r="Q69" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="R69" s="36"/>
+      <c r="R69" s="35"/>
       <c r="S69" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="T69" s="37"/>
-      <c r="U69" s="36"/>
-      <c r="V69" s="36"/>
-      <c r="W69" s="37"/>
-      <c r="X69" s="38"/>
-      <c r="Y69" s="38"/>
-      <c r="Z69" s="38"/>
-      <c r="AA69" s="38"/>
-      <c r="AB69" s="38"/>
-      <c r="AC69" s="38"/>
-      <c r="AD69" s="38"/>
-      <c r="AE69" s="38"/>
-      <c r="AF69" s="38"/>
-      <c r="AG69" s="38"/>
-      <c r="AH69" s="38"/>
-      <c r="AI69" s="38"/>
-      <c r="AJ69" s="38"/>
-      <c r="AK69" s="38"/>
-      <c r="AL69" s="38"/>
-      <c r="AM69" s="38"/>
-      <c r="AN69" s="38"/>
-      <c r="AO69" s="38"/>
-      <c r="AP69" s="38"/>
-      <c r="AQ69" s="37"/>
-      <c r="AR69" s="37"/>
-      <c r="AS69" s="39" t="s">
+      <c r="T69" s="36"/>
+      <c r="U69" s="35"/>
+      <c r="V69" s="35"/>
+      <c r="W69" s="36"/>
+      <c r="X69" s="37"/>
+      <c r="Y69" s="37"/>
+      <c r="Z69" s="37"/>
+      <c r="AA69" s="37"/>
+      <c r="AB69" s="37"/>
+      <c r="AC69" s="37"/>
+      <c r="AD69" s="37"/>
+      <c r="AE69" s="37"/>
+      <c r="AF69" s="37"/>
+      <c r="AG69" s="37"/>
+      <c r="AH69" s="37"/>
+      <c r="AI69" s="37"/>
+      <c r="AJ69" s="37"/>
+      <c r="AK69" s="37"/>
+      <c r="AL69" s="37"/>
+      <c r="AM69" s="37"/>
+      <c r="AN69" s="37"/>
+      <c r="AO69" s="37"/>
+      <c r="AP69" s="37"/>
+      <c r="AQ69" s="36"/>
+      <c r="AR69" s="36"/>
+      <c r="AS69" s="38" t="s">
         <v>231</v>
       </c>
     </row>
@@ -11945,7 +11943,7 @@
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="20"/>
-      <c r="E75" s="34">
+      <c r="E75" s="33">
         <v>45285</v>
       </c>
       <c r="F75" s="14" t="s">
@@ -11958,10 +11956,10 @@
       <c r="I75" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="J75" s="50">
+      <c r="J75" s="49">
         <v>45008</v>
       </c>
-      <c r="K75" s="50">
+      <c r="K75" s="49">
         <v>45008</v>
       </c>
       <c r="L75" s="10">
@@ -12086,22 +12084,22 @@
       <c r="C77" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D77" s="54"/>
-      <c r="E77" s="55">
+      <c r="D77" s="53"/>
+      <c r="E77" s="54">
         <v>45366</v>
       </c>
-      <c r="F77" s="56" t="s">
+      <c r="F77" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="G77" s="63" t="s">
+      <c r="G77" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="H77" s="63" t="s">
+      <c r="H77" s="62" t="s">
         <v>256</v>
       </c>
-      <c r="I77" s="63"/>
-      <c r="J77" s="63"/>
-      <c r="K77" s="63"/>
+      <c r="I77" s="62"/>
+      <c r="J77" s="62"/>
+      <c r="K77" s="62"/>
       <c r="L77" s="22">
         <v>16002</v>
       </c>
@@ -12121,43 +12119,43 @@
       <c r="R77" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="S77" s="64" t="s">
+      <c r="S77" s="63" t="s">
         <v>257</v>
       </c>
-      <c r="T77" s="63"/>
+      <c r="T77" s="62"/>
       <c r="U77" s="22"/>
       <c r="V77" s="22"/>
-      <c r="W77" s="63"/>
+      <c r="W77" s="62"/>
       <c r="X77" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="Y77" s="65">
+      <c r="Y77" s="64">
         <v>456051</v>
       </c>
-      <c r="Z77" s="65"/>
-      <c r="AA77" s="65"/>
-      <c r="AB77" s="65"/>
-      <c r="AC77" s="65"/>
-      <c r="AD77" s="65"/>
-      <c r="AE77" s="65"/>
-      <c r="AF77" s="65"/>
-      <c r="AG77" s="65"/>
-      <c r="AH77" s="65"/>
-      <c r="AI77" s="65"/>
-      <c r="AJ77" s="65"/>
-      <c r="AK77" s="65"/>
-      <c r="AL77" s="65"/>
-      <c r="AM77" s="65"/>
-      <c r="AN77" s="65"/>
-      <c r="AO77" s="65"/>
-      <c r="AP77" s="65"/>
-      <c r="AQ77" s="63" t="s">
+      <c r="Z77" s="64"/>
+      <c r="AA77" s="64"/>
+      <c r="AB77" s="64"/>
+      <c r="AC77" s="64"/>
+      <c r="AD77" s="64"/>
+      <c r="AE77" s="64"/>
+      <c r="AF77" s="64"/>
+      <c r="AG77" s="64"/>
+      <c r="AH77" s="64"/>
+      <c r="AI77" s="64"/>
+      <c r="AJ77" s="64"/>
+      <c r="AK77" s="64"/>
+      <c r="AL77" s="64"/>
+      <c r="AM77" s="64"/>
+      <c r="AN77" s="64"/>
+      <c r="AO77" s="64"/>
+      <c r="AP77" s="64"/>
+      <c r="AQ77" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AR77" s="63" t="s">
+      <c r="AR77" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AS77" s="66" t="s">
+      <c r="AS77" s="65" t="s">
         <v>190</v>
       </c>
     </row>
@@ -12171,7 +12169,7 @@
       <c r="C78" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D78" s="49" t="s">
+      <c r="D78" s="48" t="s">
         <v>259</v>
       </c>
       <c r="E78" s="19">
@@ -12280,10 +12278,10 @@
       <c r="I79" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="J79" s="29">
+      <c r="J79" s="28">
         <v>45006</v>
       </c>
-      <c r="K79" s="29">
+      <c r="K79" s="28">
         <v>45006</v>
       </c>
       <c r="L79" s="21">
@@ -12554,10 +12552,10 @@
       <c r="I83" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="J83" s="50" t="s">
+      <c r="J83" s="49" t="s">
         <v>268</v>
       </c>
-      <c r="K83" s="50">
+      <c r="K83" s="49">
         <v>45005</v>
       </c>
       <c r="L83" s="10">
@@ -12683,10 +12681,10 @@
         <v>71</v>
       </c>
       <c r="D85" s="18"/>
-      <c r="E85" s="28">
+      <c r="E85" s="27">
         <v>45328</v>
       </c>
-      <c r="F85" s="29" t="s">
+      <c r="F85" s="28" t="s">
         <v>111</v>
       </c>
       <c r="G85" s="23" t="s">
@@ -12910,7 +12908,7 @@
       <c r="D88" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="E88" s="28">
+      <c r="E88" s="27">
         <v>45372</v>
       </c>
       <c r="F88" s="14" t="s">
@@ -12993,7 +12991,7 @@
         <v>71</v>
       </c>
       <c r="D89" s="18"/>
-      <c r="E89" s="28">
+      <c r="E89" s="27">
         <v>45372</v>
       </c>
       <c r="F89" s="14" t="s">
@@ -13012,7 +13010,7 @@
       <c r="M89" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="N89" s="53"/>
+      <c r="N89" s="52"/>
       <c r="O89" s="21"/>
       <c r="P89" s="22"/>
       <c r="Q89" s="21" t="s">
@@ -13064,7 +13062,7 @@
         <v>71</v>
       </c>
       <c r="D90" s="18"/>
-      <c r="E90" s="28">
+      <c r="E90" s="27">
         <v>45372</v>
       </c>
       <c r="F90" s="14" t="s">
@@ -13361,10 +13359,10 @@
       <c r="I94" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J94" s="50">
+      <c r="J94" s="49">
         <v>45005</v>
       </c>
-      <c r="K94" s="50">
+      <c r="K94" s="49">
         <v>45005</v>
       </c>
       <c r="L94" s="10">
@@ -13434,10 +13432,10 @@
       <c r="I95" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J95" s="50" t="s">
+      <c r="J95" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="K95" s="50">
+      <c r="K95" s="49">
         <v>45005</v>
       </c>
       <c r="L95" s="10">
@@ -13703,7 +13701,7 @@
       <c r="D99" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="E99" s="67">
+      <c r="E99" s="66">
         <v>45376</v>
       </c>
       <c r="F99" s="14" t="s">
@@ -13721,7 +13719,7 @@
       <c r="J99" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="K99" s="28">
+      <c r="K99" s="27">
         <v>45005</v>
       </c>
       <c r="L99" s="10">
@@ -13910,7 +13908,7 @@
       </c>
       <c r="C102" s="11"/>
       <c r="D102" s="20"/>
-      <c r="E102" s="34">
+      <c r="E102" s="33">
         <v>45377</v>
       </c>
       <c r="F102" s="14" t="s">
@@ -13923,10 +13921,10 @@
       <c r="I102" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J102" s="50">
+      <c r="J102" s="49">
         <v>45007</v>
       </c>
-      <c r="K102" s="50">
+      <c r="K102" s="49">
         <v>45007</v>
       </c>
       <c r="L102" s="10">
@@ -14132,10 +14130,10 @@
       <c r="I105" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="J105" s="50">
+      <c r="J105" s="49">
         <v>45006</v>
       </c>
-      <c r="K105" s="50">
+      <c r="K105" s="49">
         <v>45006</v>
       </c>
       <c r="L105" s="21">
@@ -14628,10 +14626,10 @@
       <c r="I112" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="J112" s="50">
+      <c r="J112" s="49">
         <v>45007</v>
       </c>
-      <c r="K112" s="50">
+      <c r="K112" s="49">
         <v>45007</v>
       </c>
       <c r="L112" s="10">
@@ -14688,7 +14686,7 @@
       </c>
       <c r="C113" s="11"/>
       <c r="D113" s="20"/>
-      <c r="E113" s="34">
+      <c r="E113" s="33">
         <v>45377</v>
       </c>
       <c r="F113" s="14" t="s">
@@ -14701,10 +14699,10 @@
       <c r="I113" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="J113" s="50">
+      <c r="J113" s="49">
         <v>45007</v>
       </c>
-      <c r="K113" s="50">
+      <c r="K113" s="49">
         <v>45007</v>
       </c>
       <c r="L113" s="10">
@@ -14763,7 +14761,7 @@
       <c r="D114" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="E114" s="34">
+      <c r="E114" s="33">
         <v>45377</v>
       </c>
       <c r="F114" s="14" t="s">
@@ -14776,10 +14774,10 @@
       <c r="I114" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="J114" s="50">
+      <c r="J114" s="49">
         <v>45007</v>
       </c>
-      <c r="K114" s="50">
+      <c r="K114" s="49">
         <v>45007</v>
       </c>
       <c r="L114" s="10">
@@ -14842,10 +14840,10 @@
         <v>71</v>
       </c>
       <c r="D115" s="18"/>
-      <c r="E115" s="28">
+      <c r="E115" s="27">
         <v>45370</v>
       </c>
-      <c r="F115" s="29" t="s">
+      <c r="F115" s="28" t="s">
         <v>195</v>
       </c>
       <c r="G115" s="23" t="s">
@@ -14861,7 +14859,7 @@
       <c r="M115" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="N115" s="53" t="s">
+      <c r="N115" s="52" t="s">
         <v>53</v>
       </c>
       <c r="O115" s="21" t="s">
@@ -14923,10 +14921,10 @@
         <v>71</v>
       </c>
       <c r="D116" s="18"/>
-      <c r="E116" s="28">
+      <c r="E116" s="27">
         <v>45370</v>
       </c>
-      <c r="F116" s="29" t="s">
+      <c r="F116" s="28" t="s">
         <v>195</v>
       </c>
       <c r="G116" s="23" t="s">
@@ -14942,7 +14940,7 @@
       <c r="M116" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="N116" s="53" t="s">
+      <c r="N116" s="52" t="s">
         <v>53</v>
       </c>
       <c r="O116" s="21" t="s">
@@ -15066,20 +15064,20 @@
       <c r="A118" s="9">
         <v>3293</v>
       </c>
-      <c r="B118" s="33" t="s">
+      <c r="B118" s="32" t="s">
         <v>325</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="E118" s="34">
+      <c r="E118" s="33">
         <v>45378</v>
       </c>
-      <c r="F118" s="35" t="s">
+      <c r="F118" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="G118" s="37" t="s">
+      <c r="G118" s="36" t="s">
         <v>81</v>
       </c>
       <c r="H118" s="20" t="s">
@@ -15088,54 +15086,54 @@
       <c r="I118" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="J118" s="28">
+      <c r="J118" s="27">
         <v>45008</v>
       </c>
-      <c r="K118" s="28">
+      <c r="K118" s="27">
         <v>45008</v>
       </c>
       <c r="L118" s="10">
         <v>15004</v>
       </c>
-      <c r="M118" s="36" t="s">
+      <c r="M118" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="N118" s="36"/>
-      <c r="O118" s="36"/>
+      <c r="N118" s="35"/>
+      <c r="O118" s="35"/>
       <c r="P118" s="22"/>
-      <c r="Q118" s="36" t="s">
+      <c r="Q118" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="R118" s="36"/>
-      <c r="S118" s="36" t="s">
+      <c r="R118" s="35"/>
+      <c r="S118" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="T118" s="37"/>
-      <c r="U118" s="36"/>
-      <c r="V118" s="36"/>
-      <c r="W118" s="37"/>
-      <c r="X118" s="38"/>
-      <c r="Y118" s="38"/>
-      <c r="Z118" s="38"/>
-      <c r="AA118" s="38"/>
-      <c r="AB118" s="38"/>
-      <c r="AC118" s="38"/>
-      <c r="AD118" s="38"/>
-      <c r="AE118" s="38"/>
-      <c r="AF118" s="38"/>
-      <c r="AG118" s="38"/>
-      <c r="AH118" s="38"/>
-      <c r="AI118" s="38"/>
-      <c r="AJ118" s="38"/>
-      <c r="AK118" s="38"/>
-      <c r="AL118" s="38"/>
-      <c r="AM118" s="38"/>
-      <c r="AN118" s="38"/>
-      <c r="AO118" s="38"/>
-      <c r="AP118" s="38"/>
-      <c r="AQ118" s="37"/>
-      <c r="AR118" s="37"/>
-      <c r="AS118" s="39" t="s">
+      <c r="T118" s="36"/>
+      <c r="U118" s="35"/>
+      <c r="V118" s="35"/>
+      <c r="W118" s="36"/>
+      <c r="X118" s="37"/>
+      <c r="Y118" s="37"/>
+      <c r="Z118" s="37"/>
+      <c r="AA118" s="37"/>
+      <c r="AB118" s="37"/>
+      <c r="AC118" s="37"/>
+      <c r="AD118" s="37"/>
+      <c r="AE118" s="37"/>
+      <c r="AF118" s="37"/>
+      <c r="AG118" s="37"/>
+      <c r="AH118" s="37"/>
+      <c r="AI118" s="37"/>
+      <c r="AJ118" s="37"/>
+      <c r="AK118" s="37"/>
+      <c r="AL118" s="37"/>
+      <c r="AM118" s="37"/>
+      <c r="AN118" s="37"/>
+      <c r="AO118" s="37"/>
+      <c r="AP118" s="37"/>
+      <c r="AQ118" s="36"/>
+      <c r="AR118" s="36"/>
+      <c r="AS118" s="38" t="s">
         <v>200</v>
       </c>
     </row>
@@ -15150,10 +15148,10 @@
         <v>307</v>
       </c>
       <c r="D119" s="18"/>
-      <c r="E119" s="28">
+      <c r="E119" s="27">
         <v>45358</v>
       </c>
-      <c r="F119" s="29" t="s">
+      <c r="F119" s="28" t="s">
         <v>328</v>
       </c>
       <c r="G119" s="23" t="s">
@@ -15171,7 +15169,7 @@
       <c r="M119" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="N119" s="53"/>
+      <c r="N119" s="52"/>
       <c r="O119" s="21"/>
       <c r="P119" s="22">
         <v>704</v>
@@ -15179,7 +15177,7 @@
       <c r="Q119" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="R119" s="68" t="s">
+      <c r="R119" s="67" t="s">
         <v>100</v>
       </c>
       <c r="S119" s="21" t="s">
@@ -15237,10 +15235,10 @@
         <v>307</v>
       </c>
       <c r="D120" s="18"/>
-      <c r="E120" s="28">
+      <c r="E120" s="27">
         <v>45358</v>
       </c>
-      <c r="F120" s="29" t="s">
+      <c r="F120" s="28" t="s">
         <v>328</v>
       </c>
       <c r="G120" s="23"/>
@@ -15256,7 +15254,7 @@
       <c r="M120" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="N120" s="53"/>
+      <c r="N120" s="52"/>
       <c r="O120" s="21"/>
       <c r="P120" s="22"/>
       <c r="Q120" s="21" t="s">
@@ -15372,65 +15370,65 @@
       <c r="A122" s="9">
         <v>3375</v>
       </c>
-      <c r="B122" s="33" t="s">
+      <c r="B122" s="32" t="s">
         <v>333</v>
       </c>
       <c r="C122" s="11" t="s">
         <v>334</v>
       </c>
       <c r="D122" s="18"/>
-      <c r="E122" s="34">
+      <c r="E122" s="33">
         <v>42515</v>
       </c>
-      <c r="F122" s="35"/>
-      <c r="G122" s="37" t="s">
+      <c r="F122" s="34"/>
+      <c r="G122" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="H122" s="37" t="s">
+      <c r="H122" s="36" t="s">
         <v>335</v>
       </c>
-      <c r="I122" s="37"/>
-      <c r="J122" s="37"/>
-      <c r="K122" s="37"/>
-      <c r="L122" s="36">
+      <c r="I122" s="36"/>
+      <c r="J122" s="36"/>
+      <c r="K122" s="36"/>
+      <c r="L122" s="35">
         <v>15004</v>
       </c>
-      <c r="M122" s="36" t="s">
+      <c r="M122" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="N122" s="36"/>
-      <c r="O122" s="36"/>
+      <c r="N122" s="35"/>
+      <c r="O122" s="35"/>
       <c r="P122" s="22"/>
-      <c r="Q122" s="36"/>
-      <c r="R122" s="36"/>
+      <c r="Q122" s="35"/>
+      <c r="R122" s="35"/>
       <c r="S122" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="T122" s="37"/>
-      <c r="U122" s="36"/>
-      <c r="V122" s="36"/>
-      <c r="W122" s="37"/>
-      <c r="X122" s="38"/>
-      <c r="Y122" s="38"/>
-      <c r="Z122" s="38"/>
-      <c r="AA122" s="38"/>
-      <c r="AB122" s="38"/>
-      <c r="AC122" s="38"/>
-      <c r="AD122" s="38"/>
-      <c r="AE122" s="38"/>
-      <c r="AF122" s="38"/>
-      <c r="AG122" s="38"/>
-      <c r="AH122" s="38"/>
-      <c r="AI122" s="38"/>
-      <c r="AJ122" s="38"/>
-      <c r="AK122" s="38"/>
-      <c r="AL122" s="38"/>
-      <c r="AM122" s="38"/>
-      <c r="AN122" s="38"/>
-      <c r="AO122" s="38"/>
-      <c r="AP122" s="38"/>
-      <c r="AQ122" s="37"/>
-      <c r="AR122" s="37"/>
+      <c r="T122" s="36"/>
+      <c r="U122" s="35"/>
+      <c r="V122" s="35"/>
+      <c r="W122" s="36"/>
+      <c r="X122" s="37"/>
+      <c r="Y122" s="37"/>
+      <c r="Z122" s="37"/>
+      <c r="AA122" s="37"/>
+      <c r="AB122" s="37"/>
+      <c r="AC122" s="37"/>
+      <c r="AD122" s="37"/>
+      <c r="AE122" s="37"/>
+      <c r="AF122" s="37"/>
+      <c r="AG122" s="37"/>
+      <c r="AH122" s="37"/>
+      <c r="AI122" s="37"/>
+      <c r="AJ122" s="37"/>
+      <c r="AK122" s="37"/>
+      <c r="AL122" s="37"/>
+      <c r="AM122" s="37"/>
+      <c r="AN122" s="37"/>
+      <c r="AO122" s="37"/>
+      <c r="AP122" s="37"/>
+      <c r="AQ122" s="36"/>
+      <c r="AR122" s="36"/>
       <c r="AS122" s="25" t="s">
         <v>330</v>
       </c>
@@ -15449,7 +15447,7 @@
       <c r="E123" s="19">
         <v>45370</v>
       </c>
-      <c r="F123" s="29" t="s">
+      <c r="F123" s="28" t="s">
         <v>224</v>
       </c>
       <c r="G123" s="23" t="s">
@@ -15532,7 +15530,7 @@
       <c r="E124" s="19">
         <v>45370</v>
       </c>
-      <c r="F124" s="29" t="s">
+      <c r="F124" s="28" t="s">
         <v>224</v>
       </c>
       <c r="G124" s="23" t="s">
@@ -15623,10 +15621,10 @@
       <c r="I125" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="J125" s="50">
+      <c r="J125" s="49">
         <v>45007</v>
       </c>
-      <c r="K125" s="50">
+      <c r="K125" s="49">
         <v>45007</v>
       </c>
       <c r="L125" s="21">
@@ -15688,13 +15686,13 @@
       <c r="C126" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D126" s="49" t="s">
+      <c r="D126" s="48" t="s">
         <v>344</v>
       </c>
       <c r="E126" s="19">
         <v>45371</v>
       </c>
-      <c r="F126" s="29" t="s">
+      <c r="F126" s="28" t="s">
         <v>195</v>
       </c>
       <c r="G126" s="23" t="s">
@@ -15757,7 +15755,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="127" spans="1:45" s="69" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:45" s="68" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9">
         <v>3448</v>
       </c>
@@ -15767,13 +15765,13 @@
       <c r="C127" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D127" s="49" t="s">
+      <c r="D127" s="48" t="s">
         <v>344</v>
       </c>
       <c r="E127" s="19">
         <v>45371</v>
       </c>
-      <c r="F127" s="29" t="s">
+      <c r="F127" s="28" t="s">
         <v>195</v>
       </c>
       <c r="G127" s="23" t="s">
@@ -15840,13 +15838,13 @@
       <c r="C128" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D128" s="49" t="s">
+      <c r="D128" s="48" t="s">
         <v>344</v>
       </c>
       <c r="E128" s="19">
         <v>45371</v>
       </c>
-      <c r="F128" s="29" t="s">
+      <c r="F128" s="28" t="s">
         <v>195</v>
       </c>
       <c r="G128" s="23" t="s">
@@ -15862,7 +15860,7 @@
       <c r="M128" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="N128" s="53"/>
+      <c r="N128" s="52"/>
       <c r="O128" s="21"/>
       <c r="P128" s="22"/>
       <c r="Q128" s="21" t="s">
@@ -16128,10 +16126,10 @@
       <c r="I132" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="J132" s="50">
+      <c r="J132" s="49">
         <v>45012</v>
       </c>
-      <c r="K132" s="50">
+      <c r="K132" s="49">
         <v>45012</v>
       </c>
       <c r="L132" s="10">
@@ -16266,7 +16264,7 @@
       <c r="G134" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="H134" s="70" t="s">
+      <c r="H134" s="69" t="s">
         <v>357</v>
       </c>
       <c r="I134" s="23" t="s">
@@ -16341,7 +16339,7 @@
       <c r="G135" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="H135" s="71" t="s">
+      <c r="H135" s="70" t="s">
         <v>357</v>
       </c>
       <c r="I135" s="23" t="s">
@@ -16485,7 +16483,7 @@
       <c r="G137" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="H137" s="71" t="s">
+      <c r="H137" s="70" t="s">
         <v>361</v>
       </c>
       <c r="I137" s="23" t="s">
@@ -16625,7 +16623,7 @@
       <c r="C139" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D139" s="72"/>
+      <c r="D139" s="71"/>
       <c r="E139" s="19">
         <v>45363</v>
       </c>
@@ -16650,7 +16648,7 @@
       <c r="Q139" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="R139" s="73" t="s">
+      <c r="R139" s="72" t="s">
         <v>364</v>
       </c>
       <c r="S139" s="10" t="s">
@@ -16701,68 +16699,68 @@
       <c r="A140" s="9">
         <v>3760</v>
       </c>
-      <c r="B140" s="33" t="s">
+      <c r="B140" s="32" t="s">
         <v>368</v>
       </c>
       <c r="C140" s="11"/>
       <c r="D140" s="20"/>
-      <c r="E140" s="34">
+      <c r="E140" s="33">
         <v>45274</v>
       </c>
-      <c r="F140" s="35" t="s">
+      <c r="F140" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="G140" s="37" t="s">
+      <c r="G140" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="H140" s="37" t="s">
+      <c r="H140" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="I140" s="37"/>
-      <c r="J140" s="37"/>
-      <c r="K140" s="37"/>
-      <c r="L140" s="36">
+      <c r="I140" s="36"/>
+      <c r="J140" s="36"/>
+      <c r="K140" s="36"/>
+      <c r="L140" s="35">
         <v>15004</v>
       </c>
-      <c r="M140" s="36" t="s">
+      <c r="M140" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="N140" s="36"/>
-      <c r="O140" s="36"/>
+      <c r="N140" s="35"/>
+      <c r="O140" s="35"/>
       <c r="P140" s="22"/>
-      <c r="Q140" s="36" t="s">
+      <c r="Q140" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="R140" s="36"/>
-      <c r="S140" s="36" t="s">
+      <c r="R140" s="35"/>
+      <c r="S140" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="T140" s="37"/>
-      <c r="U140" s="36"/>
-      <c r="V140" s="36"/>
-      <c r="W140" s="37"/>
-      <c r="X140" s="38"/>
-      <c r="Y140" s="38"/>
-      <c r="Z140" s="38"/>
-      <c r="AA140" s="38"/>
-      <c r="AB140" s="38"/>
-      <c r="AC140" s="38"/>
-      <c r="AD140" s="38"/>
-      <c r="AE140" s="38"/>
-      <c r="AF140" s="38"/>
-      <c r="AG140" s="38"/>
-      <c r="AH140" s="38"/>
-      <c r="AI140" s="38"/>
-      <c r="AJ140" s="38"/>
-      <c r="AK140" s="38"/>
-      <c r="AL140" s="38"/>
-      <c r="AM140" s="38"/>
-      <c r="AN140" s="38"/>
-      <c r="AO140" s="38"/>
-      <c r="AP140" s="38"/>
-      <c r="AQ140" s="37"/>
-      <c r="AR140" s="37"/>
-      <c r="AS140" s="39" t="s">
+      <c r="T140" s="36"/>
+      <c r="U140" s="35"/>
+      <c r="V140" s="35"/>
+      <c r="W140" s="36"/>
+      <c r="X140" s="37"/>
+      <c r="Y140" s="37"/>
+      <c r="Z140" s="37"/>
+      <c r="AA140" s="37"/>
+      <c r="AB140" s="37"/>
+      <c r="AC140" s="37"/>
+      <c r="AD140" s="37"/>
+      <c r="AE140" s="37"/>
+      <c r="AF140" s="37"/>
+      <c r="AG140" s="37"/>
+      <c r="AH140" s="37"/>
+      <c r="AI140" s="37"/>
+      <c r="AJ140" s="37"/>
+      <c r="AK140" s="37"/>
+      <c r="AL140" s="37"/>
+      <c r="AM140" s="37"/>
+      <c r="AN140" s="37"/>
+      <c r="AO140" s="37"/>
+      <c r="AP140" s="37"/>
+      <c r="AQ140" s="36"/>
+      <c r="AR140" s="36"/>
+      <c r="AS140" s="38" t="s">
         <v>293</v>
       </c>
     </row>
@@ -16792,10 +16790,10 @@
       <c r="I141" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="J141" s="50">
+      <c r="J141" s="49">
         <v>45013</v>
       </c>
-      <c r="K141" s="50">
+      <c r="K141" s="49">
         <v>45013</v>
       </c>
       <c r="L141" s="21">
@@ -17076,10 +17074,10 @@
       <c r="I145" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="J145" s="29">
+      <c r="J145" s="28">
         <v>45006</v>
       </c>
-      <c r="K145" s="29">
+      <c r="K145" s="28">
         <v>45006</v>
       </c>
       <c r="L145" s="21">
@@ -17292,7 +17290,7 @@
       <c r="J148" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="K148" s="50">
+      <c r="K148" s="49">
         <v>45006</v>
       </c>
       <c r="L148" s="10">
@@ -17414,10 +17412,10 @@
       </c>
       <c r="C150" s="11"/>
       <c r="D150" s="20"/>
-      <c r="E150" s="28">
+      <c r="E150" s="27">
         <v>44698</v>
       </c>
-      <c r="F150" s="29" t="s">
+      <c r="F150" s="28" t="s">
         <v>227</v>
       </c>
       <c r="G150" s="23" t="s">
@@ -17548,10 +17546,10 @@
       </c>
       <c r="C152" s="11"/>
       <c r="D152" s="20"/>
-      <c r="E152" s="28">
+      <c r="E152" s="27">
         <v>44698</v>
       </c>
-      <c r="F152" s="29" t="s">
+      <c r="F152" s="28" t="s">
         <v>227</v>
       </c>
       <c r="G152" s="23" t="s">
@@ -17689,61 +17687,61 @@
       <c r="A154" s="9">
         <v>4102</v>
       </c>
-      <c r="B154" s="33" t="s">
+      <c r="B154" s="32" t="s">
         <v>386</v>
       </c>
       <c r="C154" s="11" t="s">
         <v>66</v>
       </c>
       <c r="D154" s="18"/>
-      <c r="E154" s="34">
+      <c r="E154" s="33">
         <v>42849</v>
       </c>
-      <c r="F154" s="35"/>
-      <c r="G154" s="37"/>
-      <c r="H154" s="37" t="s">
+      <c r="F154" s="34"/>
+      <c r="G154" s="36"/>
+      <c r="H154" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="I154" s="37"/>
-      <c r="J154" s="37"/>
-      <c r="K154" s="37"/>
-      <c r="L154" s="36">
+      <c r="I154" s="36"/>
+      <c r="J154" s="36"/>
+      <c r="K154" s="36"/>
+      <c r="L154" s="35">
         <v>15004</v>
       </c>
-      <c r="M154" s="36" t="s">
+      <c r="M154" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="N154" s="36"/>
-      <c r="O154" s="36"/>
+      <c r="N154" s="35"/>
+      <c r="O154" s="35"/>
       <c r="P154" s="22"/>
-      <c r="Q154" s="36"/>
-      <c r="R154" s="36"/>
+      <c r="Q154" s="35"/>
+      <c r="R154" s="35"/>
       <c r="S154" s="21"/>
-      <c r="T154" s="37"/>
-      <c r="U154" s="36"/>
-      <c r="V154" s="36"/>
-      <c r="W154" s="37"/>
-      <c r="X154" s="38"/>
-      <c r="Y154" s="38"/>
-      <c r="Z154" s="38"/>
-      <c r="AA154" s="38"/>
-      <c r="AB154" s="38"/>
-      <c r="AC154" s="38"/>
-      <c r="AD154" s="38"/>
-      <c r="AE154" s="38"/>
-      <c r="AF154" s="38"/>
-      <c r="AG154" s="38"/>
-      <c r="AH154" s="38"/>
-      <c r="AI154" s="38"/>
-      <c r="AJ154" s="38"/>
-      <c r="AK154" s="38"/>
-      <c r="AL154" s="38"/>
-      <c r="AM154" s="38"/>
-      <c r="AN154" s="38"/>
-      <c r="AO154" s="38"/>
-      <c r="AP154" s="38"/>
-      <c r="AQ154" s="37"/>
-      <c r="AR154" s="37"/>
+      <c r="T154" s="36"/>
+      <c r="U154" s="35"/>
+      <c r="V154" s="35"/>
+      <c r="W154" s="36"/>
+      <c r="X154" s="37"/>
+      <c r="Y154" s="37"/>
+      <c r="Z154" s="37"/>
+      <c r="AA154" s="37"/>
+      <c r="AB154" s="37"/>
+      <c r="AC154" s="37"/>
+      <c r="AD154" s="37"/>
+      <c r="AE154" s="37"/>
+      <c r="AF154" s="37"/>
+      <c r="AG154" s="37"/>
+      <c r="AH154" s="37"/>
+      <c r="AI154" s="37"/>
+      <c r="AJ154" s="37"/>
+      <c r="AK154" s="37"/>
+      <c r="AL154" s="37"/>
+      <c r="AM154" s="37"/>
+      <c r="AN154" s="37"/>
+      <c r="AO154" s="37"/>
+      <c r="AP154" s="37"/>
+      <c r="AQ154" s="36"/>
+      <c r="AR154" s="36"/>
       <c r="AS154" s="25" t="s">
         <v>330</v>
       </c>
@@ -17837,7 +17835,7 @@
         <v>388</v>
       </c>
       <c r="C156" s="11"/>
-      <c r="D156" s="74" t="s">
+      <c r="D156" s="73" t="s">
         <v>389</v>
       </c>
       <c r="E156" s="19">
@@ -17924,10 +17922,10 @@
       <c r="I157" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="J157" s="50">
+      <c r="J157" s="49">
         <v>45012</v>
       </c>
-      <c r="K157" s="50">
+      <c r="K157" s="49">
         <v>45012</v>
       </c>
       <c r="L157" s="10">
@@ -17986,10 +17984,10 @@
       <c r="D158" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="E158" s="75">
+      <c r="E158" s="74">
         <v>43985</v>
       </c>
-      <c r="F158" s="75"/>
+      <c r="F158" s="74"/>
       <c r="G158" s="20" t="s">
         <v>394</v>
       </c>
@@ -18068,10 +18066,10 @@
       <c r="I159" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J159" s="50">
+      <c r="J159" s="49">
         <v>45007</v>
       </c>
-      <c r="K159" s="50">
+      <c r="K159" s="49">
         <v>45007</v>
       </c>
       <c r="L159" s="10">
@@ -18267,7 +18265,7 @@
         <v>403</v>
       </c>
       <c r="C162" s="14"/>
-      <c r="D162" s="28"/>
+      <c r="D162" s="27"/>
       <c r="E162" s="19">
         <v>45187</v>
       </c>
@@ -18347,10 +18345,10 @@
       </c>
       <c r="C163" s="11"/>
       <c r="D163" s="20"/>
-      <c r="E163" s="28">
+      <c r="E163" s="27">
         <v>44698</v>
       </c>
-      <c r="F163" s="29" t="s">
+      <c r="F163" s="28" t="s">
         <v>227</v>
       </c>
       <c r="G163" s="23" t="s">
@@ -18540,7 +18538,7 @@
       </c>
     </row>
     <row r="166" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="76">
+      <c r="A166" s="75">
         <v>4490</v>
       </c>
       <c r="B166" s="17" t="s">
@@ -18548,33 +18546,33 @@
       </c>
       <c r="C166" s="11"/>
       <c r="D166" s="20"/>
-      <c r="E166" s="77">
+      <c r="E166" s="76">
         <v>45378</v>
       </c>
-      <c r="F166" s="78" t="s">
+      <c r="F166" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="G166" s="79" t="s">
+      <c r="G166" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="H166" s="79"/>
-      <c r="I166" s="79"/>
-      <c r="J166" s="79"/>
-      <c r="K166" s="79"/>
+      <c r="H166" s="78"/>
+      <c r="I166" s="78"/>
+      <c r="J166" s="78"/>
+      <c r="K166" s="78"/>
       <c r="L166" s="10">
         <v>15004</v>
       </c>
-      <c r="M166" s="26" t="s">
+      <c r="M166" t="s">
         <v>68</v>
       </c>
-      <c r="Q166" s="26" t="s">
+      <c r="Q166" t="s">
         <v>69</v>
       </c>
-      <c r="S166" s="26" t="s">
+      <c r="S166" t="s">
         <v>108</v>
       </c>
-      <c r="AR166" s="79"/>
-      <c r="AS166" s="81" t="s">
+      <c r="AR166" s="78"/>
+      <c r="AS166" s="80" t="s">
         <v>200</v>
       </c>
     </row>
@@ -18649,66 +18647,66 @@
       <c r="A168" s="9">
         <v>4566</v>
       </c>
-      <c r="B168" s="33" t="s">
+      <c r="B168" s="32" t="s">
         <v>411</v>
       </c>
       <c r="C168" s="11"/>
       <c r="D168" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="E168" s="34">
+      <c r="E168" s="33">
         <v>43242</v>
       </c>
-      <c r="F168" s="35"/>
-      <c r="G168" s="37" t="s">
+      <c r="F168" s="34"/>
+      <c r="G168" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="H168" s="37"/>
-      <c r="I168" s="37"/>
-      <c r="J168" s="37"/>
-      <c r="K168" s="37"/>
-      <c r="L168" s="36">
+      <c r="H168" s="36"/>
+      <c r="I168" s="36"/>
+      <c r="J168" s="36"/>
+      <c r="K168" s="36"/>
+      <c r="L168" s="35">
         <v>15004</v>
       </c>
-      <c r="M168" s="36" t="s">
+      <c r="M168" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="N168" s="36"/>
-      <c r="O168" s="36"/>
+      <c r="N168" s="35"/>
+      <c r="O168" s="35"/>
       <c r="P168" s="22"/>
-      <c r="Q168" s="36" t="s">
+      <c r="Q168" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="R168" s="36"/>
-      <c r="S168" s="36" t="s">
+      <c r="R168" s="35"/>
+      <c r="S168" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="T168" s="37"/>
-      <c r="U168" s="36"/>
-      <c r="V168" s="36"/>
-      <c r="W168" s="37"/>
-      <c r="X168" s="38"/>
-      <c r="Y168" s="38"/>
-      <c r="Z168" s="38"/>
-      <c r="AA168" s="38"/>
-      <c r="AB168" s="38"/>
-      <c r="AC168" s="38"/>
-      <c r="AD168" s="38"/>
-      <c r="AE168" s="38"/>
-      <c r="AF168" s="38"/>
-      <c r="AG168" s="38"/>
-      <c r="AH168" s="38"/>
-      <c r="AI168" s="38"/>
-      <c r="AJ168" s="38"/>
-      <c r="AK168" s="38"/>
-      <c r="AL168" s="38"/>
-      <c r="AM168" s="38"/>
-      <c r="AN168" s="38"/>
-      <c r="AO168" s="38"/>
-      <c r="AP168" s="38"/>
-      <c r="AQ168" s="37"/>
-      <c r="AR168" s="37"/>
-      <c r="AS168" s="39"/>
+      <c r="T168" s="36"/>
+      <c r="U168" s="35"/>
+      <c r="V168" s="35"/>
+      <c r="W168" s="36"/>
+      <c r="X168" s="37"/>
+      <c r="Y168" s="37"/>
+      <c r="Z168" s="37"/>
+      <c r="AA168" s="37"/>
+      <c r="AB168" s="37"/>
+      <c r="AC168" s="37"/>
+      <c r="AD168" s="37"/>
+      <c r="AE168" s="37"/>
+      <c r="AF168" s="37"/>
+      <c r="AG168" s="37"/>
+      <c r="AH168" s="37"/>
+      <c r="AI168" s="37"/>
+      <c r="AJ168" s="37"/>
+      <c r="AK168" s="37"/>
+      <c r="AL168" s="37"/>
+      <c r="AM168" s="37"/>
+      <c r="AN168" s="37"/>
+      <c r="AO168" s="37"/>
+      <c r="AP168" s="37"/>
+      <c r="AQ168" s="36"/>
+      <c r="AR168" s="36"/>
+      <c r="AS168" s="38"/>
     </row>
     <row r="169" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="9">
@@ -18799,10 +18797,10 @@
       <c r="I170" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="J170" s="28">
+      <c r="J170" s="27">
         <v>45005</v>
       </c>
-      <c r="K170" s="28">
+      <c r="K170" s="27">
         <v>45005</v>
       </c>
       <c r="L170" s="21">
@@ -19008,10 +19006,10 @@
       <c r="I173" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J173" s="50">
+      <c r="J173" s="49">
         <v>45005</v>
       </c>
-      <c r="K173" s="50">
+      <c r="K173" s="49">
         <v>45005</v>
       </c>
       <c r="L173" s="21">
@@ -19081,10 +19079,10 @@
       <c r="I174" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="J174" s="50">
+      <c r="J174" s="49">
         <v>45008</v>
       </c>
-      <c r="K174" s="50">
+      <c r="K174" s="49">
         <v>45008</v>
       </c>
       <c r="L174" s="10">
@@ -19286,7 +19284,7 @@
       <c r="E177" s="19">
         <v>45355</v>
       </c>
-      <c r="F177" s="29" t="s">
+      <c r="F177" s="28" t="s">
         <v>48</v>
       </c>
       <c r="G177" s="23" t="s">
@@ -19511,10 +19509,10 @@
       <c r="I180" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J180" s="50">
+      <c r="J180" s="49">
         <v>45013</v>
       </c>
-      <c r="K180" s="50">
+      <c r="K180" s="49">
         <v>45013</v>
       </c>
       <c r="L180" s="10">
@@ -19586,10 +19584,10 @@
       <c r="I181" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J181" s="50">
+      <c r="J181" s="49">
         <v>45007</v>
       </c>
-      <c r="K181" s="50">
+      <c r="K181" s="49">
         <v>45007</v>
       </c>
       <c r="L181" s="10">
@@ -19801,10 +19799,10 @@
       <c r="I184" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J184" s="50">
+      <c r="J184" s="49">
         <v>45008</v>
       </c>
-      <c r="K184" s="50">
+      <c r="K184" s="49">
         <v>45008</v>
       </c>
       <c r="L184" s="10">
@@ -19863,10 +19861,10 @@
         <v>71</v>
       </c>
       <c r="D185" s="18"/>
-      <c r="E185" s="28">
+      <c r="E185" s="27">
         <v>45370</v>
       </c>
-      <c r="F185" s="29" t="s">
+      <c r="F185" s="28" t="s">
         <v>195</v>
       </c>
       <c r="G185" s="23" t="s">
@@ -20014,10 +20012,10 @@
       <c r="I187" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J187" s="50">
+      <c r="J187" s="49">
         <v>45005</v>
       </c>
-      <c r="K187" s="50">
+      <c r="K187" s="49">
         <v>45005</v>
       </c>
       <c r="L187" s="21">
@@ -20089,10 +20087,10 @@
       <c r="I188" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="J188" s="50">
+      <c r="J188" s="49">
         <v>45006</v>
       </c>
-      <c r="K188" s="50">
+      <c r="K188" s="49">
         <v>45006</v>
       </c>
       <c r="L188" s="21">
@@ -20144,15 +20142,15 @@
       <c r="A189" s="9">
         <v>5158</v>
       </c>
-      <c r="B189" s="40" t="s">
+      <c r="B189" s="39" t="s">
         <v>440</v>
       </c>
       <c r="C189" s="11"/>
       <c r="D189" s="20"/>
-      <c r="E189" s="28">
+      <c r="E189" s="27">
         <v>44698</v>
       </c>
-      <c r="F189" s="29" t="s">
+      <c r="F189" s="28" t="s">
         <v>227</v>
       </c>
       <c r="G189" s="23" t="s">
@@ -20211,15 +20209,15 @@
       <c r="A190" s="9">
         <v>5159</v>
       </c>
-      <c r="B190" s="40" t="s">
+      <c r="B190" s="39" t="s">
         <v>441</v>
       </c>
       <c r="C190" s="11"/>
       <c r="D190" s="20"/>
-      <c r="E190" s="28">
+      <c r="E190" s="27">
         <v>44698</v>
       </c>
-      <c r="F190" s="29" t="s">
+      <c r="F190" s="28" t="s">
         <v>227</v>
       </c>
       <c r="G190" s="23" t="s">
@@ -20284,7 +20282,7 @@
       <c r="C191" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D191" s="32"/>
+      <c r="D191" s="31"/>
       <c r="E191" s="19">
         <v>45355</v>
       </c>
@@ -20501,7 +20499,7 @@
       <c r="C194" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D194" s="82"/>
+      <c r="D194" s="81"/>
       <c r="E194" s="19">
         <v>45356</v>
       </c>
@@ -20592,10 +20590,10 @@
       <c r="I195" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J195" s="50">
+      <c r="J195" s="49">
         <v>45005</v>
       </c>
-      <c r="K195" s="50">
+      <c r="K195" s="49">
         <v>45005</v>
       </c>
       <c r="L195" s="21">
@@ -21000,7 +20998,7 @@
       <c r="E201" s="19">
         <v>45356</v>
       </c>
-      <c r="F201" s="29" t="s">
+      <c r="F201" s="28" t="s">
         <v>48</v>
       </c>
       <c r="G201" s="23" t="s">
@@ -21428,7 +21426,7 @@
       <c r="E207" s="13">
         <v>45369</v>
       </c>
-      <c r="F207" s="29" t="s">
+      <c r="F207" s="28" t="s">
         <v>48</v>
       </c>
       <c r="G207" s="23" t="s">
@@ -21574,10 +21572,10 @@
       <c r="I209" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J209" s="50">
+      <c r="J209" s="49">
         <v>45005</v>
       </c>
-      <c r="K209" s="50">
+      <c r="K209" s="49">
         <v>45005</v>
       </c>
       <c r="L209" s="21">
@@ -22043,13 +22041,13 @@
       <c r="C216" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D216" s="83" t="s">
+      <c r="D216" s="82" t="s">
         <v>469</v>
       </c>
       <c r="E216" s="19">
         <v>45355</v>
       </c>
-      <c r="F216" s="29" t="s">
+      <c r="F216" s="28" t="s">
         <v>48</v>
       </c>
       <c r="G216" s="23" t="s">
@@ -22128,7 +22126,7 @@
       <c r="E217" s="19">
         <v>45355</v>
       </c>
-      <c r="F217" s="29" t="s">
+      <c r="F217" s="28" t="s">
         <v>48</v>
       </c>
       <c r="G217" s="23" t="s">
@@ -22199,74 +22197,74 @@
       <c r="A218" s="9">
         <v>5718</v>
       </c>
-      <c r="B218" s="33" t="s">
+      <c r="B218" s="32" t="s">
         <v>473</v>
       </c>
       <c r="C218" s="11"/>
       <c r="D218" s="20"/>
-      <c r="E218" s="34">
+      <c r="E218" s="33">
         <v>45273</v>
       </c>
-      <c r="F218" s="35" t="s">
+      <c r="F218" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="G218" s="37" t="s">
+      <c r="G218" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="H218" s="37" t="s">
+      <c r="H218" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="I218" s="37" t="s">
+      <c r="I218" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="J218" s="62">
+      <c r="J218" s="61">
         <v>45005</v>
       </c>
-      <c r="K218" s="62">
+      <c r="K218" s="61">
         <v>45005</v>
       </c>
-      <c r="L218" s="36">
+      <c r="L218" s="35">
         <v>15004</v>
       </c>
-      <c r="M218" s="36" t="s">
+      <c r="M218" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="N218" s="36"/>
-      <c r="O218" s="36"/>
+      <c r="N218" s="35"/>
+      <c r="O218" s="35"/>
       <c r="P218" s="22"/>
-      <c r="Q218" s="36" t="s">
+      <c r="Q218" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="R218" s="36"/>
+      <c r="R218" s="35"/>
       <c r="S218" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="T218" s="37"/>
-      <c r="U218" s="36"/>
-      <c r="V218" s="36"/>
-      <c r="W218" s="37"/>
-      <c r="X218" s="38"/>
-      <c r="Y218" s="38"/>
-      <c r="Z218" s="38"/>
-      <c r="AA218" s="38"/>
-      <c r="AB218" s="38"/>
-      <c r="AC218" s="38"/>
-      <c r="AD218" s="38"/>
-      <c r="AE218" s="38"/>
-      <c r="AF218" s="38"/>
-      <c r="AG218" s="38"/>
-      <c r="AH218" s="38"/>
-      <c r="AI218" s="38"/>
-      <c r="AJ218" s="38"/>
-      <c r="AK218" s="38"/>
-      <c r="AL218" s="38"/>
-      <c r="AM218" s="38"/>
-      <c r="AN218" s="38"/>
-      <c r="AO218" s="38"/>
-      <c r="AP218" s="38"/>
-      <c r="AQ218" s="37"/>
-      <c r="AR218" s="37"/>
-      <c r="AS218" s="39" t="s">
+      <c r="T218" s="36"/>
+      <c r="U218" s="35"/>
+      <c r="V218" s="35"/>
+      <c r="W218" s="36"/>
+      <c r="X218" s="37"/>
+      <c r="Y218" s="37"/>
+      <c r="Z218" s="37"/>
+      <c r="AA218" s="37"/>
+      <c r="AB218" s="37"/>
+      <c r="AC218" s="37"/>
+      <c r="AD218" s="37"/>
+      <c r="AE218" s="37"/>
+      <c r="AF218" s="37"/>
+      <c r="AG218" s="37"/>
+      <c r="AH218" s="37"/>
+      <c r="AI218" s="37"/>
+      <c r="AJ218" s="37"/>
+      <c r="AK218" s="37"/>
+      <c r="AL218" s="37"/>
+      <c r="AM218" s="37"/>
+      <c r="AN218" s="37"/>
+      <c r="AO218" s="37"/>
+      <c r="AP218" s="37"/>
+      <c r="AQ218" s="36"/>
+      <c r="AR218" s="36"/>
+      <c r="AS218" s="38" t="s">
         <v>415</v>
       </c>
     </row>
@@ -22294,10 +22292,10 @@
       <c r="I219" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J219" s="50">
+      <c r="J219" s="49">
         <v>45005</v>
       </c>
-      <c r="K219" s="50">
+      <c r="K219" s="49">
         <v>45005</v>
       </c>
       <c r="L219" s="21">
@@ -22369,10 +22367,10 @@
       <c r="I220" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J220" s="50">
+      <c r="J220" s="49">
         <v>45005</v>
       </c>
-      <c r="K220" s="50">
+      <c r="K220" s="49">
         <v>45005</v>
       </c>
       <c r="L220" s="21">
@@ -22496,7 +22494,7 @@
       </c>
       <c r="C222" s="11"/>
       <c r="D222" s="20"/>
-      <c r="E222" s="34">
+      <c r="E222" s="33">
         <v>45377</v>
       </c>
       <c r="F222" s="14" t="s">
@@ -22509,10 +22507,10 @@
       <c r="I222" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="J222" s="50">
+      <c r="J222" s="49">
         <v>45007</v>
       </c>
-      <c r="K222" s="50">
+      <c r="K222" s="49">
         <v>45007</v>
       </c>
       <c r="L222" s="21">
@@ -22561,16 +22559,16 @@
       </c>
     </row>
     <row r="223" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="84">
+      <c r="A223" s="83">
         <v>5877</v>
       </c>
-      <c r="B223" s="85" t="s">
+      <c r="B223" s="84" t="s">
         <v>478</v>
       </c>
       <c r="C223" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D223" s="86" t="s">
+      <c r="D223" s="85" t="s">
         <v>479</v>
       </c>
       <c r="E223" s="13">
@@ -22579,13 +22577,13 @@
       <c r="F223" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G223" s="87" t="s">
+      <c r="G223" s="86" t="s">
         <v>81</v>
       </c>
       <c r="H223" s="23"/>
       <c r="I223" s="23"/>
-      <c r="J223" s="50"/>
-      <c r="K223" s="50"/>
+      <c r="J223" s="49"/>
+      <c r="K223" s="49"/>
       <c r="L223" s="10">
         <v>16002</v>
       </c>
@@ -22595,43 +22593,43 @@
       <c r="N223" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="O223" s="88"/>
-      <c r="P223" s="68"/>
-      <c r="Q223" s="88" t="s">
+      <c r="O223" s="87"/>
+      <c r="P223" s="67"/>
+      <c r="Q223" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="R223" s="88" t="s">
+      <c r="R223" s="87" t="s">
         <v>481</v>
       </c>
-      <c r="S223" s="88" t="s">
+      <c r="S223" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="T223" s="89"/>
-      <c r="U223" s="88"/>
-      <c r="V223" s="88"/>
-      <c r="W223" s="89"/>
-      <c r="X223" s="90"/>
-      <c r="Y223" s="90"/>
-      <c r="Z223" s="90"/>
-      <c r="AA223" s="90"/>
-      <c r="AB223" s="90"/>
-      <c r="AC223" s="90"/>
-      <c r="AD223" s="90"/>
-      <c r="AE223" s="90"/>
-      <c r="AF223" s="90"/>
-      <c r="AG223" s="90"/>
-      <c r="AH223" s="90"/>
-      <c r="AI223" s="90"/>
-      <c r="AJ223" s="90"/>
-      <c r="AK223" s="90"/>
-      <c r="AL223" s="90"/>
-      <c r="AM223" s="90"/>
-      <c r="AN223" s="90"/>
-      <c r="AO223" s="90"/>
-      <c r="AP223" s="90"/>
-      <c r="AQ223" s="89"/>
-      <c r="AR223" s="89"/>
-      <c r="AS223" s="91" t="s">
+      <c r="T223" s="88"/>
+      <c r="U223" s="87"/>
+      <c r="V223" s="87"/>
+      <c r="W223" s="88"/>
+      <c r="X223" s="89"/>
+      <c r="Y223" s="89"/>
+      <c r="Z223" s="89"/>
+      <c r="AA223" s="89"/>
+      <c r="AB223" s="89"/>
+      <c r="AC223" s="89"/>
+      <c r="AD223" s="89"/>
+      <c r="AE223" s="89"/>
+      <c r="AF223" s="89"/>
+      <c r="AG223" s="89"/>
+      <c r="AH223" s="89"/>
+      <c r="AI223" s="89"/>
+      <c r="AJ223" s="89"/>
+      <c r="AK223" s="89"/>
+      <c r="AL223" s="89"/>
+      <c r="AM223" s="89"/>
+      <c r="AN223" s="89"/>
+      <c r="AO223" s="89"/>
+      <c r="AP223" s="89"/>
+      <c r="AQ223" s="88"/>
+      <c r="AR223" s="88"/>
+      <c r="AS223" s="90" t="s">
         <v>293</v>
       </c>
     </row>
@@ -23289,10 +23287,10 @@
       <c r="I232" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J232" s="50">
+      <c r="J232" s="49">
         <v>45006</v>
       </c>
-      <c r="K232" s="50">
+      <c r="K232" s="49">
         <v>45006</v>
       </c>
       <c r="L232" s="21">
@@ -23344,73 +23342,73 @@
       <c r="A233" s="9">
         <v>5996</v>
       </c>
-      <c r="B233" s="33" t="s">
+      <c r="B233" s="32" t="s">
         <v>496</v>
       </c>
       <c r="C233" s="11"/>
       <c r="D233" s="20"/>
-      <c r="E233" s="34">
+      <c r="E233" s="33">
         <v>45272</v>
       </c>
-      <c r="F233" s="35" t="s">
+      <c r="F233" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="G233" s="37" t="s">
+      <c r="G233" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="H233" s="37" t="s">
+      <c r="H233" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="I233" s="37" t="s">
+      <c r="I233" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="J233" s="62">
+      <c r="J233" s="61">
         <v>45006</v>
       </c>
-      <c r="K233" s="62">
+      <c r="K233" s="61">
         <v>45006</v>
       </c>
       <c r="L233" s="21">
         <v>15004</v>
       </c>
-      <c r="M233" s="36" t="s">
+      <c r="M233" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="N233" s="36"/>
-      <c r="O233" s="36"/>
+      <c r="N233" s="35"/>
+      <c r="O233" s="35"/>
       <c r="P233" s="22"/>
-      <c r="Q233" s="36" t="s">
+      <c r="Q233" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="R233" s="36"/>
-      <c r="S233" s="36" t="s">
+      <c r="R233" s="35"/>
+      <c r="S233" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="T233" s="37"/>
-      <c r="U233" s="36"/>
-      <c r="V233" s="36"/>
-      <c r="W233" s="37"/>
-      <c r="X233" s="38"/>
-      <c r="Y233" s="38"/>
-      <c r="Z233" s="38"/>
-      <c r="AA233" s="38"/>
-      <c r="AB233" s="38"/>
-      <c r="AC233" s="38"/>
-      <c r="AD233" s="38"/>
-      <c r="AE233" s="38"/>
-      <c r="AF233" s="38"/>
-      <c r="AG233" s="38"/>
-      <c r="AH233" s="38"/>
-      <c r="AI233" s="38"/>
-      <c r="AJ233" s="38"/>
-      <c r="AK233" s="38"/>
-      <c r="AL233" s="38"/>
-      <c r="AM233" s="38"/>
-      <c r="AN233" s="38"/>
-      <c r="AO233" s="38"/>
-      <c r="AP233" s="38"/>
-      <c r="AQ233" s="37"/>
-      <c r="AR233" s="37"/>
+      <c r="T233" s="36"/>
+      <c r="U233" s="35"/>
+      <c r="V233" s="35"/>
+      <c r="W233" s="36"/>
+      <c r="X233" s="37"/>
+      <c r="Y233" s="37"/>
+      <c r="Z233" s="37"/>
+      <c r="AA233" s="37"/>
+      <c r="AB233" s="37"/>
+      <c r="AC233" s="37"/>
+      <c r="AD233" s="37"/>
+      <c r="AE233" s="37"/>
+      <c r="AF233" s="37"/>
+      <c r="AG233" s="37"/>
+      <c r="AH233" s="37"/>
+      <c r="AI233" s="37"/>
+      <c r="AJ233" s="37"/>
+      <c r="AK233" s="37"/>
+      <c r="AL233" s="37"/>
+      <c r="AM233" s="37"/>
+      <c r="AN233" s="37"/>
+      <c r="AO233" s="37"/>
+      <c r="AP233" s="37"/>
+      <c r="AQ233" s="36"/>
+      <c r="AR233" s="36"/>
       <c r="AS233" s="25" t="s">
         <v>293</v>
       </c>
@@ -23423,7 +23421,7 @@
         <v>497</v>
       </c>
       <c r="C234" s="11"/>
-      <c r="D234" s="61" t="s">
+      <c r="D234" s="60" t="s">
         <v>498</v>
       </c>
       <c r="E234" s="19">
@@ -23488,64 +23486,64 @@
       <c r="A235" s="9">
         <v>6036</v>
       </c>
-      <c r="B235" s="33" t="s">
+      <c r="B235" s="32" t="s">
         <v>499</v>
       </c>
       <c r="C235" s="11"/>
       <c r="D235" s="20"/>
-      <c r="E235" s="34">
+      <c r="E235" s="33">
         <v>44341</v>
       </c>
-      <c r="F235" s="35"/>
-      <c r="G235" s="37" t="s">
+      <c r="F235" s="34"/>
+      <c r="G235" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="H235" s="37"/>
-      <c r="I235" s="37"/>
-      <c r="J235" s="37"/>
-      <c r="K235" s="37"/>
+      <c r="H235" s="36"/>
+      <c r="I235" s="36"/>
+      <c r="J235" s="36"/>
+      <c r="K235" s="36"/>
       <c r="L235" s="21">
         <v>15004</v>
       </c>
-      <c r="M235" s="36" t="s">
+      <c r="M235" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="N235" s="36"/>
-      <c r="O235" s="36"/>
+      <c r="N235" s="35"/>
+      <c r="O235" s="35"/>
       <c r="P235" s="22"/>
-      <c r="Q235" s="36" t="s">
+      <c r="Q235" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="R235" s="36"/>
-      <c r="S235" s="36" t="s">
+      <c r="R235" s="35"/>
+      <c r="S235" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="T235" s="37"/>
-      <c r="U235" s="36"/>
-      <c r="V235" s="36"/>
-      <c r="W235" s="37"/>
-      <c r="X235" s="38"/>
-      <c r="Y235" s="38"/>
-      <c r="Z235" s="38"/>
-      <c r="AA235" s="38"/>
-      <c r="AB235" s="38"/>
-      <c r="AC235" s="38"/>
-      <c r="AD235" s="38"/>
-      <c r="AE235" s="38"/>
-      <c r="AF235" s="38"/>
-      <c r="AG235" s="38"/>
-      <c r="AH235" s="38"/>
-      <c r="AI235" s="38"/>
-      <c r="AJ235" s="38"/>
-      <c r="AK235" s="38"/>
-      <c r="AL235" s="38"/>
-      <c r="AM235" s="38"/>
-      <c r="AN235" s="38"/>
-      <c r="AO235" s="38"/>
-      <c r="AP235" s="38"/>
-      <c r="AQ235" s="37"/>
-      <c r="AR235" s="37"/>
-      <c r="AS235" s="39" t="s">
+      <c r="T235" s="36"/>
+      <c r="U235" s="35"/>
+      <c r="V235" s="35"/>
+      <c r="W235" s="36"/>
+      <c r="X235" s="37"/>
+      <c r="Y235" s="37"/>
+      <c r="Z235" s="37"/>
+      <c r="AA235" s="37"/>
+      <c r="AB235" s="37"/>
+      <c r="AC235" s="37"/>
+      <c r="AD235" s="37"/>
+      <c r="AE235" s="37"/>
+      <c r="AF235" s="37"/>
+      <c r="AG235" s="37"/>
+      <c r="AH235" s="37"/>
+      <c r="AI235" s="37"/>
+      <c r="AJ235" s="37"/>
+      <c r="AK235" s="37"/>
+      <c r="AL235" s="37"/>
+      <c r="AM235" s="37"/>
+      <c r="AN235" s="37"/>
+      <c r="AO235" s="37"/>
+      <c r="AP235" s="37"/>
+      <c r="AQ235" s="36"/>
+      <c r="AR235" s="36"/>
+      <c r="AS235" s="38" t="s">
         <v>200</v>
       </c>
     </row>
@@ -23571,10 +23569,10 @@
       <c r="I236" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J236" s="50">
+      <c r="J236" s="49">
         <v>45013</v>
       </c>
-      <c r="K236" s="50">
+      <c r="K236" s="49">
         <v>45013</v>
       </c>
       <c r="L236" s="21">
@@ -24120,7 +24118,7 @@
       <c r="D244" s="18" t="s">
         <v>510</v>
       </c>
-      <c r="E244" s="59">
+      <c r="E244" s="58">
         <v>45363</v>
       </c>
       <c r="F244" s="14" t="s">
@@ -24219,7 +24217,7 @@
         <v>71</v>
       </c>
       <c r="D245" s="18"/>
-      <c r="E245" s="59">
+      <c r="E245" s="58">
         <v>45365</v>
       </c>
       <c r="F245" s="14" t="s">
@@ -24292,7 +24290,7 @@
         <v>71</v>
       </c>
       <c r="D246" s="18"/>
-      <c r="E246" s="59">
+      <c r="E246" s="58">
         <v>45365</v>
       </c>
       <c r="F246" s="14" t="s">
@@ -24379,7 +24377,7 @@
       <c r="D247" s="18" t="s">
         <v>516</v>
       </c>
-      <c r="E247" s="59">
+      <c r="E247" s="58">
         <v>45358</v>
       </c>
       <c r="F247" s="14" t="s">
@@ -24464,7 +24462,7 @@
         <v>71</v>
       </c>
       <c r="D248" s="18"/>
-      <c r="E248" s="59">
+      <c r="E248" s="58">
         <v>45329</v>
       </c>
       <c r="F248" s="14" t="s">
@@ -24565,7 +24563,7 @@
       <c r="J249" s="23" t="s">
         <v>520</v>
       </c>
-      <c r="K249" s="50">
+      <c r="K249" s="49">
         <v>45007</v>
       </c>
       <c r="L249" s="10">
@@ -24855,7 +24853,7 @@
       <c r="F253" s="14" t="s">
         <v>526</v>
       </c>
-      <c r="G253" s="92" t="s">
+      <c r="G253" s="91" t="s">
         <v>81</v>
       </c>
       <c r="H253" s="23" t="s">
@@ -25012,66 +25010,66 @@
       <c r="A255" s="9">
         <v>7772</v>
       </c>
-      <c r="B255" s="33" t="s">
+      <c r="B255" s="32" t="s">
         <v>530</v>
       </c>
       <c r="C255" s="11"/>
       <c r="D255" s="20"/>
-      <c r="E255" s="34">
+      <c r="E255" s="33">
         <v>45008</v>
       </c>
-      <c r="F255" s="35" t="s">
+      <c r="F255" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="G255" s="37" t="s">
+      <c r="G255" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="H255" s="37"/>
-      <c r="I255" s="37"/>
-      <c r="J255" s="37"/>
-      <c r="K255" s="37"/>
+      <c r="H255" s="36"/>
+      <c r="I255" s="36"/>
+      <c r="J255" s="36"/>
+      <c r="K255" s="36"/>
       <c r="L255" s="10">
         <v>15004</v>
       </c>
-      <c r="M255" s="36" t="s">
+      <c r="M255" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="N255" s="36"/>
-      <c r="O255" s="36"/>
+      <c r="N255" s="35"/>
+      <c r="O255" s="35"/>
       <c r="P255" s="22"/>
-      <c r="Q255" s="36" t="s">
+      <c r="Q255" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="R255" s="36"/>
+      <c r="R255" s="35"/>
       <c r="S255" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="T255" s="37"/>
-      <c r="U255" s="36"/>
-      <c r="V255" s="36"/>
-      <c r="W255" s="37"/>
-      <c r="X255" s="38"/>
-      <c r="Y255" s="38"/>
-      <c r="Z255" s="38"/>
-      <c r="AA255" s="38"/>
-      <c r="AB255" s="38"/>
-      <c r="AC255" s="38"/>
-      <c r="AD255" s="38"/>
-      <c r="AE255" s="38"/>
-      <c r="AF255" s="38"/>
-      <c r="AG255" s="38"/>
-      <c r="AH255" s="38"/>
-      <c r="AI255" s="38"/>
-      <c r="AJ255" s="38"/>
-      <c r="AK255" s="38"/>
-      <c r="AL255" s="38"/>
-      <c r="AM255" s="38"/>
-      <c r="AN255" s="38"/>
-      <c r="AO255" s="38"/>
-      <c r="AP255" s="38"/>
-      <c r="AQ255" s="37"/>
-      <c r="AR255" s="37"/>
-      <c r="AS255" s="39" t="s">
+      <c r="T255" s="36"/>
+      <c r="U255" s="35"/>
+      <c r="V255" s="35"/>
+      <c r="W255" s="36"/>
+      <c r="X255" s="37"/>
+      <c r="Y255" s="37"/>
+      <c r="Z255" s="37"/>
+      <c r="AA255" s="37"/>
+      <c r="AB255" s="37"/>
+      <c r="AC255" s="37"/>
+      <c r="AD255" s="37"/>
+      <c r="AE255" s="37"/>
+      <c r="AF255" s="37"/>
+      <c r="AG255" s="37"/>
+      <c r="AH255" s="37"/>
+      <c r="AI255" s="37"/>
+      <c r="AJ255" s="37"/>
+      <c r="AK255" s="37"/>
+      <c r="AL255" s="37"/>
+      <c r="AM255" s="37"/>
+      <c r="AN255" s="37"/>
+      <c r="AO255" s="37"/>
+      <c r="AP255" s="37"/>
+      <c r="AQ255" s="36"/>
+      <c r="AR255" s="36"/>
+      <c r="AS255" s="38" t="s">
         <v>200</v>
       </c>
     </row>
@@ -25085,7 +25083,7 @@
       <c r="C256" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="D256" s="93"/>
+      <c r="D256" s="92"/>
       <c r="E256" s="19">
         <v>45357</v>
       </c>
@@ -25432,7 +25430,7 @@
       <c r="T260" s="23">
         <v>19</v>
       </c>
-      <c r="U260" s="94" t="s">
+      <c r="U260" s="93" t="s">
         <v>547</v>
       </c>
       <c r="V260" s="21"/>
@@ -25669,60 +25667,60 @@
       <c r="A264" s="9">
         <v>8087</v>
       </c>
-      <c r="B264" s="33" t="s">
+      <c r="B264" s="32" t="s">
         <v>553</v>
       </c>
       <c r="C264" s="11"/>
       <c r="D264" s="20"/>
-      <c r="E264" s="33"/>
-      <c r="F264" s="95"/>
-      <c r="G264" s="62"/>
-      <c r="H264" s="62"/>
-      <c r="I264" s="62"/>
-      <c r="J264" s="62"/>
-      <c r="K264" s="62"/>
+      <c r="E264" s="32"/>
+      <c r="F264" s="94"/>
+      <c r="G264" s="61"/>
+      <c r="H264" s="61"/>
+      <c r="I264" s="61"/>
+      <c r="J264" s="61"/>
+      <c r="K264" s="61"/>
       <c r="L264" s="21">
         <v>16002</v>
       </c>
       <c r="M264" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="N264" s="36"/>
-      <c r="O264" s="36"/>
+      <c r="N264" s="35"/>
+      <c r="O264" s="35"/>
       <c r="P264" s="22"/>
       <c r="Q264" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="R264" s="36"/>
+      <c r="R264" s="35"/>
       <c r="S264" s="21" t="s">
         <v>550</v>
       </c>
-      <c r="T264" s="37"/>
-      <c r="U264" s="36"/>
-      <c r="V264" s="36"/>
-      <c r="W264" s="37"/>
-      <c r="X264" s="38"/>
-      <c r="Y264" s="38"/>
-      <c r="Z264" s="38"/>
-      <c r="AA264" s="38"/>
-      <c r="AB264" s="38"/>
-      <c r="AC264" s="38"/>
-      <c r="AD264" s="38"/>
-      <c r="AE264" s="38"/>
-      <c r="AF264" s="38"/>
-      <c r="AG264" s="38"/>
-      <c r="AH264" s="38"/>
-      <c r="AI264" s="38"/>
-      <c r="AJ264" s="38"/>
-      <c r="AK264" s="38"/>
-      <c r="AL264" s="38"/>
-      <c r="AM264" s="38"/>
-      <c r="AN264" s="38"/>
-      <c r="AO264" s="38"/>
-      <c r="AP264" s="38"/>
-      <c r="AQ264" s="37"/>
-      <c r="AR264" s="37"/>
-      <c r="AS264" s="39" t="s">
+      <c r="T264" s="36"/>
+      <c r="U264" s="35"/>
+      <c r="V264" s="35"/>
+      <c r="W264" s="36"/>
+      <c r="X264" s="37"/>
+      <c r="Y264" s="37"/>
+      <c r="Z264" s="37"/>
+      <c r="AA264" s="37"/>
+      <c r="AB264" s="37"/>
+      <c r="AC264" s="37"/>
+      <c r="AD264" s="37"/>
+      <c r="AE264" s="37"/>
+      <c r="AF264" s="37"/>
+      <c r="AG264" s="37"/>
+      <c r="AH264" s="37"/>
+      <c r="AI264" s="37"/>
+      <c r="AJ264" s="37"/>
+      <c r="AK264" s="37"/>
+      <c r="AL264" s="37"/>
+      <c r="AM264" s="37"/>
+      <c r="AN264" s="37"/>
+      <c r="AO264" s="37"/>
+      <c r="AP264" s="37"/>
+      <c r="AQ264" s="36"/>
+      <c r="AR264" s="36"/>
+      <c r="AS264" s="38" t="s">
         <v>293</v>
       </c>
     </row>
@@ -26084,10 +26082,10 @@
       </c>
     </row>
     <row r="270" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="84">
+      <c r="A270" s="83">
         <v>8109</v>
       </c>
-      <c r="B270" s="85" t="s">
+      <c r="B270" s="84" t="s">
         <v>567</v>
       </c>
       <c r="C270" s="11" t="s">
@@ -26102,57 +26100,57 @@
       <c r="F270" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G270" s="87" t="s">
+      <c r="G270" s="86" t="s">
         <v>81</v>
       </c>
       <c r="H270" s="23"/>
       <c r="I270" s="23"/>
       <c r="J270" s="23"/>
       <c r="K270" s="23"/>
-      <c r="L270" s="88">
+      <c r="L270" s="87">
         <v>16002</v>
       </c>
-      <c r="M270" s="88" t="s">
+      <c r="M270" s="87" t="s">
         <v>570</v>
       </c>
-      <c r="N270" s="88"/>
-      <c r="O270" s="88"/>
-      <c r="P270" s="68"/>
-      <c r="Q270" s="88" t="s">
+      <c r="N270" s="87"/>
+      <c r="O270" s="87"/>
+      <c r="P270" s="67"/>
+      <c r="Q270" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="R270" s="88" t="s">
+      <c r="R270" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="S270" s="88" t="s">
+      <c r="S270" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="T270" s="89"/>
-      <c r="U270" s="88"/>
-      <c r="V270" s="88"/>
-      <c r="W270" s="89"/>
-      <c r="X270" s="90"/>
-      <c r="Y270" s="90"/>
-      <c r="Z270" s="90"/>
-      <c r="AA270" s="90"/>
-      <c r="AB270" s="90"/>
-      <c r="AC270" s="90"/>
-      <c r="AD270" s="90"/>
-      <c r="AE270" s="90"/>
-      <c r="AF270" s="90"/>
-      <c r="AG270" s="90"/>
-      <c r="AH270" s="90"/>
-      <c r="AI270" s="90"/>
-      <c r="AJ270" s="90"/>
-      <c r="AK270" s="90"/>
-      <c r="AL270" s="90"/>
-      <c r="AM270" s="90"/>
-      <c r="AN270" s="90"/>
-      <c r="AO270" s="90"/>
-      <c r="AP270" s="90"/>
-      <c r="AQ270" s="89"/>
-      <c r="AR270" s="89"/>
-      <c r="AS270" s="91" t="s">
+      <c r="T270" s="88"/>
+      <c r="U270" s="87"/>
+      <c r="V270" s="87"/>
+      <c r="W270" s="88"/>
+      <c r="X270" s="89"/>
+      <c r="Y270" s="89"/>
+      <c r="Z270" s="89"/>
+      <c r="AA270" s="89"/>
+      <c r="AB270" s="89"/>
+      <c r="AC270" s="89"/>
+      <c r="AD270" s="89"/>
+      <c r="AE270" s="89"/>
+      <c r="AF270" s="89"/>
+      <c r="AG270" s="89"/>
+      <c r="AH270" s="89"/>
+      <c r="AI270" s="89"/>
+      <c r="AJ270" s="89"/>
+      <c r="AK270" s="89"/>
+      <c r="AL270" s="89"/>
+      <c r="AM270" s="89"/>
+      <c r="AN270" s="89"/>
+      <c r="AO270" s="89"/>
+      <c r="AP270" s="89"/>
+      <c r="AQ270" s="88"/>
+      <c r="AR270" s="88"/>
+      <c r="AS270" s="90" t="s">
         <v>293</v>
       </c>
     </row>
@@ -26163,25 +26161,25 @@
       <c r="B271" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="C271" s="54" t="s">
+      <c r="C271" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="D271" s="54" t="s">
+      <c r="D271" s="53" t="s">
         <v>572</v>
       </c>
       <c r="E271" s="19">
         <v>45356</v>
       </c>
-      <c r="F271" s="56" t="s">
+      <c r="F271" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="G271" s="63" t="s">
+      <c r="G271" s="62" t="s">
         <v>573</v>
       </c>
-      <c r="H271" s="63"/>
-      <c r="I271" s="63"/>
-      <c r="J271" s="63"/>
-      <c r="K271" s="63"/>
+      <c r="H271" s="62"/>
+      <c r="I271" s="62"/>
+      <c r="J271" s="62"/>
+      <c r="K271" s="62"/>
       <c r="L271" s="9">
         <v>15004</v>
       </c>
@@ -26202,42 +26200,42 @@
       <c r="S271" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="T271" s="63"/>
+      <c r="T271" s="62"/>
       <c r="U271" s="22"/>
       <c r="V271" s="22"/>
-      <c r="W271" s="63"/>
-      <c r="X271" s="65" t="s">
+      <c r="W271" s="62"/>
+      <c r="X271" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="Y271" s="65">
+      <c r="Y271" s="64">
         <v>277047</v>
       </c>
-      <c r="Z271" s="65"/>
-      <c r="AA271" s="65">
+      <c r="Z271" s="64"/>
+      <c r="AA271" s="64">
         <v>9141</v>
       </c>
-      <c r="AB271" s="65">
+      <c r="AB271" s="64">
         <v>3155</v>
       </c>
-      <c r="AC271" s="65">
+      <c r="AC271" s="64">
         <v>3155</v>
       </c>
-      <c r="AD271" s="65"/>
-      <c r="AE271" s="65"/>
-      <c r="AF271" s="65"/>
-      <c r="AG271" s="65"/>
-      <c r="AH271" s="65"/>
-      <c r="AI271" s="65"/>
-      <c r="AJ271" s="65"/>
-      <c r="AK271" s="65"/>
-      <c r="AL271" s="65"/>
-      <c r="AM271" s="65"/>
-      <c r="AN271" s="65"/>
-      <c r="AO271" s="65"/>
-      <c r="AP271" s="65"/>
-      <c r="AQ271" s="96"/>
-      <c r="AR271" s="96"/>
-      <c r="AS271" s="97" t="s">
+      <c r="AD271" s="64"/>
+      <c r="AE271" s="64"/>
+      <c r="AF271" s="64"/>
+      <c r="AG271" s="64"/>
+      <c r="AH271" s="64"/>
+      <c r="AI271" s="64"/>
+      <c r="AJ271" s="64"/>
+      <c r="AK271" s="64"/>
+      <c r="AL271" s="64"/>
+      <c r="AM271" s="64"/>
+      <c r="AN271" s="64"/>
+      <c r="AO271" s="64"/>
+      <c r="AP271" s="64"/>
+      <c r="AQ271" s="95"/>
+      <c r="AR271" s="95"/>
+      <c r="AS271" s="96" t="s">
         <v>207</v>
       </c>
     </row>
@@ -26319,7 +26317,7 @@
       </c>
       <c r="C273" s="11"/>
       <c r="D273" s="20"/>
-      <c r="E273" s="34">
+      <c r="E273" s="33">
         <v>45377</v>
       </c>
       <c r="F273" s="14" t="s">
@@ -26332,10 +26330,10 @@
       <c r="I273" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J273" s="50">
+      <c r="J273" s="49">
         <v>45007</v>
       </c>
-      <c r="K273" s="50">
+      <c r="K273" s="49">
         <v>45007</v>
       </c>
       <c r="L273" s="10">
@@ -26527,66 +26525,66 @@
       <c r="A276" s="9">
         <v>8299</v>
       </c>
-      <c r="B276" s="33" t="s">
+      <c r="B276" s="32" t="s">
         <v>578</v>
       </c>
       <c r="C276" s="11"/>
       <c r="D276" s="20"/>
-      <c r="E276" s="34">
+      <c r="E276" s="33">
         <v>45225</v>
       </c>
       <c r="F276" s="14" t="s">
         <v>537</v>
       </c>
-      <c r="G276" s="62"/>
+      <c r="G276" s="61"/>
       <c r="H276" s="23"/>
       <c r="I276" s="23"/>
       <c r="J276" s="23"/>
       <c r="K276" s="23"/>
-      <c r="L276" s="36">
+      <c r="L276" s="35">
         <v>15004</v>
       </c>
-      <c r="M276" s="36" t="s">
+      <c r="M276" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="N276" s="36" t="s">
+      <c r="N276" s="35" t="s">
         <v>579</v>
       </c>
-      <c r="O276" s="36"/>
+      <c r="O276" s="35"/>
       <c r="P276" s="22"/>
-      <c r="Q276" s="36" t="s">
+      <c r="Q276" s="35" t="s">
         <v>540</v>
       </c>
-      <c r="R276" s="36"/>
+      <c r="R276" s="35"/>
       <c r="S276" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="T276" s="37"/>
-      <c r="U276" s="36"/>
-      <c r="V276" s="36"/>
-      <c r="W276" s="37"/>
-      <c r="X276" s="38"/>
-      <c r="Y276" s="38"/>
-      <c r="Z276" s="38"/>
-      <c r="AA276" s="38"/>
-      <c r="AB276" s="38"/>
-      <c r="AC276" s="38"/>
-      <c r="AD276" s="38"/>
-      <c r="AE276" s="38"/>
-      <c r="AF276" s="38"/>
-      <c r="AG276" s="38"/>
-      <c r="AH276" s="38"/>
-      <c r="AI276" s="38"/>
-      <c r="AJ276" s="38"/>
-      <c r="AK276" s="38"/>
-      <c r="AL276" s="38"/>
-      <c r="AM276" s="38"/>
-      <c r="AN276" s="38"/>
-      <c r="AO276" s="38"/>
-      <c r="AP276" s="38"/>
-      <c r="AQ276" s="37"/>
-      <c r="AR276" s="37"/>
-      <c r="AS276" s="39" t="s">
+      <c r="T276" s="36"/>
+      <c r="U276" s="35"/>
+      <c r="V276" s="35"/>
+      <c r="W276" s="36"/>
+      <c r="X276" s="37"/>
+      <c r="Y276" s="37"/>
+      <c r="Z276" s="37"/>
+      <c r="AA276" s="37"/>
+      <c r="AB276" s="37"/>
+      <c r="AC276" s="37"/>
+      <c r="AD276" s="37"/>
+      <c r="AE276" s="37"/>
+      <c r="AF276" s="37"/>
+      <c r="AG276" s="37"/>
+      <c r="AH276" s="37"/>
+      <c r="AI276" s="37"/>
+      <c r="AJ276" s="37"/>
+      <c r="AK276" s="37"/>
+      <c r="AL276" s="37"/>
+      <c r="AM276" s="37"/>
+      <c r="AN276" s="37"/>
+      <c r="AO276" s="37"/>
+      <c r="AP276" s="37"/>
+      <c r="AQ276" s="36"/>
+      <c r="AR276" s="36"/>
+      <c r="AS276" s="38" t="s">
         <v>293</v>
       </c>
     </row>
@@ -26874,14 +26872,14 @@
       <c r="A281" s="9">
         <v>8355</v>
       </c>
-      <c r="B281" s="33" t="s">
+      <c r="B281" s="32" t="s">
         <v>586</v>
       </c>
       <c r="C281" s="11"/>
       <c r="D281" s="20"/>
-      <c r="E281" s="34"/>
+      <c r="E281" s="33"/>
       <c r="F281" s="14"/>
-      <c r="G281" s="62"/>
+      <c r="G281" s="61"/>
       <c r="H281" s="23"/>
       <c r="I281" s="23"/>
       <c r="J281" s="23"/>
@@ -26892,42 +26890,42 @@
       <c r="M281" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="N281" s="36"/>
-      <c r="O281" s="36"/>
+      <c r="N281" s="35"/>
+      <c r="O281" s="35"/>
       <c r="P281" s="22"/>
-      <c r="Q281" s="36" t="s">
+      <c r="Q281" s="35" t="s">
         <v>540</v>
       </c>
-      <c r="R281" s="36"/>
-      <c r="S281" s="36" t="s">
+      <c r="R281" s="35"/>
+      <c r="S281" s="35" t="s">
         <v>550</v>
       </c>
-      <c r="T281" s="37"/>
-      <c r="U281" s="36"/>
-      <c r="V281" s="36"/>
-      <c r="W281" s="37"/>
-      <c r="X281" s="38"/>
-      <c r="Y281" s="38"/>
-      <c r="Z281" s="38"/>
-      <c r="AA281" s="38"/>
-      <c r="AB281" s="38"/>
-      <c r="AC281" s="38"/>
-      <c r="AD281" s="38"/>
-      <c r="AE281" s="38"/>
-      <c r="AF281" s="38"/>
-      <c r="AG281" s="38"/>
-      <c r="AH281" s="38"/>
-      <c r="AI281" s="38"/>
-      <c r="AJ281" s="38"/>
-      <c r="AK281" s="38"/>
-      <c r="AL281" s="38"/>
-      <c r="AM281" s="38"/>
-      <c r="AN281" s="38"/>
-      <c r="AO281" s="38"/>
-      <c r="AP281" s="38"/>
-      <c r="AQ281" s="37"/>
-      <c r="AR281" s="37"/>
-      <c r="AS281" s="39" t="s">
+      <c r="T281" s="36"/>
+      <c r="U281" s="35"/>
+      <c r="V281" s="35"/>
+      <c r="W281" s="36"/>
+      <c r="X281" s="37"/>
+      <c r="Y281" s="37"/>
+      <c r="Z281" s="37"/>
+      <c r="AA281" s="37"/>
+      <c r="AB281" s="37"/>
+      <c r="AC281" s="37"/>
+      <c r="AD281" s="37"/>
+      <c r="AE281" s="37"/>
+      <c r="AF281" s="37"/>
+      <c r="AG281" s="37"/>
+      <c r="AH281" s="37"/>
+      <c r="AI281" s="37"/>
+      <c r="AJ281" s="37"/>
+      <c r="AK281" s="37"/>
+      <c r="AL281" s="37"/>
+      <c r="AM281" s="37"/>
+      <c r="AN281" s="37"/>
+      <c r="AO281" s="37"/>
+      <c r="AP281" s="37"/>
+      <c r="AQ281" s="36"/>
+      <c r="AR281" s="36"/>
+      <c r="AS281" s="38" t="s">
         <v>293</v>
       </c>
     </row>
@@ -26953,10 +26951,10 @@
       <c r="G282" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="H282" s="50"/>
-      <c r="I282" s="50"/>
-      <c r="J282" s="50"/>
-      <c r="K282" s="50"/>
+      <c r="H282" s="49"/>
+      <c r="I282" s="49"/>
+      <c r="J282" s="49"/>
+      <c r="K282" s="49"/>
       <c r="L282" s="10">
         <v>16002</v>
       </c>
@@ -27026,7 +27024,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="283" spans="1:45" s="48" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:45" s="47" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="9">
         <v>8418</v>
       </c>
@@ -27102,7 +27100,7 @@
       <c r="AI283" s="24" t="s">
         <v>594</v>
       </c>
-      <c r="AJ283" s="98" t="s">
+      <c r="AJ283" s="97" t="s">
         <v>595</v>
       </c>
       <c r="AK283" s="24"/>
@@ -27115,7 +27113,7 @@
       <c r="AP283" s="24"/>
       <c r="AQ283" s="23"/>
       <c r="AR283" s="23"/>
-      <c r="AS283" s="81" t="s">
+      <c r="AS283" s="80" t="s">
         <v>126</v>
       </c>
     </row>
@@ -27578,7 +27576,7 @@
       <c r="C289" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D289" s="32"/>
+      <c r="D289" s="31"/>
       <c r="E289" s="19">
         <v>45369</v>
       </c>
@@ -27592,10 +27590,10 @@
         <v>602</v>
       </c>
       <c r="I289" s="21"/>
-      <c r="J289" s="67">
+      <c r="J289" s="66">
         <v>45029</v>
       </c>
-      <c r="K289" s="67"/>
+      <c r="K289" s="66"/>
       <c r="L289" s="21">
         <v>30030</v>
       </c>
@@ -28194,8 +28192,8 @@
       <c r="C295" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D295" s="99"/>
-      <c r="E295" s="100">
+      <c r="D295" s="98"/>
+      <c r="E295" s="99">
         <v>45369</v>
       </c>
       <c r="F295" s="14" t="s">
@@ -28276,7 +28274,7 @@
       <c r="D296" s="20" t="s">
         <v>626</v>
       </c>
-      <c r="E296" s="101">
+      <c r="E296" s="100">
         <v>45344</v>
       </c>
       <c r="F296" s="14" t="s">
@@ -28374,7 +28372,7 @@
       <c r="C297" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="D297" s="102" t="s">
+      <c r="D297" s="101" t="s">
         <v>632</v>
       </c>
       <c r="E297" s="13">
@@ -28447,13 +28445,13 @@
       <c r="AN297" s="24"/>
       <c r="AO297" s="24"/>
       <c r="AP297" s="24"/>
-      <c r="AQ297" s="79" t="s">
+      <c r="AQ297" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="AR297" s="79" t="s">
+      <c r="AR297" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="AS297" s="81" t="s">
+      <c r="AS297" s="80" t="s">
         <v>330</v>
       </c>
     </row>
@@ -28635,7 +28633,7 @@
       <c r="E300" s="19">
         <v>45365</v>
       </c>
-      <c r="F300" s="78" t="s">
+      <c r="F300" s="77" t="s">
         <v>645</v>
       </c>
       <c r="G300" s="23" t="s">
@@ -28652,7 +28650,7 @@
         <v>538</v>
       </c>
       <c r="N300" s="21"/>
-      <c r="O300" s="53"/>
+      <c r="O300" s="52"/>
       <c r="P300" s="22">
         <v>592</v>
       </c>
@@ -28706,8 +28704,8 @@
       <c r="AN300" s="24"/>
       <c r="AO300" s="24"/>
       <c r="AP300" s="24"/>
-      <c r="AR300" s="79"/>
-      <c r="AS300" s="81" t="s">
+      <c r="AR300" s="78"/>
+      <c r="AS300" s="80" t="s">
         <v>138</v>
       </c>
     </row>
@@ -28721,11 +28719,11 @@
       <c r="C301" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D301" s="57"/>
+      <c r="D301" s="56"/>
       <c r="E301" s="13">
         <v>45365</v>
       </c>
-      <c r="F301" s="103" t="s">
+      <c r="F301" s="102" t="s">
         <v>645</v>
       </c>
       <c r="G301" s="23" t="s">
@@ -28742,7 +28740,7 @@
         <v>651</v>
       </c>
       <c r="N301" s="21"/>
-      <c r="O301" s="53"/>
+      <c r="O301" s="52"/>
       <c r="P301" s="22">
         <v>543</v>
       </c>
@@ -28790,8 +28788,8 @@
       <c r="AN301" s="24"/>
       <c r="AO301" s="24"/>
       <c r="AP301" s="24"/>
-      <c r="AR301" s="79"/>
-      <c r="AS301" s="81" t="s">
+      <c r="AR301" s="78"/>
+      <c r="AS301" s="80" t="s">
         <v>138</v>
       </c>
     </row>
@@ -28886,8 +28884,8 @@
       <c r="AN302" s="24"/>
       <c r="AO302" s="24"/>
       <c r="AP302" s="24"/>
-      <c r="AR302" s="79"/>
-      <c r="AS302" s="81" t="s">
+      <c r="AR302" s="78"/>
+      <c r="AS302" s="80" t="s">
         <v>231</v>
       </c>
     </row>
@@ -28905,7 +28903,7 @@
       <c r="E303" s="19">
         <v>45363</v>
       </c>
-      <c r="F303" s="103" t="s">
+      <c r="F303" s="102" t="s">
         <v>48</v>
       </c>
       <c r="G303" s="23" t="s">
@@ -28982,8 +28980,8 @@
       <c r="AN303" s="24"/>
       <c r="AO303" s="24"/>
       <c r="AP303" s="24"/>
-      <c r="AR303" s="79"/>
-      <c r="AS303" s="81" t="s">
+      <c r="AR303" s="78"/>
+      <c r="AS303" s="80" t="s">
         <v>138</v>
       </c>
     </row>
@@ -28994,16 +28992,16 @@
       <c r="B304" s="10" t="s">
         <v>660</v>
       </c>
-      <c r="C304" s="104" t="s">
+      <c r="C304" s="103" t="s">
         <v>568</v>
       </c>
-      <c r="D304" s="105" t="s">
+      <c r="D304" s="104" t="s">
         <v>661</v>
       </c>
       <c r="E304" s="19">
         <v>45365</v>
       </c>
-      <c r="F304" s="103" t="s">
+      <c r="F304" s="102" t="s">
         <v>645</v>
       </c>
       <c r="G304" s="23" t="s">
@@ -29085,16 +29083,16 @@
       <c r="B305" s="10" t="s">
         <v>664</v>
       </c>
-      <c r="C305" s="106" t="s">
+      <c r="C305" s="105" t="s">
         <v>568</v>
       </c>
-      <c r="D305" s="107" t="s">
+      <c r="D305" s="106" t="s">
         <v>665</v>
       </c>
-      <c r="E305" s="108">
+      <c r="E305" s="107">
         <v>45364</v>
       </c>
-      <c r="F305" s="109" t="s">
+      <c r="F305" s="108" t="s">
         <v>645</v>
       </c>
       <c r="G305" s="23" t="s">
@@ -29167,20 +29165,20 @@
       <c r="C306" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D306" s="54"/>
+      <c r="D306" s="53"/>
       <c r="E306" s="13">
         <v>45363</v>
       </c>
-      <c r="F306" s="29" t="s">
+      <c r="F306" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="G306" s="63" t="s">
+      <c r="G306" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="H306" s="63"/>
-      <c r="I306" s="63"/>
-      <c r="J306" s="63"/>
-      <c r="K306" s="63"/>
+      <c r="H306" s="62"/>
+      <c r="I306" s="62"/>
+      <c r="J306" s="62"/>
+      <c r="K306" s="62"/>
       <c r="L306" s="22">
         <v>30003</v>
       </c>
@@ -29201,36 +29199,36 @@
       <c r="S306" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="T306" s="63"/>
+      <c r="T306" s="62"/>
       <c r="U306" s="22"/>
       <c r="V306" s="22"/>
-      <c r="W306" s="63"/>
-      <c r="X306" s="65" t="s">
+      <c r="W306" s="62"/>
+      <c r="X306" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="Y306" s="65">
+      <c r="Y306" s="64">
         <v>917789</v>
       </c>
-      <c r="Z306" s="65"/>
-      <c r="AA306" s="65"/>
-      <c r="AB306" s="65"/>
-      <c r="AC306" s="65"/>
-      <c r="AD306" s="65"/>
-      <c r="AE306" s="65"/>
-      <c r="AF306" s="65"/>
-      <c r="AG306" s="65"/>
-      <c r="AH306" s="65"/>
-      <c r="AI306" s="65"/>
-      <c r="AJ306" s="65"/>
-      <c r="AK306" s="65"/>
-      <c r="AL306" s="65"/>
-      <c r="AM306" s="65"/>
-      <c r="AN306" s="65"/>
-      <c r="AO306" s="65"/>
-      <c r="AP306" s="65"/>
-      <c r="AQ306" s="63"/>
-      <c r="AR306" s="63"/>
-      <c r="AS306" s="66" t="s">
+      <c r="Z306" s="64"/>
+      <c r="AA306" s="64"/>
+      <c r="AB306" s="64"/>
+      <c r="AC306" s="64"/>
+      <c r="AD306" s="64"/>
+      <c r="AE306" s="64"/>
+      <c r="AF306" s="64"/>
+      <c r="AG306" s="64"/>
+      <c r="AH306" s="64"/>
+      <c r="AI306" s="64"/>
+      <c r="AJ306" s="64"/>
+      <c r="AK306" s="64"/>
+      <c r="AL306" s="64"/>
+      <c r="AM306" s="64"/>
+      <c r="AN306" s="64"/>
+      <c r="AO306" s="64"/>
+      <c r="AP306" s="64"/>
+      <c r="AQ306" s="62"/>
+      <c r="AR306" s="62"/>
+      <c r="AS306" s="65" t="s">
         <v>293</v>
       </c>
     </row>
@@ -29244,22 +29242,22 @@
       <c r="C307" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="D307" s="57" t="s">
+      <c r="D307" s="56" t="s">
         <v>671</v>
       </c>
       <c r="E307" s="13">
         <v>45365</v>
       </c>
-      <c r="F307" s="110" t="s">
+      <c r="F307" s="109" t="s">
         <v>645</v>
       </c>
       <c r="G307" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="H307" s="50"/>
-      <c r="I307" s="50"/>
-      <c r="J307" s="50"/>
-      <c r="K307" s="50"/>
+      <c r="H307" s="49"/>
+      <c r="I307" s="49"/>
+      <c r="J307" s="49"/>
+      <c r="K307" s="49"/>
       <c r="L307" s="21">
         <v>30003</v>
       </c>
@@ -29473,7 +29471,7 @@
       <c r="B310" s="10" t="s">
         <v>678</v>
       </c>
-      <c r="C310" s="111" t="s">
+      <c r="C310" s="110" t="s">
         <v>175</v>
       </c>
       <c r="D310" s="18" t="s">
@@ -29544,7 +29542,7 @@
       <c r="B311" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="C311" s="111" t="s">
+      <c r="C311" s="110" t="s">
         <v>175</v>
       </c>
       <c r="D311" s="18" t="s">
@@ -29615,7 +29613,7 @@
       <c r="B312" s="10" t="s">
         <v>681</v>
       </c>
-      <c r="C312" s="111" t="s">
+      <c r="C312" s="110" t="s">
         <v>175</v>
       </c>
       <c r="D312" s="18" t="s">
@@ -29833,10 +29831,10 @@
       <c r="I315" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="J315" s="50">
+      <c r="J315" s="49">
         <v>45005</v>
       </c>
-      <c r="K315" s="50">
+      <c r="K315" s="49">
         <v>45005</v>
       </c>
       <c r="L315" s="10">
@@ -29894,13 +29892,13 @@
       <c r="C316" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D316" s="49" t="s">
+      <c r="D316" s="48" t="s">
         <v>686</v>
       </c>
-      <c r="E316" s="28">
+      <c r="E316" s="27">
         <v>45366</v>
       </c>
-      <c r="F316" s="29" t="s">
+      <c r="F316" s="28" t="s">
         <v>187</v>
       </c>
       <c r="G316" s="23" t="s">
@@ -29989,10 +29987,10 @@
       <c r="I317" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="J317" s="50">
+      <c r="J317" s="49">
         <v>45008</v>
       </c>
-      <c r="K317" s="50">
+      <c r="K317" s="49">
         <v>45008</v>
       </c>
       <c r="L317" s="10">
@@ -30051,10 +30049,10 @@
         <v>71</v>
       </c>
       <c r="D318" s="18"/>
-      <c r="E318" s="28">
+      <c r="E318" s="27">
         <v>45330</v>
       </c>
-      <c r="F318" s="29" t="s">
+      <c r="F318" s="28" t="s">
         <v>187</v>
       </c>
       <c r="G318" s="23" t="s">
@@ -30275,7 +30273,7 @@
       <c r="AN320" s="24"/>
       <c r="AO320" s="24"/>
       <c r="AP320" s="24"/>
-      <c r="AR320" s="79"/>
+      <c r="AR320" s="78"/>
       <c r="AS320" s="25" t="s">
         <v>231</v>
       </c>
@@ -30304,10 +30302,10 @@
       <c r="I321" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J321" s="50">
+      <c r="J321" s="49">
         <v>45007</v>
       </c>
-      <c r="K321" s="50">
+      <c r="K321" s="49">
         <v>45007</v>
       </c>
       <c r="L321" s="10">
@@ -30366,26 +30364,26 @@
         <v>175</v>
       </c>
       <c r="D322" s="18"/>
-      <c r="E322" s="28">
+      <c r="E322" s="27">
         <v>45175</v>
       </c>
-      <c r="F322" s="29" t="s">
+      <c r="F322" s="28" t="s">
         <v>111</v>
       </c>
       <c r="G322" s="23"/>
-      <c r="H322" s="50" t="s">
+      <c r="H322" s="49" t="s">
         <v>256</v>
       </c>
-      <c r="I322" s="50"/>
-      <c r="J322" s="50"/>
-      <c r="K322" s="50"/>
+      <c r="I322" s="49"/>
+      <c r="J322" s="49"/>
+      <c r="K322" s="49"/>
       <c r="L322" s="21">
         <v>16002</v>
       </c>
       <c r="M322" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="N322" s="53"/>
+      <c r="N322" s="52"/>
       <c r="O322" s="21"/>
       <c r="P322" s="22">
         <v>838</v>
@@ -30526,23 +30524,23 @@
       </c>
     </row>
     <row r="324" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="84">
+      <c r="A324" s="83">
         <v>9451</v>
       </c>
-      <c r="B324" s="85" t="s">
+      <c r="B324" s="84" t="s">
         <v>700</v>
       </c>
       <c r="C324" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D324" s="32"/>
-      <c r="E324" s="112">
+      <c r="D324" s="31"/>
+      <c r="E324" s="111">
         <v>45357</v>
       </c>
       <c r="F324" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="G324" s="87"/>
+      <c r="G324" s="86"/>
       <c r="H324" s="23"/>
       <c r="I324" s="23"/>
       <c r="J324" s="23"/>
@@ -30553,44 +30551,44 @@
       <c r="M324" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="N324" s="88"/>
-      <c r="O324" s="88"/>
-      <c r="P324" s="68"/>
+      <c r="N324" s="87"/>
+      <c r="O324" s="87"/>
+      <c r="P324" s="67"/>
       <c r="Q324" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="R324" s="88" t="s">
+      <c r="R324" s="87" t="s">
         <v>82</v>
       </c>
       <c r="S324" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="T324" s="89"/>
-      <c r="U324" s="88"/>
-      <c r="V324" s="88"/>
-      <c r="W324" s="89"/>
-      <c r="X324" s="90"/>
-      <c r="Y324" s="90"/>
-      <c r="Z324" s="90"/>
-      <c r="AA324" s="90"/>
-      <c r="AB324" s="90"/>
-      <c r="AC324" s="90"/>
-      <c r="AD324" s="90"/>
-      <c r="AE324" s="90"/>
-      <c r="AF324" s="90"/>
-      <c r="AG324" s="90"/>
-      <c r="AH324" s="90"/>
-      <c r="AI324" s="90"/>
-      <c r="AJ324" s="90"/>
-      <c r="AK324" s="90"/>
-      <c r="AL324" s="90"/>
-      <c r="AM324" s="90"/>
-      <c r="AN324" s="90"/>
-      <c r="AO324" s="90"/>
-      <c r="AP324" s="90"/>
-      <c r="AQ324" s="89"/>
-      <c r="AR324" s="89"/>
-      <c r="AS324" s="91" t="s">
+      <c r="T324" s="88"/>
+      <c r="U324" s="87"/>
+      <c r="V324" s="87"/>
+      <c r="W324" s="88"/>
+      <c r="X324" s="89"/>
+      <c r="Y324" s="89"/>
+      <c r="Z324" s="89"/>
+      <c r="AA324" s="89"/>
+      <c r="AB324" s="89"/>
+      <c r="AC324" s="89"/>
+      <c r="AD324" s="89"/>
+      <c r="AE324" s="89"/>
+      <c r="AF324" s="89"/>
+      <c r="AG324" s="89"/>
+      <c r="AH324" s="89"/>
+      <c r="AI324" s="89"/>
+      <c r="AJ324" s="89"/>
+      <c r="AK324" s="89"/>
+      <c r="AL324" s="89"/>
+      <c r="AM324" s="89"/>
+      <c r="AN324" s="89"/>
+      <c r="AO324" s="89"/>
+      <c r="AP324" s="89"/>
+      <c r="AQ324" s="88"/>
+      <c r="AR324" s="88"/>
+      <c r="AS324" s="90" t="s">
         <v>79</v>
       </c>
     </row>
@@ -30605,10 +30603,10 @@
         <v>71</v>
       </c>
       <c r="D325" s="18"/>
-      <c r="E325" s="28">
+      <c r="E325" s="27">
         <v>45330</v>
       </c>
-      <c r="F325" s="29" t="s">
+      <c r="F325" s="28" t="s">
         <v>187</v>
       </c>
       <c r="G325" s="23" t="s">
@@ -30671,71 +30669,71 @@
       <c r="A326" s="9">
         <v>9506</v>
       </c>
-      <c r="B326" s="33" t="s">
+      <c r="B326" s="32" t="s">
         <v>702</v>
       </c>
       <c r="C326" s="11"/>
       <c r="D326" s="20"/>
-      <c r="E326" s="34">
+      <c r="E326" s="33">
         <v>45271</v>
       </c>
-      <c r="F326" s="35" t="s">
+      <c r="F326" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="G326" s="37" t="s">
+      <c r="G326" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="H326" s="37" t="s">
+      <c r="H326" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="I326" s="37" t="s">
+      <c r="I326" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="J326" s="37"/>
-      <c r="K326" s="37"/>
+      <c r="J326" s="36"/>
+      <c r="K326" s="36"/>
       <c r="L326" s="21">
         <v>15013</v>
       </c>
       <c r="M326" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="N326" s="36"/>
-      <c r="O326" s="36"/>
+      <c r="N326" s="35"/>
+      <c r="O326" s="35"/>
       <c r="P326" s="22"/>
-      <c r="Q326" s="36" t="s">
+      <c r="Q326" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="R326" s="36"/>
-      <c r="S326" s="36" t="s">
+      <c r="R326" s="35"/>
+      <c r="S326" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="T326" s="37"/>
-      <c r="U326" s="36"/>
-      <c r="V326" s="36"/>
-      <c r="W326" s="37"/>
-      <c r="X326" s="38"/>
-      <c r="Y326" s="38"/>
-      <c r="Z326" s="38"/>
-      <c r="AA326" s="38"/>
-      <c r="AB326" s="38"/>
-      <c r="AC326" s="38"/>
-      <c r="AD326" s="38"/>
-      <c r="AE326" s="38"/>
-      <c r="AF326" s="38"/>
-      <c r="AG326" s="38"/>
-      <c r="AH326" s="38"/>
-      <c r="AI326" s="38"/>
-      <c r="AJ326" s="38"/>
-      <c r="AK326" s="38"/>
-      <c r="AL326" s="38"/>
-      <c r="AM326" s="38"/>
-      <c r="AN326" s="38"/>
-      <c r="AO326" s="38"/>
-      <c r="AP326" s="38"/>
-      <c r="AQ326" s="37" t="s">
+      <c r="T326" s="36"/>
+      <c r="U326" s="35"/>
+      <c r="V326" s="35"/>
+      <c r="W326" s="36"/>
+      <c r="X326" s="37"/>
+      <c r="Y326" s="37"/>
+      <c r="Z326" s="37"/>
+      <c r="AA326" s="37"/>
+      <c r="AB326" s="37"/>
+      <c r="AC326" s="37"/>
+      <c r="AD326" s="37"/>
+      <c r="AE326" s="37"/>
+      <c r="AF326" s="37"/>
+      <c r="AG326" s="37"/>
+      <c r="AH326" s="37"/>
+      <c r="AI326" s="37"/>
+      <c r="AJ326" s="37"/>
+      <c r="AK326" s="37"/>
+      <c r="AL326" s="37"/>
+      <c r="AM326" s="37"/>
+      <c r="AN326" s="37"/>
+      <c r="AO326" s="37"/>
+      <c r="AP326" s="37"/>
+      <c r="AQ326" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="AR326" s="37" t="s">
+      <c r="AR326" s="36" t="s">
         <v>50</v>
       </c>
       <c r="AS326" s="25" t="s">
@@ -30746,74 +30744,74 @@
       <c r="A327" s="9">
         <v>9595</v>
       </c>
-      <c r="B327" s="33" t="s">
+      <c r="B327" s="32" t="s">
         <v>703</v>
       </c>
       <c r="C327" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D327" s="20"/>
-      <c r="E327" s="34">
+      <c r="E327" s="33">
         <v>45378</v>
       </c>
-      <c r="F327" s="35" t="s">
+      <c r="F327" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="G327" s="37" t="s">
+      <c r="G327" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="H327" s="37"/>
-      <c r="I327" s="37" t="s">
+      <c r="H327" s="36"/>
+      <c r="I327" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="J327" s="62">
+      <c r="J327" s="61">
         <v>45008</v>
       </c>
-      <c r="K327" s="62">
+      <c r="K327" s="61">
         <v>45008</v>
       </c>
       <c r="L327" s="10">
         <v>15004</v>
       </c>
-      <c r="M327" s="36" t="s">
+      <c r="M327" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="N327" s="36"/>
-      <c r="O327" s="36"/>
+      <c r="N327" s="35"/>
+      <c r="O327" s="35"/>
       <c r="P327" s="22"/>
-      <c r="Q327" s="36" t="s">
+      <c r="Q327" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="R327" s="36"/>
+      <c r="R327" s="35"/>
       <c r="S327" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="T327" s="37"/>
-      <c r="U327" s="36"/>
-      <c r="V327" s="36"/>
-      <c r="W327" s="37"/>
-      <c r="X327" s="38"/>
-      <c r="Y327" s="38"/>
-      <c r="Z327" s="38"/>
-      <c r="AA327" s="38"/>
-      <c r="AB327" s="38"/>
-      <c r="AC327" s="38"/>
-      <c r="AD327" s="38"/>
-      <c r="AE327" s="38"/>
-      <c r="AF327" s="38"/>
-      <c r="AG327" s="38"/>
-      <c r="AH327" s="38"/>
-      <c r="AI327" s="38"/>
-      <c r="AJ327" s="38"/>
-      <c r="AK327" s="38"/>
-      <c r="AL327" s="38"/>
-      <c r="AM327" s="38"/>
-      <c r="AN327" s="38"/>
-      <c r="AO327" s="38"/>
-      <c r="AP327" s="38"/>
-      <c r="AQ327" s="37"/>
-      <c r="AR327" s="37"/>
-      <c r="AS327" s="39" t="s">
+      <c r="T327" s="36"/>
+      <c r="U327" s="35"/>
+      <c r="V327" s="35"/>
+      <c r="W327" s="36"/>
+      <c r="X327" s="37"/>
+      <c r="Y327" s="37"/>
+      <c r="Z327" s="37"/>
+      <c r="AA327" s="37"/>
+      <c r="AB327" s="37"/>
+      <c r="AC327" s="37"/>
+      <c r="AD327" s="37"/>
+      <c r="AE327" s="37"/>
+      <c r="AF327" s="37"/>
+      <c r="AG327" s="37"/>
+      <c r="AH327" s="37"/>
+      <c r="AI327" s="37"/>
+      <c r="AJ327" s="37"/>
+      <c r="AK327" s="37"/>
+      <c r="AL327" s="37"/>
+      <c r="AM327" s="37"/>
+      <c r="AN327" s="37"/>
+      <c r="AO327" s="37"/>
+      <c r="AP327" s="37"/>
+      <c r="AQ327" s="36"/>
+      <c r="AR327" s="36"/>
+      <c r="AS327" s="38" t="s">
         <v>200</v>
       </c>
     </row>
@@ -30906,10 +30904,10 @@
       <c r="G329" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="H329" s="50"/>
-      <c r="I329" s="50"/>
-      <c r="J329" s="50"/>
-      <c r="K329" s="50"/>
+      <c r="H329" s="49"/>
+      <c r="I329" s="49"/>
+      <c r="J329" s="49"/>
+      <c r="K329" s="49"/>
       <c r="L329" s="10">
         <v>16002</v>
       </c>
@@ -30991,10 +30989,10 @@
       <c r="G330" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="H330" s="50"/>
-      <c r="I330" s="50"/>
-      <c r="J330" s="50"/>
-      <c r="K330" s="50"/>
+      <c r="H330" s="49"/>
+      <c r="I330" s="49"/>
+      <c r="J330" s="49"/>
+      <c r="K330" s="49"/>
       <c r="L330" s="10">
         <v>16002</v>
       </c>
@@ -31074,10 +31072,10 @@
       <c r="G331" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="H331" s="50"/>
-      <c r="I331" s="50"/>
-      <c r="J331" s="50"/>
-      <c r="K331" s="50"/>
+      <c r="H331" s="49"/>
+      <c r="I331" s="49"/>
+      <c r="J331" s="49"/>
+      <c r="K331" s="49"/>
       <c r="L331" s="10">
         <v>16002</v>
       </c>
@@ -31374,10 +31372,10 @@
       <c r="G335" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="H335" s="50"/>
-      <c r="I335" s="50"/>
-      <c r="J335" s="50"/>
-      <c r="K335" s="50"/>
+      <c r="H335" s="49"/>
+      <c r="I335" s="49"/>
+      <c r="J335" s="49"/>
+      <c r="K335" s="49"/>
       <c r="L335" s="10">
         <v>16002</v>
       </c>
@@ -31451,10 +31449,10 @@
       <c r="G336" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="H336" s="50"/>
-      <c r="I336" s="50"/>
-      <c r="J336" s="50"/>
-      <c r="K336" s="50"/>
+      <c r="H336" s="49"/>
+      <c r="I336" s="49"/>
+      <c r="J336" s="49"/>
+      <c r="K336" s="49"/>
       <c r="L336" s="10">
         <v>16002</v>
       </c>
@@ -31534,10 +31532,10 @@
       <c r="G337" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="H337" s="50"/>
-      <c r="I337" s="50"/>
-      <c r="J337" s="50"/>
-      <c r="K337" s="50"/>
+      <c r="H337" s="49"/>
+      <c r="I337" s="49"/>
+      <c r="J337" s="49"/>
+      <c r="K337" s="49"/>
       <c r="L337" s="10">
         <v>16002</v>
       </c>
@@ -31611,10 +31609,10 @@
       <c r="G338" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="H338" s="50"/>
-      <c r="I338" s="50"/>
-      <c r="J338" s="50"/>
-      <c r="K338" s="50"/>
+      <c r="H338" s="49"/>
+      <c r="I338" s="49"/>
+      <c r="J338" s="49"/>
+      <c r="K338" s="49"/>
       <c r="L338" s="10">
         <v>16002</v>
       </c>
@@ -31696,13 +31694,13 @@
       <c r="C339" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D339" s="105" t="s">
+      <c r="D339" s="104" t="s">
         <v>723</v>
       </c>
-      <c r="E339" s="28">
+      <c r="E339" s="27">
         <v>45364</v>
       </c>
-      <c r="F339" s="29" t="s">
+      <c r="F339" s="28" t="s">
         <v>187</v>
       </c>
       <c r="G339" s="23" t="s">
@@ -31803,8 +31801,8 @@
       <c r="C340" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D340" s="113"/>
-      <c r="E340" s="100">
+      <c r="D340" s="112"/>
+      <c r="E340" s="99">
         <v>45364</v>
       </c>
       <c r="F340" s="14" t="s">
@@ -32079,10 +32077,10 @@
       <c r="D343" s="18" t="s">
         <v>740</v>
       </c>
-      <c r="E343" s="28">
+      <c r="E343" s="27">
         <v>45364</v>
       </c>
-      <c r="F343" s="29" t="s">
+      <c r="F343" s="28" t="s">
         <v>187</v>
       </c>
       <c r="G343" s="23" t="s">
@@ -32220,7 +32218,7 @@
       <c r="U344" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="V344" s="114" t="s">
+      <c r="V344" s="113" t="s">
         <v>745</v>
       </c>
       <c r="W344" s="23"/>
@@ -32244,7 +32242,7 @@
       <c r="AI344" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="AJ344" s="115" t="s">
+      <c r="AJ344" s="114" t="s">
         <v>746</v>
       </c>
       <c r="AK344" s="24"/>
@@ -32255,7 +32253,7 @@
       <c r="AN344" s="24"/>
       <c r="AO344" s="24"/>
       <c r="AP344" s="24"/>
-      <c r="AQ344" s="116" t="s">
+      <c r="AQ344" s="115" t="s">
         <v>367</v>
       </c>
       <c r="AR344" s="23" t="s">
@@ -32371,7 +32369,7 @@
       <c r="C346" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="D346" s="57" t="s">
+      <c r="D346" s="56" t="s">
         <v>751</v>
       </c>
       <c r="E346" s="19">
@@ -32415,7 +32413,7 @@
       <c r="U346" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="V346" s="114" t="s">
+      <c r="V346" s="113" t="s">
         <v>752</v>
       </c>
       <c r="W346" s="23"/>
@@ -32437,7 +32435,7 @@
       <c r="AI346" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="AJ346" s="117" t="s">
+      <c r="AJ346" s="116" t="s">
         <v>753</v>
       </c>
       <c r="AK346" s="24"/>
@@ -32464,7 +32462,7 @@
       <c r="C347" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="D347" s="57" t="s">
+      <c r="D347" s="56" t="s">
         <v>744</v>
       </c>
       <c r="E347" s="19">
@@ -32534,7 +32532,7 @@
       <c r="AI347" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="AJ347" s="117" t="s">
+      <c r="AJ347" s="116" t="s">
         <v>758</v>
       </c>
       <c r="AK347" s="24"/>
@@ -32625,7 +32623,7 @@
       <c r="AI348" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="AJ348" s="118" t="s">
+      <c r="AJ348" s="117" t="s">
         <v>761</v>
       </c>
       <c r="AK348" s="24"/>
@@ -32720,7 +32718,7 @@
       <c r="AI349" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="AJ349" s="118" t="s">
+      <c r="AJ349" s="117" t="s">
         <v>763</v>
       </c>
       <c r="AK349" s="24"/>
@@ -32731,7 +32729,7 @@
       <c r="AN349" s="24"/>
       <c r="AO349" s="24"/>
       <c r="AP349" s="24"/>
-      <c r="AQ349" s="116" t="s">
+      <c r="AQ349" s="115" t="s">
         <v>367</v>
       </c>
       <c r="AR349" s="23" t="s">
@@ -32819,7 +32817,7 @@
       <c r="AI350" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="AJ350" s="118" t="s">
+      <c r="AJ350" s="117" t="s">
         <v>766</v>
       </c>
       <c r="AK350" s="24"/>
@@ -32830,7 +32828,7 @@
       <c r="AN350" s="24"/>
       <c r="AO350" s="24"/>
       <c r="AP350" s="24"/>
-      <c r="AQ350" s="116" t="s">
+      <c r="AQ350" s="115" t="s">
         <v>367</v>
       </c>
       <c r="AR350" s="23" t="s">
@@ -33131,7 +33129,7 @@
       <c r="E354" s="19">
         <v>45370</v>
       </c>
-      <c r="F354" s="78" t="s">
+      <c r="F354" s="77" t="s">
         <v>224</v>
       </c>
       <c r="G354" s="23" t="s">
@@ -33224,7 +33222,7 @@
       <c r="E355" s="19">
         <v>45376</v>
       </c>
-      <c r="F355" s="78" t="s">
+      <c r="F355" s="77" t="s">
         <v>48</v>
       </c>
       <c r="G355" s="23" t="s">
@@ -33316,10 +33314,10 @@
         <v>71</v>
       </c>
       <c r="D356" s="18"/>
-      <c r="E356" s="119">
+      <c r="E356" s="118">
         <v>45365</v>
       </c>
-      <c r="F356" s="78" t="s">
+      <c r="F356" s="77" t="s">
         <v>187</v>
       </c>
       <c r="G356" s="23" t="s">
@@ -33503,7 +33501,7 @@
       <c r="E358" s="13">
         <v>45363</v>
       </c>
-      <c r="F358" s="110" t="s">
+      <c r="F358" s="109" t="s">
         <v>48</v>
       </c>
       <c r="G358" s="23" t="s">
@@ -33589,10 +33587,10 @@
         <v>152</v>
       </c>
       <c r="D359" s="18"/>
-      <c r="E359" s="120">
+      <c r="E359" s="119">
         <v>45328</v>
       </c>
-      <c r="F359" s="110" t="s">
+      <c r="F359" s="109" t="s">
         <v>131</v>
       </c>
       <c r="G359" s="23" t="s">
@@ -33850,7 +33848,7 @@
       <c r="AI361" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="AJ361" s="98" t="s">
+      <c r="AJ361" s="97" t="s">
         <v>753</v>
       </c>
       <c r="AK361" s="24"/>
@@ -34220,7 +34218,7 @@
       <c r="AI365" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="AJ365" s="98" t="s">
+      <c r="AJ365" s="97" t="s">
         <v>812</v>
       </c>
       <c r="AK365" s="24"/>
@@ -34322,7 +34320,7 @@
       <c r="AN366" s="24"/>
       <c r="AO366" s="24"/>
       <c r="AP366" s="24"/>
-      <c r="AQ366" s="116" t="s">
+      <c r="AQ366" s="115" t="s">
         <v>367</v>
       </c>
       <c r="AR366" s="23" t="s">
@@ -34512,7 +34510,7 @@
       <c r="AN368" s="24"/>
       <c r="AO368" s="24"/>
       <c r="AP368" s="24"/>
-      <c r="AQ368" s="116" t="s">
+      <c r="AQ368" s="115" t="s">
         <v>367</v>
       </c>
       <c r="AR368" s="23" t="s">
@@ -34836,7 +34834,7 @@
         <v>603</v>
       </c>
       <c r="N372" s="21"/>
-      <c r="O372" s="53"/>
+      <c r="O372" s="52"/>
       <c r="P372" s="22">
         <v>689</v>
       </c>
@@ -35085,10 +35083,10 @@
       <c r="D375" s="18" t="s">
         <v>837</v>
       </c>
-      <c r="E375" s="28">
+      <c r="E375" s="27">
         <v>45364</v>
       </c>
-      <c r="F375" s="29" t="s">
+      <c r="F375" s="28" t="s">
         <v>187</v>
       </c>
       <c r="G375" s="23" t="s">
@@ -35179,7 +35177,7 @@
       <c r="C376" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="D376" s="121" t="s">
+      <c r="D376" s="120" t="s">
         <v>841</v>
       </c>
       <c r="E376" s="19">
@@ -35263,7 +35261,7 @@
       </c>
     </row>
     <row r="377" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="84">
+      <c r="A377" s="83">
         <v>11354</v>
       </c>
       <c r="B377" s="10" t="s">
@@ -35271,56 +35269,56 @@
       </c>
       <c r="C377" s="11"/>
       <c r="D377" s="20"/>
-      <c r="E377" s="112">
+      <c r="E377" s="111">
         <v>45328</v>
       </c>
       <c r="F377" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="G377" s="87" t="s">
+      <c r="G377" s="86" t="s">
         <v>738</v>
       </c>
       <c r="H377" s="23"/>
       <c r="I377" s="23"/>
       <c r="J377" s="23"/>
       <c r="K377" s="23"/>
-      <c r="L377" s="88">
+      <c r="L377" s="87">
         <v>15004</v>
       </c>
       <c r="M377" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="N377" s="88"/>
-      <c r="O377" s="88"/>
-      <c r="P377" s="68"/>
-      <c r="Q377" s="88"/>
-      <c r="R377" s="88"/>
-      <c r="S377" s="88"/>
-      <c r="T377" s="89"/>
-      <c r="U377" s="88"/>
-      <c r="V377" s="88"/>
-      <c r="W377" s="89"/>
-      <c r="X377" s="90"/>
-      <c r="Y377" s="90"/>
-      <c r="Z377" s="90"/>
-      <c r="AA377" s="90"/>
-      <c r="AB377" s="90"/>
-      <c r="AC377" s="90"/>
-      <c r="AD377" s="90"/>
-      <c r="AE377" s="90"/>
-      <c r="AF377" s="90"/>
-      <c r="AG377" s="90"/>
-      <c r="AH377" s="90"/>
-      <c r="AI377" s="90"/>
-      <c r="AJ377" s="90"/>
-      <c r="AK377" s="90"/>
-      <c r="AL377" s="90"/>
-      <c r="AM377" s="90"/>
-      <c r="AN377" s="90"/>
-      <c r="AO377" s="90"/>
-      <c r="AP377" s="90"/>
-      <c r="AQ377" s="89"/>
-      <c r="AR377" s="89"/>
+      <c r="N377" s="87"/>
+      <c r="O377" s="87"/>
+      <c r="P377" s="67"/>
+      <c r="Q377" s="87"/>
+      <c r="R377" s="87"/>
+      <c r="S377" s="87"/>
+      <c r="T377" s="88"/>
+      <c r="U377" s="87"/>
+      <c r="V377" s="87"/>
+      <c r="W377" s="88"/>
+      <c r="X377" s="89"/>
+      <c r="Y377" s="89"/>
+      <c r="Z377" s="89"/>
+      <c r="AA377" s="89"/>
+      <c r="AB377" s="89"/>
+      <c r="AC377" s="89"/>
+      <c r="AD377" s="89"/>
+      <c r="AE377" s="89"/>
+      <c r="AF377" s="89"/>
+      <c r="AG377" s="89"/>
+      <c r="AH377" s="89"/>
+      <c r="AI377" s="89"/>
+      <c r="AJ377" s="89"/>
+      <c r="AK377" s="89"/>
+      <c r="AL377" s="89"/>
+      <c r="AM377" s="89"/>
+      <c r="AN377" s="89"/>
+      <c r="AO377" s="89"/>
+      <c r="AP377" s="89"/>
+      <c r="AQ377" s="88"/>
+      <c r="AR377" s="88"/>
       <c r="AS377" s="25" t="s">
         <v>415</v>
       </c>
@@ -35613,7 +35611,7 @@
       <c r="AI380" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="AJ380" s="115" t="s">
+      <c r="AJ380" s="114" t="s">
         <v>857</v>
       </c>
       <c r="AK380" s="24"/>
@@ -35733,7 +35731,7 @@
       <c r="C382" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="D382" s="105"/>
+      <c r="D382" s="104"/>
       <c r="E382" s="19">
         <v>45370</v>
       </c>
@@ -35832,7 +35830,7 @@
       <c r="C383" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D383" s="107"/>
+      <c r="D383" s="106"/>
       <c r="E383" s="19">
         <v>45369</v>
       </c>
@@ -36023,7 +36021,7 @@
         <v>71</v>
       </c>
       <c r="D385" s="18"/>
-      <c r="E385" s="28">
+      <c r="E385" s="27">
         <v>45357</v>
       </c>
       <c r="F385" s="14" t="s">
@@ -36099,8 +36097,8 @@
       <c r="C386" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D386" s="70"/>
-      <c r="E386" s="122">
+      <c r="D386" s="69"/>
+      <c r="E386" s="121">
         <v>45357</v>
       </c>
       <c r="F386" s="14" t="s">
@@ -36176,13 +36174,13 @@
       <c r="C387" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="D387" s="93" t="s">
+      <c r="D387" s="92" t="s">
         <v>875</v>
       </c>
-      <c r="E387" s="122">
+      <c r="E387" s="121">
         <v>45349</v>
       </c>
-      <c r="F387" s="109" t="s">
+      <c r="F387" s="108" t="s">
         <v>876</v>
       </c>
       <c r="G387" s="23" t="s">
@@ -36280,10 +36278,10 @@
       <c r="D388" s="18" t="s">
         <v>878</v>
       </c>
-      <c r="E388" s="28">
+      <c r="E388" s="27">
         <v>44840</v>
       </c>
-      <c r="F388" s="29" t="s">
+      <c r="F388" s="28" t="s">
         <v>879</v>
       </c>
       <c r="G388" s="23" t="s">
@@ -36301,7 +36299,7 @@
       <c r="M388" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="N388" s="53"/>
+      <c r="N388" s="52"/>
       <c r="O388" s="21"/>
       <c r="P388" s="22"/>
       <c r="Q388" s="21" t="s">
@@ -36444,10 +36442,10 @@
         <v>152</v>
       </c>
       <c r="D390" s="18"/>
-      <c r="E390" s="120">
+      <c r="E390" s="119">
         <v>45328</v>
       </c>
-      <c r="F390" s="110" t="s">
+      <c r="F390" s="109" t="s">
         <v>131</v>
       </c>
       <c r="G390" s="23" t="s">
@@ -36532,7 +36530,7 @@
       <c r="C391" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D391" s="54"/>
+      <c r="D391" s="53"/>
       <c r="E391" s="19">
         <v>45358</v>
       </c>
@@ -36628,7 +36626,7 @@
       </c>
       <c r="C392" s="11"/>
       <c r="D392" s="20"/>
-      <c r="E392" s="100">
+      <c r="E392" s="99">
         <v>44698</v>
       </c>
       <c r="F392" s="14" t="s">
@@ -37070,7 +37068,7 @@
       <c r="C397" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="D397" s="105"/>
+      <c r="D397" s="104"/>
       <c r="E397" s="19">
         <v>45370</v>
       </c>
@@ -37163,7 +37161,7 @@
       <c r="C398" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="D398" s="107" t="s">
+      <c r="D398" s="106" t="s">
         <v>905</v>
       </c>
       <c r="E398" s="19">
@@ -37515,17 +37513,17 @@
       <c r="A402" s="9">
         <v>12684</v>
       </c>
-      <c r="B402" s="123" t="s">
+      <c r="B402" s="122" t="s">
         <v>912</v>
       </c>
       <c r="C402" s="11" t="s">
         <v>71</v>
       </c>
       <c r="D402" s="18"/>
-      <c r="E402" s="28">
+      <c r="E402" s="27">
         <v>45328</v>
       </c>
-      <c r="F402" s="29" t="s">
+      <c r="F402" s="28" t="s">
         <v>111</v>
       </c>
       <c r="G402" s="23" t="s">
@@ -37704,10 +37702,10 @@
       <c r="D404" s="18" t="s">
         <v>919</v>
       </c>
-      <c r="E404" s="28">
+      <c r="E404" s="27">
         <v>45336</v>
       </c>
-      <c r="F404" s="29" t="s">
+      <c r="F404" s="28" t="s">
         <v>920</v>
       </c>
       <c r="G404" s="23" t="s">
@@ -38034,10 +38032,10 @@
         <v>71</v>
       </c>
       <c r="D408" s="18"/>
-      <c r="E408" s="28">
+      <c r="E408" s="27">
         <v>45328</v>
       </c>
-      <c r="F408" s="29" t="s">
+      <c r="F408" s="28" t="s">
         <v>111</v>
       </c>
       <c r="G408" s="23" t="s">
@@ -38123,10 +38121,10 @@
         <v>71</v>
       </c>
       <c r="D409" s="18"/>
-      <c r="E409" s="28">
+      <c r="E409" s="27">
         <v>45365</v>
       </c>
-      <c r="F409" s="29" t="s">
+      <c r="F409" s="28" t="s">
         <v>187</v>
       </c>
       <c r="G409" s="23" t="s">
@@ -38539,7 +38537,7 @@
       <c r="C414" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D414" s="124" t="s">
+      <c r="D414" s="123" t="s">
         <v>939</v>
       </c>
       <c r="E414" s="19">
@@ -38626,7 +38624,7 @@
       <c r="C415" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D415" s="49"/>
+      <c r="D415" s="48"/>
       <c r="E415" s="19">
         <v>45363</v>
       </c>
@@ -38712,10 +38710,10 @@
         <v>71</v>
       </c>
       <c r="D416" s="18"/>
-      <c r="E416" s="28">
+      <c r="E416" s="27">
         <v>45328</v>
       </c>
-      <c r="F416" s="29" t="s">
+      <c r="F416" s="28" t="s">
         <v>111</v>
       </c>
       <c r="G416" s="23" t="s">
@@ -38796,11 +38794,11 @@
       <c r="C417" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D417" s="49"/>
-      <c r="E417" s="28">
+      <c r="D417" s="48"/>
+      <c r="E417" s="27">
         <v>45359</v>
       </c>
-      <c r="F417" s="29" t="s">
+      <c r="F417" s="28" t="s">
         <v>187</v>
       </c>
       <c r="G417" s="23" t="s">
@@ -38875,11 +38873,11 @@
       <c r="C418" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D418" s="125"/>
-      <c r="E418" s="28">
+      <c r="D418" s="124"/>
+      <c r="E418" s="27">
         <v>45363</v>
       </c>
-      <c r="F418" s="29" t="s">
+      <c r="F418" s="28" t="s">
         <v>187</v>
       </c>
       <c r="G418" s="23" t="s">
@@ -38959,10 +38957,10 @@
         <v>71</v>
       </c>
       <c r="D419" s="18"/>
-      <c r="E419" s="28">
+      <c r="E419" s="27">
         <v>45323</v>
       </c>
-      <c r="F419" s="29" t="s">
+      <c r="F419" s="28" t="s">
         <v>111</v>
       </c>
       <c r="G419" s="23" t="s">
@@ -39044,10 +39042,10 @@
         <v>71</v>
       </c>
       <c r="D420" s="18"/>
-      <c r="E420" s="28">
+      <c r="E420" s="27">
         <v>45336</v>
       </c>
-      <c r="F420" s="29" t="s">
+      <c r="F420" s="28" t="s">
         <v>920</v>
       </c>
       <c r="G420" s="23" t="s">
@@ -39648,7 +39646,7 @@
       <c r="C427" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="D427" s="54"/>
+      <c r="D427" s="53"/>
       <c r="E427" s="19">
         <v>45371</v>
       </c>
@@ -39731,7 +39729,7 @@
       <c r="C428" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="D428" s="49"/>
+      <c r="D428" s="48"/>
       <c r="E428" s="19">
         <v>45355</v>
       </c>
@@ -39891,7 +39889,7 @@
       <c r="C430" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D430" s="57"/>
+      <c r="D430" s="56"/>
       <c r="E430" s="19">
         <v>45362</v>
       </c>
@@ -39972,7 +39970,7 @@
       <c r="C431" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D431" s="57"/>
+      <c r="D431" s="56"/>
       <c r="E431" s="19">
         <v>45362</v>
       </c>
@@ -40051,7 +40049,7 @@
       <c r="C432" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D432" s="57"/>
+      <c r="D432" s="56"/>
       <c r="E432" s="19">
         <v>45362</v>
       </c>
@@ -40118,7 +40116,7 @@
       <c r="AP432" s="24"/>
       <c r="AQ432" s="23"/>
       <c r="AR432" s="23"/>
-      <c r="AS432" s="81" t="s">
+      <c r="AS432" s="80" t="s">
         <v>200</v>
       </c>
     </row>
@@ -40132,7 +40130,7 @@
       <c r="C433" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="D433" s="49"/>
+      <c r="D433" s="48"/>
       <c r="E433" s="19">
         <v>45356</v>
       </c>
@@ -40229,7 +40227,7 @@
       <c r="C434" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="D434" s="49"/>
+      <c r="D434" s="48"/>
       <c r="E434" s="19">
         <v>45355</v>
       </c>
@@ -40318,7 +40316,7 @@
       <c r="C435" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="D435" s="126" t="s">
+      <c r="D435" s="125" t="s">
         <v>975</v>
       </c>
       <c r="E435" s="19">
@@ -40740,23 +40738,23 @@
       <c r="B440" s="9" t="s">
         <v>983</v>
       </c>
-      <c r="C440" s="54" t="s">
+      <c r="C440" s="53" t="s">
         <v>152</v>
       </c>
       <c r="D440" s="18"/>
-      <c r="E440" s="120">
+      <c r="E440" s="119">
         <v>45328</v>
       </c>
-      <c r="F440" s="110" t="s">
+      <c r="F440" s="109" t="s">
         <v>131</v>
       </c>
-      <c r="G440" s="63" t="s">
+      <c r="G440" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="H440" s="63"/>
-      <c r="I440" s="63"/>
-      <c r="J440" s="63"/>
-      <c r="K440" s="63"/>
+      <c r="H440" s="62"/>
+      <c r="I440" s="62"/>
+      <c r="J440" s="62"/>
+      <c r="K440" s="62"/>
       <c r="L440" s="22">
         <v>30002</v>
       </c>
@@ -40777,54 +40775,54 @@
       <c r="S440" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="T440" s="63">
+      <c r="T440" s="62">
         <v>11107</v>
       </c>
       <c r="U440" s="22" t="s">
         <v>984</v>
       </c>
       <c r="V440" s="22"/>
-      <c r="W440" s="63"/>
+      <c r="W440" s="62"/>
       <c r="X440" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="Y440" s="65" t="s">
+      <c r="Y440" s="64" t="s">
         <v>985</v>
       </c>
-      <c r="Z440" s="65"/>
-      <c r="AA440" s="65"/>
-      <c r="AB440" s="65"/>
-      <c r="AC440" s="65" t="s">
+      <c r="Z440" s="64"/>
+      <c r="AA440" s="64"/>
+      <c r="AB440" s="64"/>
+      <c r="AC440" s="64" t="s">
         <v>986</v>
       </c>
-      <c r="AD440" s="65" t="s">
+      <c r="AD440" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="AE440" s="65">
+      <c r="AE440" s="64">
         <v>438407</v>
       </c>
-      <c r="AF440" s="65"/>
-      <c r="AG440" s="65">
+      <c r="AF440" s="64"/>
+      <c r="AG440" s="64">
         <v>3408</v>
       </c>
-      <c r="AH440" s="65">
+      <c r="AH440" s="64">
         <v>3408</v>
       </c>
-      <c r="AI440" s="65" t="s">
+      <c r="AI440" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="AJ440" s="65" t="s">
+      <c r="AJ440" s="64" t="s">
         <v>987</v>
       </c>
-      <c r="AK440" s="65"/>
-      <c r="AL440" s="65"/>
-      <c r="AM440" s="65"/>
-      <c r="AN440" s="65"/>
-      <c r="AO440" s="65"/>
-      <c r="AP440" s="65"/>
-      <c r="AQ440" s="63"/>
-      <c r="AR440" s="63"/>
-      <c r="AS440" s="66" t="s">
+      <c r="AK440" s="64"/>
+      <c r="AL440" s="64"/>
+      <c r="AM440" s="64"/>
+      <c r="AN440" s="64"/>
+      <c r="AO440" s="64"/>
+      <c r="AP440" s="64"/>
+      <c r="AQ440" s="62"/>
+      <c r="AR440" s="62"/>
+      <c r="AS440" s="65" t="s">
         <v>138</v>
       </c>
     </row>
@@ -40844,16 +40842,16 @@
       <c r="E441" s="19">
         <v>45355</v>
       </c>
-      <c r="F441" s="110" t="s">
+      <c r="F441" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="G441" s="63" t="s">
+      <c r="G441" s="62" t="s">
         <v>926</v>
       </c>
-      <c r="H441" s="63"/>
-      <c r="I441" s="63"/>
-      <c r="J441" s="63"/>
-      <c r="K441" s="63"/>
+      <c r="H441" s="62"/>
+      <c r="I441" s="62"/>
+      <c r="J441" s="62"/>
+      <c r="K441" s="62"/>
       <c r="L441" s="22">
         <v>16002</v>
       </c>
@@ -40874,38 +40872,38 @@
       <c r="S441" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="T441" s="63"/>
+      <c r="T441" s="62"/>
       <c r="U441" s="22"/>
       <c r="V441" s="22"/>
-      <c r="W441" s="63"/>
+      <c r="W441" s="62"/>
       <c r="X441" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="Y441" s="65">
+      <c r="Y441" s="64">
         <v>407600</v>
       </c>
-      <c r="Z441" s="65"/>
-      <c r="AA441" s="65"/>
-      <c r="AB441" s="65"/>
-      <c r="AC441" s="65">
+      <c r="Z441" s="64"/>
+      <c r="AA441" s="64"/>
+      <c r="AB441" s="64"/>
+      <c r="AC441" s="64">
         <v>3576</v>
       </c>
-      <c r="AD441" s="65"/>
-      <c r="AE441" s="65"/>
-      <c r="AF441" s="65"/>
-      <c r="AG441" s="65"/>
-      <c r="AH441" s="65"/>
-      <c r="AI441" s="65"/>
-      <c r="AJ441" s="65"/>
-      <c r="AK441" s="65"/>
-      <c r="AL441" s="65"/>
-      <c r="AM441" s="65"/>
-      <c r="AN441" s="65"/>
-      <c r="AO441" s="65"/>
-      <c r="AP441" s="65"/>
-      <c r="AQ441" s="63"/>
-      <c r="AR441" s="63"/>
-      <c r="AS441" s="66" t="s">
+      <c r="AD441" s="64"/>
+      <c r="AE441" s="64"/>
+      <c r="AF441" s="64"/>
+      <c r="AG441" s="64"/>
+      <c r="AH441" s="64"/>
+      <c r="AI441" s="64"/>
+      <c r="AJ441" s="64"/>
+      <c r="AK441" s="64"/>
+      <c r="AL441" s="64"/>
+      <c r="AM441" s="64"/>
+      <c r="AN441" s="64"/>
+      <c r="AO441" s="64"/>
+      <c r="AP441" s="64"/>
+      <c r="AQ441" s="62"/>
+      <c r="AR441" s="62"/>
+      <c r="AS441" s="65" t="s">
         <v>415</v>
       </c>
     </row>
@@ -41047,8 +41045,8 @@
       <c r="AJ443" s="24"/>
       <c r="AK443" s="24"/>
       <c r="AP443" s="24"/>
-      <c r="AR443" s="79"/>
-      <c r="AS443" s="81" t="s">
+      <c r="AR443" s="78"/>
+      <c r="AS443" s="80" t="s">
         <v>190</v>
       </c>
     </row>
@@ -41127,30 +41125,30 @@
       <c r="A445" s="9">
         <v>12896</v>
       </c>
-      <c r="B445" s="33" t="s">
+      <c r="B445" s="32" t="s">
         <v>994</v>
       </c>
       <c r="C445" s="11" t="s">
         <v>568</v>
       </c>
       <c r="D445" s="20"/>
-      <c r="E445" s="34">
+      <c r="E445" s="33">
         <v>45377</v>
       </c>
-      <c r="F445" s="35" t="s">
+      <c r="F445" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="G445" s="37" t="s">
+      <c r="G445" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="H445" s="37"/>
-      <c r="I445" s="37" t="s">
+      <c r="H445" s="36"/>
+      <c r="I445" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="J445" s="62">
+      <c r="J445" s="61">
         <v>45008</v>
       </c>
-      <c r="K445" s="62">
+      <c r="K445" s="61">
         <v>45008</v>
       </c>
       <c r="L445" s="10">
@@ -41159,41 +41157,41 @@
       <c r="M445" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="N445" s="36"/>
-      <c r="O445" s="36"/>
+      <c r="N445" s="35"/>
+      <c r="O445" s="35"/>
       <c r="P445" s="22"/>
-      <c r="Q445" s="36" t="s">
+      <c r="Q445" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="R445" s="36"/>
-      <c r="S445" s="36" t="s">
+      <c r="R445" s="35"/>
+      <c r="S445" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="T445" s="37"/>
-      <c r="U445" s="36"/>
-      <c r="V445" s="36"/>
-      <c r="W445" s="37"/>
-      <c r="X445" s="38"/>
-      <c r="Y445" s="38"/>
-      <c r="Z445" s="38"/>
-      <c r="AA445" s="38"/>
-      <c r="AB445" s="38"/>
-      <c r="AC445" s="38"/>
-      <c r="AD445" s="38"/>
-      <c r="AE445" s="38"/>
-      <c r="AF445" s="38"/>
-      <c r="AG445" s="38"/>
-      <c r="AH445" s="38"/>
-      <c r="AI445" s="38"/>
-      <c r="AJ445" s="38"/>
-      <c r="AK445" s="38"/>
-      <c r="AL445" s="38"/>
-      <c r="AM445" s="38"/>
-      <c r="AN445" s="38"/>
-      <c r="AO445" s="38"/>
-      <c r="AP445" s="38"/>
-      <c r="AQ445" s="37"/>
-      <c r="AR445" s="37"/>
+      <c r="T445" s="36"/>
+      <c r="U445" s="35"/>
+      <c r="V445" s="35"/>
+      <c r="W445" s="36"/>
+      <c r="X445" s="37"/>
+      <c r="Y445" s="37"/>
+      <c r="Z445" s="37"/>
+      <c r="AA445" s="37"/>
+      <c r="AB445" s="37"/>
+      <c r="AC445" s="37"/>
+      <c r="AD445" s="37"/>
+      <c r="AE445" s="37"/>
+      <c r="AF445" s="37"/>
+      <c r="AG445" s="37"/>
+      <c r="AH445" s="37"/>
+      <c r="AI445" s="37"/>
+      <c r="AJ445" s="37"/>
+      <c r="AK445" s="37"/>
+      <c r="AL445" s="37"/>
+      <c r="AM445" s="37"/>
+      <c r="AN445" s="37"/>
+      <c r="AO445" s="37"/>
+      <c r="AP445" s="37"/>
+      <c r="AQ445" s="36"/>
+      <c r="AR445" s="36"/>
       <c r="AS445" s="25" t="s">
         <v>200</v>
       </c>
@@ -41233,7 +41231,7 @@
         <v>123</v>
       </c>
       <c r="N446" s="21"/>
-      <c r="O446" s="53"/>
+      <c r="O446" s="52"/>
       <c r="P446" s="22">
         <v>12899</v>
       </c>
@@ -41709,7 +41707,7 @@
       <c r="C453" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D453" s="32"/>
+      <c r="D453" s="31"/>
       <c r="E453" s="19">
         <v>45356</v>
       </c>
@@ -41774,7 +41772,7 @@
       <c r="B454" s="10" t="s">
         <v>1011</v>
       </c>
-      <c r="C454" s="111" t="s">
+      <c r="C454" s="110" t="s">
         <v>175</v>
       </c>
       <c r="D454" s="18" t="s">
@@ -41849,7 +41847,7 @@
       <c r="B455" s="10" t="s">
         <v>1012</v>
       </c>
-      <c r="C455" s="111" t="s">
+      <c r="C455" s="110" t="s">
         <v>175</v>
       </c>
       <c r="D455" s="18" t="s">
@@ -41921,62 +41919,62 @@
       <c r="A456" s="9">
         <v>12946</v>
       </c>
-      <c r="B456" s="114" t="s">
+      <c r="B456" s="113" t="s">
         <v>1013</v>
       </c>
       <c r="C456" s="11"/>
       <c r="D456" s="20"/>
-      <c r="E456" s="34"/>
+      <c r="E456" s="33"/>
       <c r="F456" s="14"/>
-      <c r="G456" s="62"/>
+      <c r="G456" s="61"/>
       <c r="H456" s="23"/>
       <c r="I456" s="23"/>
       <c r="J456" s="23"/>
       <c r="K456" s="23"/>
-      <c r="L456" s="36">
+      <c r="L456" s="35">
         <v>16002</v>
       </c>
-      <c r="M456" s="36" t="s">
+      <c r="M456" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="N456" s="36" t="s">
+      <c r="N456" s="35" t="s">
         <v>579</v>
       </c>
-      <c r="O456" s="36"/>
+      <c r="O456" s="35"/>
       <c r="P456" s="22"/>
-      <c r="Q456" s="36" t="s">
+      <c r="Q456" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="R456" s="36"/>
-      <c r="S456" s="36" t="s">
+      <c r="R456" s="35"/>
+      <c r="S456" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="T456" s="37"/>
-      <c r="U456" s="36"/>
-      <c r="V456" s="36"/>
-      <c r="W456" s="37"/>
-      <c r="X456" s="38"/>
-      <c r="Y456" s="38"/>
-      <c r="Z456" s="38"/>
-      <c r="AA456" s="38"/>
-      <c r="AB456" s="38"/>
-      <c r="AC456" s="38"/>
-      <c r="AD456" s="38"/>
-      <c r="AE456" s="38"/>
-      <c r="AF456" s="38"/>
-      <c r="AG456" s="38"/>
-      <c r="AH456" s="38"/>
-      <c r="AI456" s="38"/>
-      <c r="AJ456" s="38"/>
-      <c r="AK456" s="38"/>
-      <c r="AL456" s="38"/>
-      <c r="AM456" s="38"/>
-      <c r="AN456" s="38"/>
-      <c r="AO456" s="38"/>
-      <c r="AP456" s="38"/>
-      <c r="AQ456" s="37"/>
-      <c r="AR456" s="37"/>
-      <c r="AS456" s="39" t="s">
+      <c r="T456" s="36"/>
+      <c r="U456" s="35"/>
+      <c r="V456" s="35"/>
+      <c r="W456" s="36"/>
+      <c r="X456" s="37"/>
+      <c r="Y456" s="37"/>
+      <c r="Z456" s="37"/>
+      <c r="AA456" s="37"/>
+      <c r="AB456" s="37"/>
+      <c r="AC456" s="37"/>
+      <c r="AD456" s="37"/>
+      <c r="AE456" s="37"/>
+      <c r="AF456" s="37"/>
+      <c r="AG456" s="37"/>
+      <c r="AH456" s="37"/>
+      <c r="AI456" s="37"/>
+      <c r="AJ456" s="37"/>
+      <c r="AK456" s="37"/>
+      <c r="AL456" s="37"/>
+      <c r="AM456" s="37"/>
+      <c r="AN456" s="37"/>
+      <c r="AO456" s="37"/>
+      <c r="AP456" s="37"/>
+      <c r="AQ456" s="36"/>
+      <c r="AR456" s="36"/>
+      <c r="AS456" s="38" t="s">
         <v>231</v>
       </c>
     </row>
@@ -41990,7 +41988,7 @@
       <c r="C457" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="D457" s="54"/>
+      <c r="D457" s="53"/>
       <c r="E457" s="19">
         <v>45371</v>
       </c>
@@ -42071,7 +42069,7 @@
       <c r="C458" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="D458" s="126" t="s">
+      <c r="D458" s="125" t="s">
         <v>1016</v>
       </c>
       <c r="E458" s="19">
@@ -42156,7 +42154,7 @@
       <c r="C459" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="D459" s="127" t="s">
+      <c r="D459" s="126" t="s">
         <v>1018</v>
       </c>
       <c r="E459" s="19">
@@ -42238,16 +42236,16 @@
       </c>
     </row>
     <row r="460" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="84">
+      <c r="A460" s="83">
         <v>12959</v>
       </c>
-      <c r="B460" s="85" t="s">
+      <c r="B460" s="84" t="s">
         <v>1021</v>
       </c>
       <c r="C460" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="D460" s="32" t="s">
+      <c r="D460" s="31" t="s">
         <v>1022</v>
       </c>
       <c r="E460" s="19">
@@ -42256,7 +42254,7 @@
       <c r="F460" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G460" s="87" t="s">
+      <c r="G460" s="86" t="s">
         <v>112</v>
       </c>
       <c r="H460" s="23"/>
@@ -42269,65 +42267,65 @@
       <c r="M460" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="N460" s="88"/>
-      <c r="O460" s="88"/>
-      <c r="P460" s="68"/>
+      <c r="N460" s="87"/>
+      <c r="O460" s="87"/>
+      <c r="P460" s="67"/>
       <c r="Q460" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="R460" s="88" t="s">
+      <c r="R460" s="87" t="s">
         <v>82</v>
       </c>
       <c r="S460" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="T460" s="89"/>
-      <c r="U460" s="88"/>
-      <c r="V460" s="88"/>
-      <c r="W460" s="89"/>
-      <c r="X460" s="90"/>
-      <c r="Y460" s="90"/>
-      <c r="Z460" s="90"/>
-      <c r="AA460" s="90"/>
-      <c r="AB460" s="90"/>
-      <c r="AC460" s="90"/>
-      <c r="AD460" s="90"/>
-      <c r="AE460" s="90"/>
-      <c r="AF460" s="90"/>
-      <c r="AG460" s="90"/>
-      <c r="AH460" s="90"/>
-      <c r="AI460" s="90"/>
-      <c r="AJ460" s="90"/>
-      <c r="AK460" s="90"/>
-      <c r="AL460" s="90"/>
-      <c r="AM460" s="90"/>
-      <c r="AN460" s="90"/>
-      <c r="AO460" s="90"/>
-      <c r="AP460" s="90"/>
-      <c r="AQ460" s="89"/>
-      <c r="AR460" s="89"/>
+      <c r="T460" s="88"/>
+      <c r="U460" s="87"/>
+      <c r="V460" s="87"/>
+      <c r="W460" s="88"/>
+      <c r="X460" s="89"/>
+      <c r="Y460" s="89"/>
+      <c r="Z460" s="89"/>
+      <c r="AA460" s="89"/>
+      <c r="AB460" s="89"/>
+      <c r="AC460" s="89"/>
+      <c r="AD460" s="89"/>
+      <c r="AE460" s="89"/>
+      <c r="AF460" s="89"/>
+      <c r="AG460" s="89"/>
+      <c r="AH460" s="89"/>
+      <c r="AI460" s="89"/>
+      <c r="AJ460" s="89"/>
+      <c r="AK460" s="89"/>
+      <c r="AL460" s="89"/>
+      <c r="AM460" s="89"/>
+      <c r="AN460" s="89"/>
+      <c r="AO460" s="89"/>
+      <c r="AP460" s="89"/>
+      <c r="AQ460" s="88"/>
+      <c r="AR460" s="88"/>
       <c r="AS460" s="25" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="461" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A461" s="84">
+      <c r="A461" s="83">
         <v>12960</v>
       </c>
-      <c r="B461" s="85" t="s">
+      <c r="B461" s="84" t="s">
         <v>1023</v>
       </c>
       <c r="C461" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="D461" s="32"/>
+      <c r="D461" s="31"/>
       <c r="E461" s="19">
         <v>45358</v>
       </c>
       <c r="F461" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G461" s="87" t="s">
+      <c r="G461" s="86" t="s">
         <v>81</v>
       </c>
       <c r="H461" s="23"/>
@@ -42340,65 +42338,65 @@
       <c r="M461" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="N461" s="88"/>
-      <c r="O461" s="88"/>
-      <c r="P461" s="68"/>
+      <c r="N461" s="87"/>
+      <c r="O461" s="87"/>
+      <c r="P461" s="67"/>
       <c r="Q461" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="R461" s="88" t="s">
+      <c r="R461" s="87" t="s">
         <v>82</v>
       </c>
       <c r="S461" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="T461" s="89"/>
-      <c r="U461" s="88"/>
-      <c r="V461" s="88"/>
-      <c r="W461" s="89"/>
-      <c r="X461" s="90"/>
-      <c r="Y461" s="90"/>
-      <c r="Z461" s="90"/>
-      <c r="AA461" s="90"/>
-      <c r="AB461" s="90"/>
-      <c r="AC461" s="90"/>
-      <c r="AD461" s="90"/>
-      <c r="AE461" s="90"/>
-      <c r="AF461" s="90"/>
-      <c r="AG461" s="90"/>
-      <c r="AH461" s="90"/>
-      <c r="AI461" s="90"/>
-      <c r="AJ461" s="90"/>
-      <c r="AK461" s="90"/>
-      <c r="AL461" s="90"/>
-      <c r="AM461" s="90"/>
-      <c r="AN461" s="90"/>
-      <c r="AO461" s="90"/>
-      <c r="AP461" s="90"/>
-      <c r="AQ461" s="89"/>
-      <c r="AR461" s="89"/>
+      <c r="T461" s="88"/>
+      <c r="U461" s="87"/>
+      <c r="V461" s="87"/>
+      <c r="W461" s="88"/>
+      <c r="X461" s="89"/>
+      <c r="Y461" s="89"/>
+      <c r="Z461" s="89"/>
+      <c r="AA461" s="89"/>
+      <c r="AB461" s="89"/>
+      <c r="AC461" s="89"/>
+      <c r="AD461" s="89"/>
+      <c r="AE461" s="89"/>
+      <c r="AF461" s="89"/>
+      <c r="AG461" s="89"/>
+      <c r="AH461" s="89"/>
+      <c r="AI461" s="89"/>
+      <c r="AJ461" s="89"/>
+      <c r="AK461" s="89"/>
+      <c r="AL461" s="89"/>
+      <c r="AM461" s="89"/>
+      <c r="AN461" s="89"/>
+      <c r="AO461" s="89"/>
+      <c r="AP461" s="89"/>
+      <c r="AQ461" s="88"/>
+      <c r="AR461" s="88"/>
       <c r="AS461" s="25" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="462" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A462" s="84">
+      <c r="A462" s="83">
         <v>12961</v>
       </c>
-      <c r="B462" s="85" t="s">
+      <c r="B462" s="84" t="s">
         <v>1024</v>
       </c>
       <c r="C462" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="D462" s="32"/>
+      <c r="D462" s="31"/>
       <c r="E462" s="19">
         <v>45358</v>
       </c>
       <c r="F462" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G462" s="87" t="s">
+      <c r="G462" s="86" t="s">
         <v>81</v>
       </c>
       <c r="H462" s="23"/>
@@ -42411,65 +42409,65 @@
       <c r="M462" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="N462" s="88"/>
-      <c r="O462" s="88"/>
-      <c r="P462" s="68"/>
+      <c r="N462" s="87"/>
+      <c r="O462" s="87"/>
+      <c r="P462" s="67"/>
       <c r="Q462" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="R462" s="88" t="s">
+      <c r="R462" s="87" t="s">
         <v>82</v>
       </c>
       <c r="S462" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="T462" s="89"/>
-      <c r="U462" s="88"/>
-      <c r="V462" s="88"/>
-      <c r="W462" s="89"/>
-      <c r="X462" s="90"/>
-      <c r="Y462" s="90"/>
-      <c r="Z462" s="90"/>
-      <c r="AA462" s="90"/>
-      <c r="AB462" s="90"/>
-      <c r="AC462" s="90"/>
-      <c r="AD462" s="90"/>
-      <c r="AE462" s="90"/>
-      <c r="AF462" s="90"/>
-      <c r="AG462" s="90"/>
-      <c r="AH462" s="90"/>
-      <c r="AI462" s="90"/>
-      <c r="AJ462" s="90"/>
-      <c r="AK462" s="90"/>
-      <c r="AL462" s="90"/>
-      <c r="AM462" s="90"/>
-      <c r="AN462" s="90"/>
-      <c r="AO462" s="90"/>
-      <c r="AP462" s="90"/>
-      <c r="AQ462" s="89"/>
-      <c r="AR462" s="89"/>
+      <c r="T462" s="88"/>
+      <c r="U462" s="87"/>
+      <c r="V462" s="87"/>
+      <c r="W462" s="88"/>
+      <c r="X462" s="89"/>
+      <c r="Y462" s="89"/>
+      <c r="Z462" s="89"/>
+      <c r="AA462" s="89"/>
+      <c r="AB462" s="89"/>
+      <c r="AC462" s="89"/>
+      <c r="AD462" s="89"/>
+      <c r="AE462" s="89"/>
+      <c r="AF462" s="89"/>
+      <c r="AG462" s="89"/>
+      <c r="AH462" s="89"/>
+      <c r="AI462" s="89"/>
+      <c r="AJ462" s="89"/>
+      <c r="AK462" s="89"/>
+      <c r="AL462" s="89"/>
+      <c r="AM462" s="89"/>
+      <c r="AN462" s="89"/>
+      <c r="AO462" s="89"/>
+      <c r="AP462" s="89"/>
+      <c r="AQ462" s="88"/>
+      <c r="AR462" s="88"/>
       <c r="AS462" s="25" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="463" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A463" s="84">
+      <c r="A463" s="83">
         <v>12962</v>
       </c>
-      <c r="B463" s="85" t="s">
+      <c r="B463" s="84" t="s">
         <v>1025</v>
       </c>
       <c r="C463" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="D463" s="32"/>
+      <c r="D463" s="31"/>
       <c r="E463" s="19">
         <v>45358</v>
       </c>
       <c r="F463" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G463" s="87" t="s">
+      <c r="G463" s="86" t="s">
         <v>81</v>
       </c>
       <c r="H463" s="23"/>
@@ -42482,67 +42480,67 @@
       <c r="M463" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="N463" s="88"/>
-      <c r="O463" s="88"/>
-      <c r="P463" s="68"/>
+      <c r="N463" s="87"/>
+      <c r="O463" s="87"/>
+      <c r="P463" s="67"/>
       <c r="Q463" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="R463" s="88" t="s">
+      <c r="R463" s="87" t="s">
         <v>82</v>
       </c>
       <c r="S463" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="T463" s="89"/>
-      <c r="U463" s="88"/>
-      <c r="V463" s="88"/>
-      <c r="W463" s="89"/>
-      <c r="X463" s="90"/>
-      <c r="Y463" s="90"/>
-      <c r="Z463" s="90"/>
-      <c r="AA463" s="90"/>
-      <c r="AB463" s="90"/>
-      <c r="AC463" s="90"/>
-      <c r="AD463" s="90"/>
-      <c r="AE463" s="90"/>
-      <c r="AF463" s="90"/>
-      <c r="AG463" s="90"/>
-      <c r="AH463" s="90"/>
-      <c r="AI463" s="90"/>
-      <c r="AJ463" s="90"/>
-      <c r="AK463" s="90"/>
-      <c r="AL463" s="90"/>
-      <c r="AM463" s="90"/>
-      <c r="AN463" s="90"/>
-      <c r="AO463" s="90"/>
-      <c r="AP463" s="90"/>
-      <c r="AQ463" s="89"/>
-      <c r="AR463" s="89"/>
+      <c r="T463" s="88"/>
+      <c r="U463" s="87"/>
+      <c r="V463" s="87"/>
+      <c r="W463" s="88"/>
+      <c r="X463" s="89"/>
+      <c r="Y463" s="89"/>
+      <c r="Z463" s="89"/>
+      <c r="AA463" s="89"/>
+      <c r="AB463" s="89"/>
+      <c r="AC463" s="89"/>
+      <c r="AD463" s="89"/>
+      <c r="AE463" s="89"/>
+      <c r="AF463" s="89"/>
+      <c r="AG463" s="89"/>
+      <c r="AH463" s="89"/>
+      <c r="AI463" s="89"/>
+      <c r="AJ463" s="89"/>
+      <c r="AK463" s="89"/>
+      <c r="AL463" s="89"/>
+      <c r="AM463" s="89"/>
+      <c r="AN463" s="89"/>
+      <c r="AO463" s="89"/>
+      <c r="AP463" s="89"/>
+      <c r="AQ463" s="88"/>
+      <c r="AR463" s="88"/>
       <c r="AS463" s="25" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="464" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A464" s="84">
+      <c r="A464" s="83">
         <v>12963</v>
       </c>
-      <c r="B464" s="85" t="s">
+      <c r="B464" s="84" t="s">
         <v>1026</v>
       </c>
       <c r="C464" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="D464" s="32" t="s">
+      <c r="D464" s="31" t="s">
         <v>1027</v>
       </c>
-      <c r="E464" s="112">
+      <c r="E464" s="111">
         <v>45358</v>
       </c>
       <c r="F464" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G464" s="87" t="s">
+      <c r="G464" s="86" t="s">
         <v>66</v>
       </c>
       <c r="H464" s="23"/>
@@ -42555,67 +42553,67 @@
       <c r="M464" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="N464" s="88"/>
-      <c r="O464" s="88"/>
-      <c r="P464" s="68"/>
+      <c r="N464" s="87"/>
+      <c r="O464" s="87"/>
+      <c r="P464" s="67"/>
       <c r="Q464" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="R464" s="88" t="s">
+      <c r="R464" s="87" t="s">
         <v>82</v>
       </c>
       <c r="S464" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="T464" s="89"/>
-      <c r="U464" s="88"/>
-      <c r="V464" s="88"/>
-      <c r="W464" s="89"/>
-      <c r="X464" s="90"/>
-      <c r="Y464" s="90"/>
-      <c r="Z464" s="90"/>
-      <c r="AA464" s="90"/>
-      <c r="AB464" s="90"/>
-      <c r="AC464" s="90"/>
-      <c r="AD464" s="90"/>
-      <c r="AE464" s="90"/>
-      <c r="AF464" s="90"/>
-      <c r="AG464" s="90"/>
-      <c r="AH464" s="90"/>
-      <c r="AI464" s="90"/>
-      <c r="AJ464" s="90"/>
-      <c r="AK464" s="90"/>
-      <c r="AL464" s="90"/>
-      <c r="AM464" s="90"/>
-      <c r="AN464" s="90"/>
-      <c r="AO464" s="90"/>
-      <c r="AP464" s="90"/>
-      <c r="AQ464" s="89"/>
-      <c r="AR464" s="89"/>
+      <c r="T464" s="88"/>
+      <c r="U464" s="87"/>
+      <c r="V464" s="87"/>
+      <c r="W464" s="88"/>
+      <c r="X464" s="89"/>
+      <c r="Y464" s="89"/>
+      <c r="Z464" s="89"/>
+      <c r="AA464" s="89"/>
+      <c r="AB464" s="89"/>
+      <c r="AC464" s="89"/>
+      <c r="AD464" s="89"/>
+      <c r="AE464" s="89"/>
+      <c r="AF464" s="89"/>
+      <c r="AG464" s="89"/>
+      <c r="AH464" s="89"/>
+      <c r="AI464" s="89"/>
+      <c r="AJ464" s="89"/>
+      <c r="AK464" s="89"/>
+      <c r="AL464" s="89"/>
+      <c r="AM464" s="89"/>
+      <c r="AN464" s="89"/>
+      <c r="AO464" s="89"/>
+      <c r="AP464" s="89"/>
+      <c r="AQ464" s="88"/>
+      <c r="AR464" s="88"/>
       <c r="AS464" s="25" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="465" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A465" s="84">
+      <c r="A465" s="83">
         <v>12966</v>
       </c>
-      <c r="B465" s="94" t="s">
+      <c r="B465" s="93" t="s">
         <v>1028</v>
       </c>
       <c r="C465" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D465" s="86" t="s">
+      <c r="D465" s="85" t="s">
         <v>1029</v>
       </c>
-      <c r="E465" s="101">
+      <c r="E465" s="100">
         <v>45357</v>
       </c>
       <c r="F465" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G465" s="87" t="s">
+      <c r="G465" s="86" t="s">
         <v>81</v>
       </c>
       <c r="H465" s="23"/>
@@ -42628,63 +42626,63 @@
       <c r="M465" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="N465" s="88"/>
-      <c r="O465" s="88"/>
-      <c r="P465" s="68"/>
-      <c r="Q465" s="88" t="s">
+      <c r="N465" s="87"/>
+      <c r="O465" s="87"/>
+      <c r="P465" s="67"/>
+      <c r="Q465" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="R465" s="88"/>
+      <c r="R465" s="87"/>
       <c r="S465" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="T465" s="89"/>
-      <c r="U465" s="88"/>
-      <c r="V465" s="88"/>
-      <c r="W465" s="89"/>
-      <c r="X465" s="90"/>
-      <c r="Y465" s="90"/>
-      <c r="Z465" s="90"/>
-      <c r="AA465" s="90"/>
-      <c r="AB465" s="90"/>
-      <c r="AC465" s="90"/>
-      <c r="AD465" s="90"/>
-      <c r="AE465" s="90"/>
-      <c r="AF465" s="90"/>
-      <c r="AG465" s="90"/>
-      <c r="AH465" s="90"/>
-      <c r="AI465" s="90"/>
-      <c r="AJ465" s="90"/>
-      <c r="AK465" s="90"/>
-      <c r="AL465" s="90"/>
-      <c r="AM465" s="90"/>
-      <c r="AN465" s="90"/>
-      <c r="AO465" s="90"/>
-      <c r="AP465" s="90"/>
-      <c r="AQ465" s="89"/>
-      <c r="AR465" s="89"/>
-      <c r="AS465" s="91" t="s">
+      <c r="T465" s="88"/>
+      <c r="U465" s="87"/>
+      <c r="V465" s="87"/>
+      <c r="W465" s="88"/>
+      <c r="X465" s="89"/>
+      <c r="Y465" s="89"/>
+      <c r="Z465" s="89"/>
+      <c r="AA465" s="89"/>
+      <c r="AB465" s="89"/>
+      <c r="AC465" s="89"/>
+      <c r="AD465" s="89"/>
+      <c r="AE465" s="89"/>
+      <c r="AF465" s="89"/>
+      <c r="AG465" s="89"/>
+      <c r="AH465" s="89"/>
+      <c r="AI465" s="89"/>
+      <c r="AJ465" s="89"/>
+      <c r="AK465" s="89"/>
+      <c r="AL465" s="89"/>
+      <c r="AM465" s="89"/>
+      <c r="AN465" s="89"/>
+      <c r="AO465" s="89"/>
+      <c r="AP465" s="89"/>
+      <c r="AQ465" s="88"/>
+      <c r="AR465" s="88"/>
+      <c r="AS465" s="90" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="466" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A466" s="84">
+      <c r="A466" s="83">
         <v>12967</v>
       </c>
-      <c r="B466" s="94" t="s">
+      <c r="B466" s="93" t="s">
         <v>1030</v>
       </c>
       <c r="C466" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D466" s="32"/>
-      <c r="E466" s="101">
+      <c r="D466" s="31"/>
+      <c r="E466" s="100">
         <v>45357</v>
       </c>
       <c r="F466" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G466" s="87" t="s">
+      <c r="G466" s="86" t="s">
         <v>81</v>
       </c>
       <c r="H466" s="23"/>
@@ -42697,63 +42695,63 @@
       <c r="M466" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="N466" s="88"/>
-      <c r="O466" s="88"/>
-      <c r="P466" s="68"/>
-      <c r="Q466" s="88" t="s">
+      <c r="N466" s="87"/>
+      <c r="O466" s="87"/>
+      <c r="P466" s="67"/>
+      <c r="Q466" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="R466" s="88"/>
+      <c r="R466" s="87"/>
       <c r="S466" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="T466" s="89"/>
-      <c r="U466" s="88"/>
-      <c r="V466" s="88"/>
-      <c r="W466" s="89"/>
-      <c r="X466" s="90"/>
-      <c r="Y466" s="90"/>
-      <c r="Z466" s="90"/>
-      <c r="AA466" s="90"/>
-      <c r="AB466" s="90"/>
-      <c r="AC466" s="90"/>
-      <c r="AD466" s="90"/>
-      <c r="AE466" s="90"/>
-      <c r="AF466" s="90"/>
-      <c r="AG466" s="90"/>
-      <c r="AH466" s="90"/>
-      <c r="AI466" s="90"/>
-      <c r="AJ466" s="90"/>
-      <c r="AK466" s="90"/>
-      <c r="AL466" s="90"/>
-      <c r="AM466" s="90"/>
-      <c r="AN466" s="90"/>
-      <c r="AO466" s="90"/>
-      <c r="AP466" s="90"/>
-      <c r="AQ466" s="89"/>
-      <c r="AR466" s="89"/>
-      <c r="AS466" s="91" t="s">
+      <c r="T466" s="88"/>
+      <c r="U466" s="87"/>
+      <c r="V466" s="87"/>
+      <c r="W466" s="88"/>
+      <c r="X466" s="89"/>
+      <c r="Y466" s="89"/>
+      <c r="Z466" s="89"/>
+      <c r="AA466" s="89"/>
+      <c r="AB466" s="89"/>
+      <c r="AC466" s="89"/>
+      <c r="AD466" s="89"/>
+      <c r="AE466" s="89"/>
+      <c r="AF466" s="89"/>
+      <c r="AG466" s="89"/>
+      <c r="AH466" s="89"/>
+      <c r="AI466" s="89"/>
+      <c r="AJ466" s="89"/>
+      <c r="AK466" s="89"/>
+      <c r="AL466" s="89"/>
+      <c r="AM466" s="89"/>
+      <c r="AN466" s="89"/>
+      <c r="AO466" s="89"/>
+      <c r="AP466" s="89"/>
+      <c r="AQ466" s="88"/>
+      <c r="AR466" s="88"/>
+      <c r="AS466" s="90" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="467" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A467" s="84">
+      <c r="A467" s="83">
         <v>12968</v>
       </c>
-      <c r="B467" s="94" t="s">
+      <c r="B467" s="93" t="s">
         <v>1031</v>
       </c>
       <c r="C467" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D467" s="32"/>
-      <c r="E467" s="101">
+      <c r="D467" s="31"/>
+      <c r="E467" s="100">
         <v>45357</v>
       </c>
       <c r="F467" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G467" s="87" t="s">
+      <c r="G467" s="86" t="s">
         <v>81</v>
       </c>
       <c r="H467" s="23"/>
@@ -42766,63 +42764,63 @@
       <c r="M467" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="N467" s="88"/>
-      <c r="O467" s="88"/>
-      <c r="P467" s="68"/>
-      <c r="Q467" s="88" t="s">
+      <c r="N467" s="87"/>
+      <c r="O467" s="87"/>
+      <c r="P467" s="67"/>
+      <c r="Q467" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="R467" s="88"/>
+      <c r="R467" s="87"/>
       <c r="S467" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="T467" s="89"/>
-      <c r="U467" s="88"/>
-      <c r="V467" s="88"/>
-      <c r="W467" s="89"/>
-      <c r="X467" s="90"/>
-      <c r="Y467" s="90"/>
-      <c r="Z467" s="90"/>
-      <c r="AA467" s="90"/>
-      <c r="AB467" s="90"/>
-      <c r="AC467" s="90"/>
-      <c r="AD467" s="90"/>
-      <c r="AE467" s="90"/>
-      <c r="AF467" s="90"/>
-      <c r="AG467" s="90"/>
-      <c r="AH467" s="90"/>
-      <c r="AI467" s="90"/>
-      <c r="AJ467" s="90"/>
-      <c r="AK467" s="90"/>
-      <c r="AL467" s="90"/>
-      <c r="AM467" s="90"/>
-      <c r="AN467" s="90"/>
-      <c r="AO467" s="90"/>
-      <c r="AP467" s="90"/>
-      <c r="AQ467" s="89"/>
-      <c r="AR467" s="89"/>
-      <c r="AS467" s="91" t="s">
+      <c r="T467" s="88"/>
+      <c r="U467" s="87"/>
+      <c r="V467" s="87"/>
+      <c r="W467" s="88"/>
+      <c r="X467" s="89"/>
+      <c r="Y467" s="89"/>
+      <c r="Z467" s="89"/>
+      <c r="AA467" s="89"/>
+      <c r="AB467" s="89"/>
+      <c r="AC467" s="89"/>
+      <c r="AD467" s="89"/>
+      <c r="AE467" s="89"/>
+      <c r="AF467" s="89"/>
+      <c r="AG467" s="89"/>
+      <c r="AH467" s="89"/>
+      <c r="AI467" s="89"/>
+      <c r="AJ467" s="89"/>
+      <c r="AK467" s="89"/>
+      <c r="AL467" s="89"/>
+      <c r="AM467" s="89"/>
+      <c r="AN467" s="89"/>
+      <c r="AO467" s="89"/>
+      <c r="AP467" s="89"/>
+      <c r="AQ467" s="88"/>
+      <c r="AR467" s="88"/>
+      <c r="AS467" s="90" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="468" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A468" s="84">
+      <c r="A468" s="83">
         <v>12969</v>
       </c>
-      <c r="B468" s="94" t="s">
+      <c r="B468" s="93" t="s">
         <v>1032</v>
       </c>
       <c r="C468" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D468" s="32"/>
-      <c r="E468" s="101">
+      <c r="D468" s="31"/>
+      <c r="E468" s="100">
         <v>45357</v>
       </c>
       <c r="F468" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G468" s="87" t="s">
+      <c r="G468" s="86" t="s">
         <v>81</v>
       </c>
       <c r="H468" s="23"/>
@@ -42835,63 +42833,63 @@
       <c r="M468" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="N468" s="88"/>
-      <c r="O468" s="88"/>
-      <c r="P468" s="68"/>
-      <c r="Q468" s="88" t="s">
+      <c r="N468" s="87"/>
+      <c r="O468" s="87"/>
+      <c r="P468" s="67"/>
+      <c r="Q468" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="R468" s="88"/>
+      <c r="R468" s="87"/>
       <c r="S468" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="T468" s="89"/>
-      <c r="U468" s="88"/>
-      <c r="V468" s="88"/>
-      <c r="W468" s="89"/>
-      <c r="X468" s="90"/>
-      <c r="Y468" s="90"/>
-      <c r="Z468" s="90"/>
-      <c r="AA468" s="90"/>
-      <c r="AB468" s="90"/>
-      <c r="AC468" s="90"/>
-      <c r="AD468" s="90"/>
-      <c r="AE468" s="90"/>
-      <c r="AF468" s="90"/>
-      <c r="AG468" s="90"/>
-      <c r="AH468" s="90"/>
-      <c r="AI468" s="90"/>
-      <c r="AJ468" s="90"/>
-      <c r="AK468" s="90"/>
-      <c r="AL468" s="90"/>
-      <c r="AM468" s="90"/>
-      <c r="AN468" s="90"/>
-      <c r="AO468" s="90"/>
-      <c r="AP468" s="90"/>
-      <c r="AQ468" s="89"/>
-      <c r="AR468" s="89"/>
-      <c r="AS468" s="91" t="s">
+      <c r="T468" s="88"/>
+      <c r="U468" s="87"/>
+      <c r="V468" s="87"/>
+      <c r="W468" s="88"/>
+      <c r="X468" s="89"/>
+      <c r="Y468" s="89"/>
+      <c r="Z468" s="89"/>
+      <c r="AA468" s="89"/>
+      <c r="AB468" s="89"/>
+      <c r="AC468" s="89"/>
+      <c r="AD468" s="89"/>
+      <c r="AE468" s="89"/>
+      <c r="AF468" s="89"/>
+      <c r="AG468" s="89"/>
+      <c r="AH468" s="89"/>
+      <c r="AI468" s="89"/>
+      <c r="AJ468" s="89"/>
+      <c r="AK468" s="89"/>
+      <c r="AL468" s="89"/>
+      <c r="AM468" s="89"/>
+      <c r="AN468" s="89"/>
+      <c r="AO468" s="89"/>
+      <c r="AP468" s="89"/>
+      <c r="AQ468" s="88"/>
+      <c r="AR468" s="88"/>
+      <c r="AS468" s="90" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="469" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A469" s="84">
+      <c r="A469" s="83">
         <v>12970</v>
       </c>
-      <c r="B469" s="94" t="s">
+      <c r="B469" s="93" t="s">
         <v>1033</v>
       </c>
       <c r="C469" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D469" s="32"/>
-      <c r="E469" s="101">
+      <c r="D469" s="31"/>
+      <c r="E469" s="100">
         <v>45357</v>
       </c>
       <c r="F469" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G469" s="87" t="s">
+      <c r="G469" s="86" t="s">
         <v>81</v>
       </c>
       <c r="H469" s="23"/>
@@ -42904,61 +42902,61 @@
       <c r="M469" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="N469" s="88"/>
-      <c r="O469" s="88"/>
-      <c r="P469" s="68"/>
-      <c r="Q469" s="88" t="s">
+      <c r="N469" s="87"/>
+      <c r="O469" s="87"/>
+      <c r="P469" s="67"/>
+      <c r="Q469" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="R469" s="88"/>
+      <c r="R469" s="87"/>
       <c r="S469" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="T469" s="89"/>
-      <c r="U469" s="88"/>
-      <c r="V469" s="88"/>
-      <c r="W469" s="89"/>
-      <c r="X469" s="90"/>
-      <c r="Y469" s="90"/>
-      <c r="Z469" s="90"/>
-      <c r="AA469" s="90"/>
-      <c r="AB469" s="90"/>
-      <c r="AC469" s="90"/>
-      <c r="AD469" s="90"/>
-      <c r="AE469" s="90"/>
-      <c r="AF469" s="90"/>
-      <c r="AG469" s="90"/>
-      <c r="AH469" s="90"/>
-      <c r="AI469" s="90"/>
-      <c r="AJ469" s="90"/>
-      <c r="AK469" s="90"/>
-      <c r="AL469" s="90"/>
-      <c r="AM469" s="90"/>
-      <c r="AN469" s="90"/>
-      <c r="AO469" s="90"/>
-      <c r="AP469" s="90"/>
-      <c r="AQ469" s="89"/>
-      <c r="AR469" s="89"/>
-      <c r="AS469" s="91" t="s">
+      <c r="T469" s="88"/>
+      <c r="U469" s="87"/>
+      <c r="V469" s="87"/>
+      <c r="W469" s="88"/>
+      <c r="X469" s="89"/>
+      <c r="Y469" s="89"/>
+      <c r="Z469" s="89"/>
+      <c r="AA469" s="89"/>
+      <c r="AB469" s="89"/>
+      <c r="AC469" s="89"/>
+      <c r="AD469" s="89"/>
+      <c r="AE469" s="89"/>
+      <c r="AF469" s="89"/>
+      <c r="AG469" s="89"/>
+      <c r="AH469" s="89"/>
+      <c r="AI469" s="89"/>
+      <c r="AJ469" s="89"/>
+      <c r="AK469" s="89"/>
+      <c r="AL469" s="89"/>
+      <c r="AM469" s="89"/>
+      <c r="AN469" s="89"/>
+      <c r="AO469" s="89"/>
+      <c r="AP469" s="89"/>
+      <c r="AQ469" s="88"/>
+      <c r="AR469" s="88"/>
+      <c r="AS469" s="90" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="470" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A470" s="84">
+      <c r="A470" s="83">
         <v>12986</v>
       </c>
-      <c r="B470" s="94" t="s">
+      <c r="B470" s="93" t="s">
         <v>1034</v>
       </c>
       <c r="C470" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D470" s="32" t="s">
+      <c r="D470" s="31" t="s">
         <v>1035</v>
       </c>
-      <c r="E470" s="101"/>
+      <c r="E470" s="100"/>
       <c r="F470" s="14"/>
-      <c r="G470" s="87"/>
+      <c r="G470" s="86"/>
       <c r="H470" s="23"/>
       <c r="I470" s="23"/>
       <c r="J470" s="23"/>
@@ -42969,59 +42967,59 @@
       <c r="M470" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="N470" s="88"/>
-      <c r="O470" s="88"/>
-      <c r="P470" s="68"/>
-      <c r="Q470" s="88" t="s">
+      <c r="N470" s="87"/>
+      <c r="O470" s="87"/>
+      <c r="P470" s="67"/>
+      <c r="Q470" s="87" t="s">
         <v>1036</v>
       </c>
-      <c r="R470" s="88"/>
+      <c r="R470" s="87"/>
       <c r="S470" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="T470" s="89"/>
-      <c r="U470" s="88"/>
-      <c r="V470" s="88"/>
-      <c r="W470" s="89"/>
-      <c r="X470" s="90"/>
-      <c r="Y470" s="90"/>
-      <c r="Z470" s="90"/>
-      <c r="AA470" s="90"/>
-      <c r="AB470" s="90"/>
-      <c r="AC470" s="90"/>
-      <c r="AD470" s="90"/>
-      <c r="AE470" s="90"/>
-      <c r="AF470" s="90"/>
-      <c r="AG470" s="90"/>
-      <c r="AH470" s="90"/>
-      <c r="AI470" s="90"/>
-      <c r="AJ470" s="90"/>
-      <c r="AK470" s="90"/>
-      <c r="AL470" s="90"/>
-      <c r="AM470" s="90"/>
-      <c r="AN470" s="90"/>
-      <c r="AO470" s="90"/>
-      <c r="AP470" s="90"/>
-      <c r="AQ470" s="89"/>
-      <c r="AR470" s="89"/>
-      <c r="AS470" s="128" t="s">
+      <c r="T470" s="88"/>
+      <c r="U470" s="87"/>
+      <c r="V470" s="87"/>
+      <c r="W470" s="88"/>
+      <c r="X470" s="89"/>
+      <c r="Y470" s="89"/>
+      <c r="Z470" s="89"/>
+      <c r="AA470" s="89"/>
+      <c r="AB470" s="89"/>
+      <c r="AC470" s="89"/>
+      <c r="AD470" s="89"/>
+      <c r="AE470" s="89"/>
+      <c r="AF470" s="89"/>
+      <c r="AG470" s="89"/>
+      <c r="AH470" s="89"/>
+      <c r="AI470" s="89"/>
+      <c r="AJ470" s="89"/>
+      <c r="AK470" s="89"/>
+      <c r="AL470" s="89"/>
+      <c r="AM470" s="89"/>
+      <c r="AN470" s="89"/>
+      <c r="AO470" s="89"/>
+      <c r="AP470" s="89"/>
+      <c r="AQ470" s="88"/>
+      <c r="AR470" s="88"/>
+      <c r="AS470" s="127" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="471" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A471" s="84">
+      <c r="A471" s="83">
         <v>222222</v>
       </c>
-      <c r="B471" s="85" t="s">
+      <c r="B471" s="84" t="s">
         <v>1038</v>
       </c>
       <c r="C471" s="11" t="s">
         <v>1039</v>
       </c>
-      <c r="D471" s="32"/>
-      <c r="E471" s="85"/>
+      <c r="D471" s="31"/>
+      <c r="E471" s="84"/>
       <c r="F471" s="14"/>
-      <c r="G471" s="87"/>
+      <c r="G471" s="86"/>
       <c r="H471" s="23"/>
       <c r="I471" s="23"/>
       <c r="J471" s="23"/>
@@ -43032,11 +43030,11 @@
       <c r="M471" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="N471" s="88"/>
-      <c r="O471" s="88"/>
-      <c r="P471" s="68"/>
+      <c r="N471" s="87"/>
+      <c r="O471" s="87"/>
+      <c r="P471" s="67"/>
       <c r="Q471" s="21" t="s">
-        <v>558</v>
+        <v>1040</v>
       </c>
       <c r="R471" s="21" t="s">
         <v>100</v>
@@ -43044,45 +43042,45 @@
       <c r="S471" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="T471" s="89"/>
-      <c r="U471" s="88"/>
-      <c r="V471" s="88"/>
-      <c r="W471" s="89"/>
+      <c r="T471" s="88"/>
+      <c r="U471" s="87"/>
+      <c r="V471" s="87"/>
+      <c r="W471" s="88"/>
       <c r="X471" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="Y471" s="90">
+      <c r="Y471" s="89">
         <v>222222</v>
       </c>
-      <c r="Z471" s="90"/>
-      <c r="AA471" s="90"/>
-      <c r="AB471" s="90"/>
-      <c r="AC471" s="90"/>
+      <c r="Z471" s="89"/>
+      <c r="AA471" s="89"/>
+      <c r="AB471" s="89"/>
+      <c r="AC471" s="89"/>
       <c r="AD471" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="AE471" s="90">
+      <c r="AE471" s="89">
         <v>222222</v>
       </c>
-      <c r="AF471" s="90"/>
-      <c r="AG471" s="90"/>
-      <c r="AH471" s="90"/>
-      <c r="AI471" s="90"/>
-      <c r="AJ471" s="90"/>
-      <c r="AK471" s="90"/>
-      <c r="AL471" s="90"/>
-      <c r="AM471" s="90"/>
-      <c r="AN471" s="90"/>
-      <c r="AO471" s="90"/>
-      <c r="AP471" s="90"/>
-      <c r="AQ471" s="89"/>
-      <c r="AR471" s="89"/>
-      <c r="AS471" s="130" t="s">
+      <c r="AF471" s="89"/>
+      <c r="AG471" s="89"/>
+      <c r="AH471" s="89"/>
+      <c r="AI471" s="89"/>
+      <c r="AJ471" s="89"/>
+      <c r="AK471" s="89"/>
+      <c r="AL471" s="89"/>
+      <c r="AM471" s="89"/>
+      <c r="AN471" s="89"/>
+      <c r="AO471" s="89"/>
+      <c r="AP471" s="89"/>
+      <c r="AQ471" s="88"/>
+      <c r="AR471" s="88"/>
+      <c r="AS471" s="25" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="475" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="E475" s="26" t="s">
+      <c r="E475" t="s">
         <v>1037</v>
       </c>
     </row>
@@ -43098,6 +43096,46 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="d3d772d5-8785-49ba-8d87-9ce83f8f842f" xsi:nil="true"/>
+    <SharedWithUsers xmlns="5bc6a959-17f5-4671-a856-850152dcb308">
+      <UserInfo>
+        <DisplayName>Kathleen Coates</DisplayName>
+        <AccountId>43</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Katie Price</DisplayName>
+        <AccountId>61</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Tony Countryman</DisplayName>
+        <AccountId>46</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Paul Thurman</DisplayName>
+        <AccountId>45</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Steve Costa</DisplayName>
+        <AccountId>56</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <uegw xmlns="d3d772d5-8785-49ba-8d87-9ce83f8f842f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d3d772d5-8785-49ba-8d87-9ce83f8f842f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5bc6a959-17f5-4671-a856-850152dcb308" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E53827B1A17CD040A82F4CB6493BE107" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cd232c0e9954280ca5703afa7e5a7b0c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3d772d5-8785-49ba-8d87-9ce83f8f842f" xmlns:ns3="5bc6a959-17f5-4671-a856-850152dcb308" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="244dc119bbf5629589ee693515a62b2a" ns2:_="" ns3:_="">
     <xsd:import namespace="d3d772d5-8785-49ba-8d87-9ce83f8f842f"/>
@@ -43364,46 +43402,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="d3d772d5-8785-49ba-8d87-9ce83f8f842f" xsi:nil="true"/>
-    <SharedWithUsers xmlns="5bc6a959-17f5-4671-a856-850152dcb308">
-      <UserInfo>
-        <DisplayName>Kathleen Coates</DisplayName>
-        <AccountId>43</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Katie Price</DisplayName>
-        <AccountId>61</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Tony Countryman</DisplayName>
-        <AccountId>46</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Paul Thurman</DisplayName>
-        <AccountId>45</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Steve Costa</DisplayName>
-        <AccountId>56</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <uegw xmlns="d3d772d5-8785-49ba-8d87-9ce83f8f842f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d3d772d5-8785-49ba-8d87-9ce83f8f842f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5bc6a959-17f5-4671-a856-850152dcb308" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -43414,6 +43412,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F5B2541-43D0-49A1-8374-BB26BE387144}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d3d772d5-8785-49ba-8d87-9ce83f8f842f"/>
+    <ds:schemaRef ds:uri="5bc6a959-17f5-4671-a856-850152dcb308"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F7826E5-3E1C-48F1-A433-5F771AF96D89}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -43432,17 +43441,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F5B2541-43D0-49A1-8374-BB26BE387144}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d3d772d5-8785-49ba-8d87-9ce83f8f842f"/>
-    <ds:schemaRef ds:uri="5bc6a959-17f5-4671-a856-850152dcb308"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{282EF33A-C6D9-498B-9EDB-B03D7B5BFEE6}">
   <ds:schemaRefs>

--- a/data/District Monitoring.xlsx
+++ b/data/District Monitoring.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rmd1\users\k_price\Survey123_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE277CE5-55C1-4DAE-A136-C17F5A9AD2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D394305B-0A04-4EEA-A844-948843F8AE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5565" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="165" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comprehensive Monitoring" sheetId="3" r:id="rId1"/>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5051" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5052" uniqueCount="1041">
   <si>
     <t>Station ID</t>
   </si>
@@ -6265,10 +6265,10 @@
   <dimension ref="A1:AS475"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K454" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AI454" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q471" sqref="Q471"/>
+      <selection pane="bottomRight" activeCell="AJ471" sqref="AJ471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43065,8 +43065,12 @@
       <c r="AF471" s="89"/>
       <c r="AG471" s="89"/>
       <c r="AH471" s="89"/>
-      <c r="AI471" s="89"/>
-      <c r="AJ471" s="89"/>
+      <c r="AI471" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ471" s="89">
+        <v>222222</v>
+      </c>
       <c r="AK471" s="89"/>
       <c r="AL471" s="89"/>
       <c r="AM471" s="89"/>
@@ -43096,46 +43100,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="d3d772d5-8785-49ba-8d87-9ce83f8f842f" xsi:nil="true"/>
-    <SharedWithUsers xmlns="5bc6a959-17f5-4671-a856-850152dcb308">
-      <UserInfo>
-        <DisplayName>Kathleen Coates</DisplayName>
-        <AccountId>43</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Katie Price</DisplayName>
-        <AccountId>61</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Tony Countryman</DisplayName>
-        <AccountId>46</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Paul Thurman</DisplayName>
-        <AccountId>45</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Steve Costa</DisplayName>
-        <AccountId>56</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <uegw xmlns="d3d772d5-8785-49ba-8d87-9ce83f8f842f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d3d772d5-8785-49ba-8d87-9ce83f8f842f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5bc6a959-17f5-4671-a856-850152dcb308" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E53827B1A17CD040A82F4CB6493BE107" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cd232c0e9954280ca5703afa7e5a7b0c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3d772d5-8785-49ba-8d87-9ce83f8f842f" xmlns:ns3="5bc6a959-17f5-4671-a856-850152dcb308" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="244dc119bbf5629589ee693515a62b2a" ns2:_="" ns3:_="">
     <xsd:import namespace="d3d772d5-8785-49ba-8d87-9ce83f8f842f"/>
@@ -43402,6 +43366,46 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="d3d772d5-8785-49ba-8d87-9ce83f8f842f" xsi:nil="true"/>
+    <SharedWithUsers xmlns="5bc6a959-17f5-4671-a856-850152dcb308">
+      <UserInfo>
+        <DisplayName>Kathleen Coates</DisplayName>
+        <AccountId>43</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Katie Price</DisplayName>
+        <AccountId>61</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Tony Countryman</DisplayName>
+        <AccountId>46</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Paul Thurman</DisplayName>
+        <AccountId>45</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Steve Costa</DisplayName>
+        <AccountId>56</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <uegw xmlns="d3d772d5-8785-49ba-8d87-9ce83f8f842f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d3d772d5-8785-49ba-8d87-9ce83f8f842f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5bc6a959-17f5-4671-a856-850152dcb308" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -43412,17 +43416,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F5B2541-43D0-49A1-8374-BB26BE387144}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d3d772d5-8785-49ba-8d87-9ce83f8f842f"/>
-    <ds:schemaRef ds:uri="5bc6a959-17f5-4671-a856-850152dcb308"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F7826E5-3E1C-48F1-A433-5F771AF96D89}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -43441,6 +43434,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F5B2541-43D0-49A1-8374-BB26BE387144}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d3d772d5-8785-49ba-8d87-9ce83f8f842f"/>
+    <ds:schemaRef ds:uri="5bc6a959-17f5-4671-a856-850152dcb308"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{282EF33A-C6D9-498B-9EDB-B03D7B5BFEE6}">
   <ds:schemaRefs>
